--- a/BackTest/2019-11-20 BackTest XVG.xlsx
+++ b/BackTest/2019-11-20 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.38</v>
+        <v>5.14</v>
       </c>
       <c r="C2" t="n">
-        <v>5.45</v>
+        <v>5.14</v>
       </c>
       <c r="D2" t="n">
-        <v>5.45</v>
+        <v>5.14</v>
       </c>
       <c r="E2" t="n">
-        <v>5.38</v>
+        <v>5.14</v>
       </c>
       <c r="F2" t="n">
-        <v>5819.5578</v>
+        <v>51398.1306</v>
       </c>
       <c r="G2" t="n">
-        <v>5.387333333333331</v>
+        <v>369810.7569771999</v>
       </c>
       <c r="H2" t="n">
-        <v>5.196833333333333</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.45</v>
+        <v>5.14</v>
       </c>
       <c r="C3" t="n">
-        <v>5.45</v>
+        <v>5.18</v>
       </c>
       <c r="D3" t="n">
-        <v>5.45</v>
+        <v>5.18</v>
       </c>
       <c r="E3" t="n">
-        <v>5.45</v>
+        <v>5.14</v>
       </c>
       <c r="F3" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G3" t="n">
-        <v>5.396666666666664</v>
+        <v>394810.7569771999</v>
       </c>
       <c r="H3" t="n">
-        <v>5.2025</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.4</v>
+        <v>5.12</v>
       </c>
       <c r="C4" t="n">
-        <v>5.4</v>
+        <v>5.12</v>
       </c>
       <c r="D4" t="n">
-        <v>5.4</v>
+        <v>5.12</v>
       </c>
       <c r="E4" t="n">
-        <v>5.4</v>
+        <v>5.12</v>
       </c>
       <c r="F4" t="n">
-        <v>2168.7585</v>
+        <v>10000</v>
       </c>
       <c r="G4" t="n">
-        <v>5.400666666666664</v>
+        <v>384810.7569771999</v>
       </c>
       <c r="H4" t="n">
-        <v>5.207333333333333</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>5.18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.18</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +542,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
       <c r="C5" t="n">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
       <c r="D5" t="n">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
       <c r="E5" t="n">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
       <c r="F5" t="n">
-        <v>49971.2414</v>
+        <v>102</v>
       </c>
       <c r="G5" t="n">
-        <v>5.403999999999998</v>
+        <v>384912.7569771999</v>
       </c>
       <c r="H5" t="n">
-        <v>5.212166666666665</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +585,41 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
       <c r="C6" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="D6" t="n">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
       <c r="E6" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="F6" t="n">
-        <v>51342.035</v>
+        <v>369200.4767</v>
       </c>
       <c r="G6" t="n">
-        <v>5.403999999999998</v>
+        <v>384912.7569771999</v>
       </c>
       <c r="H6" t="n">
-        <v>5.216666666666665</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +628,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="C7" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="D7" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="E7" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="F7" t="n">
-        <v>25935.9999</v>
+        <v>95988.3841</v>
       </c>
       <c r="G7" t="n">
-        <v>5.399999999999998</v>
+        <v>384912.7569771999</v>
       </c>
       <c r="H7" t="n">
-        <v>5.221166666666664</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +663,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="C8" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="D8" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="E8" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="F8" t="n">
-        <v>259.3344</v>
+        <v>40000</v>
       </c>
       <c r="G8" t="n">
-        <v>5.394666666666665</v>
+        <v>384912.7569771999</v>
       </c>
       <c r="H8" t="n">
-        <v>5.225333333333331</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +698,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="D9" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="E9" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="F9" t="n">
-        <v>1361.5056</v>
+        <v>80000</v>
       </c>
       <c r="G9" t="n">
-        <v>5.389333333333331</v>
+        <v>464912.7569771999</v>
       </c>
       <c r="H9" t="n">
-        <v>5.229499999999998</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +733,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="C10" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="D10" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="E10" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="F10" t="n">
-        <v>19573.0463</v>
+        <v>17618</v>
       </c>
       <c r="G10" t="n">
-        <v>5.383999999999999</v>
+        <v>464912.7569771999</v>
       </c>
       <c r="H10" t="n">
-        <v>5.235166666666665</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +768,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.36</v>
+        <v>5.12</v>
       </c>
       <c r="C11" t="n">
-        <v>5.36</v>
+        <v>5.12</v>
       </c>
       <c r="D11" t="n">
-        <v>5.36</v>
+        <v>5.12</v>
       </c>
       <c r="E11" t="n">
-        <v>5.36</v>
+        <v>5.12</v>
       </c>
       <c r="F11" t="n">
-        <v>19573.0462</v>
+        <v>58590.9838</v>
       </c>
       <c r="G11" t="n">
-        <v>5.383999999999999</v>
+        <v>406321.7731771999</v>
       </c>
       <c r="H11" t="n">
-        <v>5.239499999999998</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +803,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.36</v>
+        <v>5.14</v>
       </c>
       <c r="C12" t="n">
-        <v>5.36</v>
+        <v>5.14</v>
       </c>
       <c r="D12" t="n">
-        <v>5.36</v>
+        <v>5.14</v>
       </c>
       <c r="E12" t="n">
-        <v>5.36</v>
+        <v>5.14</v>
       </c>
       <c r="F12" t="n">
-        <v>8080</v>
+        <v>284328.3541</v>
       </c>
       <c r="G12" t="n">
-        <v>5.383999999999999</v>
+        <v>690650.1272771999</v>
       </c>
       <c r="H12" t="n">
-        <v>5.243833333333331</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +838,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="C13" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="D13" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="E13" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="F13" t="n">
-        <v>90667.5987</v>
+        <v>1072196.9738</v>
       </c>
       <c r="G13" t="n">
-        <v>5.382666666666665</v>
+        <v>1762847.1010772</v>
       </c>
       <c r="H13" t="n">
-        <v>5.248666666666665</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -897,33 +876,30 @@
         <v>5.35</v>
       </c>
       <c r="C14" t="n">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="D14" t="n">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="E14" t="n">
-        <v>5.35</v>
+        <v>5.26</v>
       </c>
       <c r="F14" t="n">
-        <v>154699.5713</v>
+        <v>77080.1744</v>
       </c>
       <c r="G14" t="n">
-        <v>5.375999999999999</v>
+        <v>1839927.2754772</v>
       </c>
       <c r="H14" t="n">
-        <v>5.253499999999999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +908,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="C15" t="n">
-        <v>5.35</v>
+        <v>5.39</v>
       </c>
       <c r="D15" t="n">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="E15" t="n">
-        <v>5.35</v>
+        <v>5.39</v>
       </c>
       <c r="F15" t="n">
-        <v>103069.26</v>
+        <v>9546</v>
       </c>
       <c r="G15" t="n">
-        <v>5.377999999999999</v>
+        <v>1839927.2754772</v>
       </c>
       <c r="H15" t="n">
-        <v>5.257666666666665</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +943,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.36</v>
+        <v>5.4</v>
       </c>
       <c r="C16" t="n">
-        <v>5.36</v>
+        <v>5.44</v>
       </c>
       <c r="D16" t="n">
-        <v>5.36</v>
+        <v>5.44</v>
       </c>
       <c r="E16" t="n">
-        <v>5.36</v>
+        <v>5.27</v>
       </c>
       <c r="F16" t="n">
-        <v>14994.46</v>
+        <v>726116.0763</v>
       </c>
       <c r="G16" t="n">
-        <v>5.379333333333332</v>
+        <v>2566043.3517772</v>
       </c>
       <c r="H16" t="n">
-        <v>5.261999999999999</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +978,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.36</v>
+        <v>5.44</v>
       </c>
       <c r="C17" t="n">
-        <v>5.36</v>
+        <v>5.31</v>
       </c>
       <c r="D17" t="n">
-        <v>5.36</v>
+        <v>5.44</v>
       </c>
       <c r="E17" t="n">
-        <v>5.36</v>
+        <v>5.31</v>
       </c>
       <c r="F17" t="n">
-        <v>11219.44</v>
+        <v>59714</v>
       </c>
       <c r="G17" t="n">
-        <v>5.373333333333332</v>
+        <v>2506329.3517772</v>
       </c>
       <c r="H17" t="n">
-        <v>5.266499999999999</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1013,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.35</v>
+        <v>5.32</v>
       </c>
       <c r="C18" t="n">
-        <v>5.35</v>
+        <v>5.34</v>
       </c>
       <c r="D18" t="n">
-        <v>5.35</v>
+        <v>5.34</v>
       </c>
       <c r="E18" t="n">
-        <v>5.35</v>
+        <v>5.32</v>
       </c>
       <c r="F18" t="n">
-        <v>3463.2302</v>
+        <v>374.976</v>
       </c>
       <c r="G18" t="n">
-        <v>5.366666666666664</v>
+        <v>2506704.327777199</v>
       </c>
       <c r="H18" t="n">
-        <v>5.272333333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1087,33 +1051,30 @@
         <v>5.35</v>
       </c>
       <c r="C19" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="D19" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="E19" t="n">
-        <v>5.3</v>
+        <v>5.35</v>
       </c>
       <c r="F19" t="n">
-        <v>470136.1464</v>
+        <v>150</v>
       </c>
       <c r="G19" t="n">
-        <v>5.367999999999998</v>
+        <v>2506854.327777199</v>
       </c>
       <c r="H19" t="n">
-        <v>5.278166666666666</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1083,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.28</v>
+        <v>5.32</v>
       </c>
       <c r="C20" t="n">
-        <v>5.28</v>
+        <v>5.38</v>
       </c>
       <c r="D20" t="n">
-        <v>5.28</v>
+        <v>5.38</v>
       </c>
       <c r="E20" t="n">
-        <v>5.28</v>
+        <v>5.32</v>
       </c>
       <c r="F20" t="n">
-        <v>261.3</v>
+        <v>106111.0321</v>
       </c>
       <c r="G20" t="n">
-        <v>5.359999999999998</v>
+        <v>2612965.359877199</v>
       </c>
       <c r="H20" t="n">
-        <v>5.282999999999999</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1118,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.29</v>
+        <v>5.38</v>
       </c>
       <c r="C21" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="D21" t="n">
-        <v>5.29</v>
+        <v>5.44</v>
       </c>
       <c r="E21" t="n">
-        <v>5.28</v>
+        <v>5.32</v>
       </c>
       <c r="F21" t="n">
-        <v>609.4275</v>
+        <v>30167.6505</v>
       </c>
       <c r="G21" t="n">
-        <v>5.353333333333331</v>
+        <v>2643133.010377199</v>
       </c>
       <c r="H21" t="n">
-        <v>5.288166666666665</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1153,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="C22" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="D22" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="E22" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="F22" t="n">
-        <v>129.2725</v>
+        <v>79304.28750000001</v>
       </c>
       <c r="G22" t="n">
-        <v>5.346666666666665</v>
+        <v>2643133.010377199</v>
       </c>
       <c r="H22" t="n">
-        <v>5.293333333333331</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1188,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="C23" t="n">
-        <v>5.27</v>
+        <v>5.44</v>
       </c>
       <c r="D23" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="E23" t="n">
-        <v>5.27</v>
+        <v>5.44</v>
       </c>
       <c r="F23" t="n">
-        <v>86192.2654</v>
+        <v>4650.226</v>
       </c>
       <c r="G23" t="n">
-        <v>5.340666666666665</v>
+        <v>2643133.010377199</v>
       </c>
       <c r="H23" t="n">
-        <v>5.296666666666664</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1223,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.26</v>
+        <v>5.45</v>
       </c>
       <c r="C24" t="n">
-        <v>5.26</v>
+        <v>5.44</v>
       </c>
       <c r="D24" t="n">
-        <v>5.26</v>
+        <v>5.46</v>
       </c>
       <c r="E24" t="n">
-        <v>5.26</v>
+        <v>5.44</v>
       </c>
       <c r="F24" t="n">
-        <v>378</v>
+        <v>55732.9893</v>
       </c>
       <c r="G24" t="n">
-        <v>5.333999999999999</v>
+        <v>2643133.010377199</v>
       </c>
       <c r="H24" t="n">
-        <v>5.29983333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1258,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="C25" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="D25" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="E25" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="F25" t="n">
-        <v>104786.1841</v>
+        <v>4197.3386</v>
       </c>
       <c r="G25" t="n">
-        <v>5.327999999999999</v>
+        <v>2638935.671777199</v>
       </c>
       <c r="H25" t="n">
-        <v>5.302999999999997</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1293,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="C26" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="D26" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="E26" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="F26" t="n">
-        <v>25038.3995</v>
+        <v>3987.4717</v>
       </c>
       <c r="G26" t="n">
-        <v>5.321999999999998</v>
+        <v>2638935.671777199</v>
       </c>
       <c r="H26" t="n">
-        <v>5.306166666666664</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1328,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="C27" t="n">
-        <v>5.28</v>
+        <v>5.38</v>
       </c>
       <c r="D27" t="n">
-        <v>5.28</v>
+        <v>5.38</v>
       </c>
       <c r="E27" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="F27" t="n">
-        <v>255605</v>
+        <v>3788.0981</v>
       </c>
       <c r="G27" t="n">
-        <v>5.316666666666665</v>
+        <v>2642723.7698772</v>
       </c>
       <c r="H27" t="n">
-        <v>5.309499999999997</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1363,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.26</v>
+        <v>5.36</v>
       </c>
       <c r="C28" t="n">
-        <v>5.26</v>
+        <v>5.46</v>
       </c>
       <c r="D28" t="n">
-        <v>5.26</v>
+        <v>5.46</v>
       </c>
       <c r="E28" t="n">
-        <v>5.26</v>
+        <v>5.36</v>
       </c>
       <c r="F28" t="n">
-        <v>11899.3195</v>
+        <v>7697.6931</v>
       </c>
       <c r="G28" t="n">
-        <v>5.309999999999999</v>
+        <v>2650421.462977199</v>
       </c>
       <c r="H28" t="n">
-        <v>5.312499999999997</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1398,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.24</v>
+        <v>5.45</v>
       </c>
       <c r="C29" t="n">
-        <v>5.24</v>
+        <v>5.32</v>
       </c>
       <c r="D29" t="n">
-        <v>5.24</v>
+        <v>5.45</v>
       </c>
       <c r="E29" t="n">
-        <v>5.24</v>
+        <v>5.32</v>
       </c>
       <c r="F29" t="n">
-        <v>190.1141</v>
+        <v>34486.2188</v>
       </c>
       <c r="G29" t="n">
-        <v>5.301999999999998</v>
+        <v>2615935.244177199</v>
       </c>
       <c r="H29" t="n">
-        <v>5.315166666666665</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1433,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.24</v>
+        <v>5.34</v>
       </c>
       <c r="C30" t="n">
-        <v>5.24</v>
+        <v>5.34</v>
       </c>
       <c r="D30" t="n">
-        <v>5.24</v>
+        <v>5.34</v>
       </c>
       <c r="E30" t="n">
-        <v>5.24</v>
+        <v>5.34</v>
       </c>
       <c r="F30" t="n">
-        <v>4174.5308</v>
+        <v>34164.2188</v>
       </c>
       <c r="G30" t="n">
-        <v>5.294666666666665</v>
+        <v>2650099.462977199</v>
       </c>
       <c r="H30" t="n">
-        <v>5.316666666666665</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1468,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.34</v>
+        <v>5.38</v>
       </c>
       <c r="C31" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="D31" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="E31" t="n">
-        <v>5.34</v>
+        <v>5.38</v>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>5819.5578</v>
       </c>
       <c r="G31" t="n">
-        <v>5.293333333333332</v>
+        <v>2655919.020777199</v>
       </c>
       <c r="H31" t="n">
-        <v>5.319999999999998</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1503,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="C32" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="D32" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="E32" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="F32" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G32" t="n">
-        <v>5.295999999999998</v>
+        <v>2655919.020777199</v>
       </c>
       <c r="H32" t="n">
-        <v>5.324333333333331</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1625,27 +1547,24 @@
         <v>5.4</v>
       </c>
       <c r="E33" t="n">
-        <v>5.28</v>
+        <v>5.4</v>
       </c>
       <c r="F33" t="n">
-        <v>1330</v>
+        <v>2168.7585</v>
       </c>
       <c r="G33" t="n">
-        <v>5.299333333333333</v>
+        <v>2653750.262277199</v>
       </c>
       <c r="H33" t="n">
-        <v>5.328666666666664</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1573,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.27</v>
+        <v>5.4</v>
       </c>
       <c r="C34" t="n">
-        <v>5.27</v>
+        <v>5.4</v>
       </c>
       <c r="D34" t="n">
-        <v>5.27</v>
+        <v>5.4</v>
       </c>
       <c r="E34" t="n">
-        <v>5.27</v>
+        <v>5.4</v>
       </c>
       <c r="F34" t="n">
-        <v>190</v>
+        <v>49971.2414</v>
       </c>
       <c r="G34" t="n">
-        <v>5.289333333333333</v>
+        <v>2653750.262277199</v>
       </c>
       <c r="H34" t="n">
-        <v>5.330166666666664</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1695,33 +1611,30 @@
         <v>5.4</v>
       </c>
       <c r="C35" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="D35" t="n">
         <v>5.4</v>
       </c>
       <c r="E35" t="n">
-        <v>5.4</v>
+        <v>5.36</v>
       </c>
       <c r="F35" t="n">
-        <v>18164.81481481</v>
+        <v>51342.035</v>
       </c>
       <c r="G35" t="n">
-        <v>5.297333333333333</v>
+        <v>2602408.227277199</v>
       </c>
       <c r="H35" t="n">
-        <v>5.33483333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1643,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="C36" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="D36" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="E36" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="F36" t="n">
-        <v>253.62</v>
+        <v>25935.9999</v>
       </c>
       <c r="G36" t="n">
-        <v>5.296666666666666</v>
+        <v>2602408.227277199</v>
       </c>
       <c r="H36" t="n">
-        <v>5.33583333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1678,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="C37" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="D37" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="E37" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="F37" t="n">
-        <v>15765.38</v>
+        <v>259.3344</v>
       </c>
       <c r="G37" t="n">
-        <v>5.295999999999998</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H37" t="n">
-        <v>5.33683333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1713,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="C38" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="D38" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="E38" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="F38" t="n">
-        <v>8553.9233</v>
+        <v>1361.5056</v>
       </c>
       <c r="G38" t="n">
-        <v>5.295999999999998</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H38" t="n">
-        <v>5.337833333333331</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1748,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.24</v>
+        <v>5.36</v>
       </c>
       <c r="C39" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="D39" t="n">
-        <v>5.24</v>
+        <v>5.36</v>
       </c>
       <c r="E39" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="F39" t="n">
-        <v>3728</v>
+        <v>19573.0463</v>
       </c>
       <c r="G39" t="n">
-        <v>5.292666666666665</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H39" t="n">
-        <v>5.337833333333331</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1783,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="C40" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="D40" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="E40" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7366</v>
+        <v>19573.0462</v>
       </c>
       <c r="G40" t="n">
-        <v>5.288666666666665</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H40" t="n">
-        <v>5.337166666666663</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1818,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.12</v>
+        <v>5.36</v>
       </c>
       <c r="C41" t="n">
-        <v>5.12</v>
+        <v>5.36</v>
       </c>
       <c r="D41" t="n">
-        <v>5.12</v>
+        <v>5.36</v>
       </c>
       <c r="E41" t="n">
-        <v>5.12</v>
+        <v>5.36</v>
       </c>
       <c r="F41" t="n">
-        <v>39062.5</v>
+        <v>8080</v>
       </c>
       <c r="G41" t="n">
-        <v>5.278666666666665</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H41" t="n">
-        <v>5.334999999999996</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1853,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="C42" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="D42" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="E42" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="F42" t="n">
-        <v>95</v>
+        <v>90667.5987</v>
       </c>
       <c r="G42" t="n">
-        <v>5.281333333333332</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H42" t="n">
-        <v>5.338333333333329</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1888,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.32</v>
+        <v>5.35</v>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>5.36</v>
       </c>
       <c r="D43" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="E43" t="n">
-        <v>4.99</v>
+        <v>5.35</v>
       </c>
       <c r="F43" t="n">
-        <v>376384.04</v>
+        <v>154699.5713</v>
       </c>
       <c r="G43" t="n">
-        <v>5.263999999999998</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H43" t="n">
-        <v>5.335999999999997</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1923,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.01</v>
+        <v>5.36</v>
       </c>
       <c r="C44" t="n">
-        <v>5.01</v>
+        <v>5.35</v>
       </c>
       <c r="D44" t="n">
-        <v>5.01</v>
+        <v>5.36</v>
       </c>
       <c r="E44" t="n">
-        <v>5.01</v>
+        <v>5.35</v>
       </c>
       <c r="F44" t="n">
-        <v>10585.65</v>
+        <v>103069.26</v>
       </c>
       <c r="G44" t="n">
-        <v>5.248666666666665</v>
+        <v>2499079.632877199</v>
       </c>
       <c r="H44" t="n">
-        <v>5.330333333333329</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1958,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="C45" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="D45" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="E45" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="F45" t="n">
-        <v>95</v>
+        <v>14994.46</v>
       </c>
       <c r="G45" t="n">
-        <v>5.254</v>
+        <v>2514074.092877199</v>
       </c>
       <c r="H45" t="n">
-        <v>5.329166666666663</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1993,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="C46" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="D46" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="E46" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="F46" t="n">
-        <v>13789.7425</v>
+        <v>11219.44</v>
       </c>
       <c r="G46" t="n">
-        <v>5.245333333333332</v>
+        <v>2514074.092877199</v>
       </c>
       <c r="H46" t="n">
-        <v>5.326166666666663</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2028,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.24</v>
+        <v>5.35</v>
       </c>
       <c r="C47" t="n">
-        <v>5.24</v>
+        <v>5.35</v>
       </c>
       <c r="D47" t="n">
-        <v>5.24</v>
+        <v>5.35</v>
       </c>
       <c r="E47" t="n">
-        <v>5.24</v>
+        <v>5.35</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>3463.2302</v>
       </c>
       <c r="G47" t="n">
-        <v>5.234666666666665</v>
+        <v>2510610.862677199</v>
       </c>
       <c r="H47" t="n">
-        <v>5.32283333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2063,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.18</v>
+        <v>5.35</v>
       </c>
       <c r="C48" t="n">
-        <v>5.18</v>
+        <v>5.42</v>
       </c>
       <c r="D48" t="n">
-        <v>5.18</v>
+        <v>5.42</v>
       </c>
       <c r="E48" t="n">
-        <v>5.18</v>
+        <v>5.3</v>
       </c>
       <c r="F48" t="n">
-        <v>63236.9635</v>
+        <v>470136.1464</v>
       </c>
       <c r="G48" t="n">
-        <v>5.219999999999997</v>
+        <v>2980747.009077199</v>
       </c>
       <c r="H48" t="n">
-        <v>5.320666666666663</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2098,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="C49" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="D49" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="E49" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="F49" t="n">
-        <v>128214.8918</v>
+        <v>261.3</v>
       </c>
       <c r="G49" t="n">
-        <v>5.20733333333333</v>
+        <v>2980485.709077199</v>
       </c>
       <c r="H49" t="n">
-        <v>5.31633333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2133,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.08</v>
+        <v>5.29</v>
       </c>
       <c r="C50" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="D50" t="n">
-        <v>5.08</v>
+        <v>5.29</v>
       </c>
       <c r="E50" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="F50" t="n">
-        <v>66991</v>
+        <v>609.4275</v>
       </c>
       <c r="G50" t="n">
-        <v>5.185999999999996</v>
+        <v>2980485.709077199</v>
       </c>
       <c r="H50" t="n">
-        <v>5.311833333333329</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2168,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.09</v>
+        <v>5.28</v>
       </c>
       <c r="C51" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="D51" t="n">
-        <v>5.09</v>
+        <v>5.28</v>
       </c>
       <c r="E51" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="F51" t="n">
-        <v>207988.4386</v>
+        <v>129.2725</v>
       </c>
       <c r="G51" t="n">
-        <v>5.17333333333333</v>
+        <v>2980485.709077199</v>
       </c>
       <c r="H51" t="n">
-        <v>5.306833333333329</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,42 +2203,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.06</v>
+        <v>5.28</v>
       </c>
       <c r="C52" t="n">
-        <v>5.01</v>
+        <v>5.27</v>
       </c>
       <c r="D52" t="n">
-        <v>5.06</v>
+        <v>5.28</v>
       </c>
       <c r="E52" t="n">
-        <v>5.01</v>
+        <v>5.27</v>
       </c>
       <c r="F52" t="n">
-        <v>152481.8641</v>
+        <v>86192.2654</v>
       </c>
       <c r="G52" t="n">
-        <v>5.155999999999997</v>
+        <v>2894293.4436772</v>
       </c>
       <c r="H52" t="n">
-        <v>5.299666666666663</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>5.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2382,42 +2238,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="C53" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="D53" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="E53" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="F53" t="n">
-        <v>7042.9999</v>
+        <v>378</v>
       </c>
       <c r="G53" t="n">
-        <v>5.145999999999998</v>
+        <v>2893915.4436772</v>
       </c>
       <c r="H53" t="n">
-        <v>5.294333333333329</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>5.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,42 +2273,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.02</v>
+        <v>5.27</v>
       </c>
       <c r="C54" t="n">
-        <v>5.02</v>
+        <v>5.27</v>
       </c>
       <c r="D54" t="n">
-        <v>5.02</v>
+        <v>5.27</v>
       </c>
       <c r="E54" t="n">
-        <v>5.02</v>
+        <v>5.27</v>
       </c>
       <c r="F54" t="n">
-        <v>1886.7924</v>
+        <v>104786.1841</v>
       </c>
       <c r="G54" t="n">
-        <v>5.133333333333331</v>
+        <v>2998701.6277772</v>
       </c>
       <c r="H54" t="n">
-        <v>5.287333333333328</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>5.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,42 +2308,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.12</v>
+        <v>5.27</v>
       </c>
       <c r="C55" t="n">
-        <v>5.12</v>
+        <v>5.27</v>
       </c>
       <c r="D55" t="n">
-        <v>5.12</v>
+        <v>5.27</v>
       </c>
       <c r="E55" t="n">
-        <v>5.12</v>
+        <v>5.27</v>
       </c>
       <c r="F55" t="n">
-        <v>20000</v>
+        <v>25038.3995</v>
       </c>
       <c r="G55" t="n">
-        <v>5.127333333333332</v>
+        <v>2998701.6277772</v>
       </c>
       <c r="H55" t="n">
-        <v>5.281999999999996</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,40 +2343,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.12</v>
+        <v>5.27</v>
       </c>
       <c r="C56" t="n">
-        <v>5.12</v>
+        <v>5.28</v>
       </c>
       <c r="D56" t="n">
-        <v>5.12</v>
+        <v>5.28</v>
       </c>
       <c r="E56" t="n">
-        <v>5.12</v>
+        <v>5.27</v>
       </c>
       <c r="F56" t="n">
-        <v>66680</v>
+        <v>255605</v>
       </c>
       <c r="G56" t="n">
-        <v>5.127333333333332</v>
+        <v>3254306.6277772</v>
       </c>
       <c r="H56" t="n">
-        <v>5.277999999999995</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2556,40 +2378,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="C57" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="D57" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="E57" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="F57" t="n">
-        <v>83350</v>
+        <v>11899.3195</v>
       </c>
       <c r="G57" t="n">
-        <v>5.113999999999999</v>
+        <v>3242407.3082772</v>
       </c>
       <c r="H57" t="n">
-        <v>5.273999999999996</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2598,40 +2413,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.2</v>
+        <v>5.24</v>
       </c>
       <c r="C58" t="n">
-        <v>5.2</v>
+        <v>5.24</v>
       </c>
       <c r="D58" t="n">
-        <v>5.2</v>
+        <v>5.24</v>
       </c>
       <c r="E58" t="n">
-        <v>5.2</v>
+        <v>5.24</v>
       </c>
       <c r="F58" t="n">
-        <v>16670</v>
+        <v>190.1141</v>
       </c>
       <c r="G58" t="n">
-        <v>5.127333333333332</v>
+        <v>3242217.1941772</v>
       </c>
       <c r="H58" t="n">
-        <v>5.270999999999995</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2640,40 +2448,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.1</v>
+        <v>5.24</v>
       </c>
       <c r="C59" t="n">
-        <v>5.1</v>
+        <v>5.24</v>
       </c>
       <c r="D59" t="n">
-        <v>5.1</v>
+        <v>5.24</v>
       </c>
       <c r="E59" t="n">
-        <v>5.1</v>
+        <v>5.24</v>
       </c>
       <c r="F59" t="n">
-        <v>13789.7425</v>
+        <v>4174.5308</v>
       </c>
       <c r="G59" t="n">
-        <v>5.133333333333331</v>
+        <v>3242217.1941772</v>
       </c>
       <c r="H59" t="n">
-        <v>5.264999999999996</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2682,40 +2483,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.19</v>
+        <v>5.34</v>
       </c>
       <c r="C60" t="n">
-        <v>5.19</v>
+        <v>5.34</v>
       </c>
       <c r="D60" t="n">
-        <v>5.19</v>
+        <v>5.34</v>
       </c>
       <c r="E60" t="n">
-        <v>5.19</v>
+        <v>5.34</v>
       </c>
       <c r="F60" t="n">
-        <v>97</v>
+        <v>5000</v>
       </c>
       <c r="G60" t="n">
-        <v>5.124666666666665</v>
+        <v>3247217.1941772</v>
       </c>
       <c r="H60" t="n">
-        <v>5.262833333333329</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,40 +2518,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.18</v>
+        <v>5.34</v>
       </c>
       <c r="C61" t="n">
-        <v>5.18</v>
+        <v>5.4</v>
       </c>
       <c r="D61" t="n">
-        <v>5.18</v>
+        <v>5.4</v>
       </c>
       <c r="E61" t="n">
-        <v>5.18</v>
+        <v>5.34</v>
       </c>
       <c r="F61" t="n">
-        <v>51000</v>
+        <v>15000</v>
       </c>
       <c r="G61" t="n">
-        <v>5.122666666666666</v>
+        <v>3262217.1941772</v>
       </c>
       <c r="H61" t="n">
-        <v>5.260166666666663</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2766,40 +2553,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="C62" t="n">
-        <v>5.18</v>
+        <v>5.4</v>
       </c>
       <c r="D62" t="n">
-        <v>5.26</v>
+        <v>5.4</v>
       </c>
       <c r="E62" t="n">
-        <v>5.18</v>
+        <v>5.28</v>
       </c>
       <c r="F62" t="n">
-        <v>1028058.7649</v>
+        <v>1330</v>
       </c>
       <c r="G62" t="n">
-        <v>5.118666666666666</v>
+        <v>3262217.1941772</v>
       </c>
       <c r="H62" t="n">
-        <v>5.255666666666664</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2808,40 +2588,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="C63" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="D63" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="E63" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="G63" t="n">
-        <v>5.123999999999999</v>
+        <v>3262027.1941772</v>
       </c>
       <c r="H63" t="n">
-        <v>5.252499999999997</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,40 +2623,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.12</v>
+        <v>5.4</v>
       </c>
       <c r="C64" t="n">
-        <v>5.12</v>
+        <v>5.4</v>
       </c>
       <c r="D64" t="n">
-        <v>5.12</v>
+        <v>5.4</v>
       </c>
       <c r="E64" t="n">
-        <v>5.12</v>
+        <v>5.4</v>
       </c>
       <c r="F64" t="n">
-        <v>206956.7537</v>
+        <v>18164.81481481</v>
       </c>
       <c r="G64" t="n">
-        <v>5.126666666666666</v>
+        <v>3280192.00899201</v>
       </c>
       <c r="H64" t="n">
-        <v>5.247833333333331</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,40 +2658,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="C65" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="D65" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="E65" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="F65" t="n">
-        <v>100</v>
+        <v>253.62</v>
       </c>
       <c r="G65" t="n">
-        <v>5.138666666666666</v>
+        <v>3279938.38899201</v>
       </c>
       <c r="H65" t="n">
-        <v>5.245499999999997</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,40 +2693,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.14</v>
+        <v>5.27</v>
       </c>
       <c r="C66" t="n">
-        <v>5.23</v>
+        <v>5.27</v>
       </c>
       <c r="D66" t="n">
-        <v>5.23</v>
+        <v>5.27</v>
       </c>
       <c r="E66" t="n">
-        <v>5.14</v>
+        <v>5.27</v>
       </c>
       <c r="F66" t="n">
-        <v>1600</v>
+        <v>15765.38</v>
       </c>
       <c r="G66" t="n">
-        <v>5.148666666666667</v>
+        <v>3279938.38899201</v>
       </c>
       <c r="H66" t="n">
-        <v>5.242999999999998</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2976,40 +2728,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.14</v>
+        <v>5.27</v>
       </c>
       <c r="C67" t="n">
-        <v>5.08</v>
+        <v>5.27</v>
       </c>
       <c r="D67" t="n">
-        <v>5.14</v>
+        <v>5.27</v>
       </c>
       <c r="E67" t="n">
-        <v>5.08</v>
+        <v>5.27</v>
       </c>
       <c r="F67" t="n">
-        <v>537020.7574999999</v>
+        <v>8553.9233</v>
       </c>
       <c r="G67" t="n">
-        <v>5.153333333333333</v>
+        <v>3279938.38899201</v>
       </c>
       <c r="H67" t="n">
-        <v>5.237999999999998</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3018,40 +2763,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="C68" t="n">
-        <v>5.06</v>
+        <v>5.21</v>
       </c>
       <c r="D68" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="E68" t="n">
-        <v>5.06</v>
+        <v>5.21</v>
       </c>
       <c r="F68" t="n">
-        <v>1040531.2258</v>
+        <v>3728</v>
       </c>
       <c r="G68" t="n">
-        <v>5.149333333333333</v>
+        <v>3276210.38899201</v>
       </c>
       <c r="H68" t="n">
-        <v>5.232999999999998</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,40 +2798,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="C69" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="D69" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="E69" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="F69" t="n">
-        <v>441.5057915</v>
+        <v>0.7366</v>
       </c>
       <c r="G69" t="n">
-        <v>5.159999999999999</v>
+        <v>3276210.38899201</v>
       </c>
       <c r="H69" t="n">
-        <v>5.229999999999998</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3102,40 +2833,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.18</v>
+        <v>5.12</v>
       </c>
       <c r="C70" t="n">
-        <v>5.18</v>
+        <v>5.12</v>
       </c>
       <c r="D70" t="n">
-        <v>5.18</v>
+        <v>5.12</v>
       </c>
       <c r="E70" t="n">
-        <v>5.18</v>
+        <v>5.12</v>
       </c>
       <c r="F70" t="n">
-        <v>85388.3819085</v>
+        <v>39062.5</v>
       </c>
       <c r="G70" t="n">
-        <v>5.163999999999999</v>
+        <v>3237147.88899201</v>
       </c>
       <c r="H70" t="n">
-        <v>5.226999999999998</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,40 +2868,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.18</v>
+        <v>5.32</v>
       </c>
       <c r="C71" t="n">
-        <v>5.18</v>
+        <v>5.32</v>
       </c>
       <c r="D71" t="n">
-        <v>5.18</v>
+        <v>5.32</v>
       </c>
       <c r="E71" t="n">
-        <v>5.18</v>
+        <v>5.32</v>
       </c>
       <c r="F71" t="n">
-        <v>15074.9999</v>
+        <v>95</v>
       </c>
       <c r="G71" t="n">
-        <v>5.167999999999998</v>
+        <v>3237242.88899201</v>
       </c>
       <c r="H71" t="n">
-        <v>5.223999999999998</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,40 +2903,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.21</v>
+        <v>5.32</v>
       </c>
       <c r="C72" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>5.21</v>
+        <v>5.32</v>
       </c>
       <c r="E72" t="n">
-        <v>5.2</v>
+        <v>4.99</v>
       </c>
       <c r="F72" t="n">
-        <v>166510.5198</v>
+        <v>376384.04</v>
       </c>
       <c r="G72" t="n">
-        <v>5.173333333333332</v>
+        <v>2860858.84899201</v>
       </c>
       <c r="H72" t="n">
-        <v>5.22133333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3228,40 +2938,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.2</v>
+        <v>5.01</v>
       </c>
       <c r="C73" t="n">
-        <v>5.2</v>
+        <v>5.01</v>
       </c>
       <c r="D73" t="n">
-        <v>5.2</v>
+        <v>5.01</v>
       </c>
       <c r="E73" t="n">
-        <v>5.2</v>
+        <v>5.01</v>
       </c>
       <c r="F73" t="n">
-        <v>122966.6384</v>
+        <v>10585.65</v>
       </c>
       <c r="G73" t="n">
-        <v>5.173333333333332</v>
+        <v>2871444.49899201</v>
       </c>
       <c r="H73" t="n">
-        <v>5.218666666666663</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3270,40 +2973,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.19</v>
+        <v>5.32</v>
       </c>
       <c r="C74" t="n">
-        <v>5.19</v>
+        <v>5.32</v>
       </c>
       <c r="D74" t="n">
-        <v>5.19</v>
+        <v>5.32</v>
       </c>
       <c r="E74" t="n">
-        <v>5.19</v>
+        <v>5.32</v>
       </c>
       <c r="F74" t="n">
-        <v>879</v>
+        <v>95</v>
       </c>
       <c r="G74" t="n">
-        <v>5.179333333333332</v>
+        <v>2871539.49899201</v>
       </c>
       <c r="H74" t="n">
-        <v>5.21583333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3312,40 +3008,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="C75" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="D75" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="E75" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="F75" t="n">
-        <v>15406</v>
+        <v>13789.7425</v>
       </c>
       <c r="G75" t="n">
-        <v>5.179333333333332</v>
+        <v>2857749.756492009</v>
       </c>
       <c r="H75" t="n">
-        <v>5.213166666666663</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,40 +3043,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.19</v>
+        <v>5.24</v>
       </c>
       <c r="C76" t="n">
-        <v>5.21</v>
+        <v>5.24</v>
       </c>
       <c r="D76" t="n">
-        <v>5.21</v>
+        <v>5.24</v>
       </c>
       <c r="E76" t="n">
-        <v>5.19</v>
+        <v>5.24</v>
       </c>
       <c r="F76" t="n">
-        <v>23195</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>5.181333333333331</v>
+        <v>2857849.756492009</v>
       </c>
       <c r="H76" t="n">
-        <v>5.210666666666662</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3396,40 +3078,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.09</v>
+        <v>5.18</v>
       </c>
       <c r="C77" t="n">
-        <v>5.09</v>
+        <v>5.18</v>
       </c>
       <c r="D77" t="n">
-        <v>5.09</v>
+        <v>5.18</v>
       </c>
       <c r="E77" t="n">
-        <v>5.09</v>
+        <v>5.18</v>
       </c>
       <c r="F77" t="n">
-        <v>9000</v>
+        <v>63236.9635</v>
       </c>
       <c r="G77" t="n">
-        <v>5.175333333333331</v>
+        <v>2794612.792992009</v>
       </c>
       <c r="H77" t="n">
-        <v>5.206166666666661</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,42 +3113,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.15</v>
+        <v>5.08</v>
       </c>
       <c r="C78" t="n">
-        <v>5.21</v>
+        <v>5.08</v>
       </c>
       <c r="D78" t="n">
-        <v>5.21</v>
+        <v>5.08</v>
       </c>
       <c r="E78" t="n">
-        <v>5.15</v>
+        <v>5.08</v>
       </c>
       <c r="F78" t="n">
-        <v>83393.7254</v>
+        <v>128214.8918</v>
       </c>
       <c r="G78" t="n">
-        <v>5.171999999999997</v>
+        <v>2666397.901192009</v>
       </c>
       <c r="H78" t="n">
-        <v>5.203833333333327</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>5.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3482,40 +3148,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.13</v>
+        <v>5.08</v>
       </c>
       <c r="C79" t="n">
-        <v>5.13</v>
+        <v>5.08</v>
       </c>
       <c r="D79" t="n">
-        <v>5.13</v>
+        <v>5.08</v>
       </c>
       <c r="E79" t="n">
-        <v>5.13</v>
+        <v>5.08</v>
       </c>
       <c r="F79" t="n">
-        <v>10000</v>
+        <v>66991</v>
       </c>
       <c r="G79" t="n">
-        <v>5.172666666666663</v>
+        <v>2666397.901192009</v>
       </c>
       <c r="H79" t="n">
-        <v>5.198999999999994</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3524,40 +3183,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.21</v>
+        <v>5.09</v>
       </c>
       <c r="C80" t="n">
-        <v>5.21</v>
+        <v>5.08</v>
       </c>
       <c r="D80" t="n">
-        <v>5.21</v>
+        <v>5.09</v>
       </c>
       <c r="E80" t="n">
-        <v>5.21</v>
+        <v>5.08</v>
       </c>
       <c r="F80" t="n">
-        <v>97</v>
+        <v>207988.4386</v>
       </c>
       <c r="G80" t="n">
-        <v>5.169333333333329</v>
+        <v>2666397.901192009</v>
       </c>
       <c r="H80" t="n">
-        <v>5.197833333333326</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3566,40 +3218,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.21</v>
+        <v>5.06</v>
       </c>
       <c r="C81" t="n">
-        <v>5.24</v>
+        <v>5.01</v>
       </c>
       <c r="D81" t="n">
-        <v>5.24</v>
+        <v>5.06</v>
       </c>
       <c r="E81" t="n">
-        <v>5.13</v>
+        <v>5.01</v>
       </c>
       <c r="F81" t="n">
-        <v>695382.2756000001</v>
+        <v>152481.8641</v>
       </c>
       <c r="G81" t="n">
-        <v>5.169999999999995</v>
+        <v>2513916.03709201</v>
       </c>
       <c r="H81" t="n">
-        <v>5.197166666666661</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,40 +3253,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="C82" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="D82" t="n">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="E82" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="F82" t="n">
-        <v>5000</v>
+        <v>7042.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>5.171333333333328</v>
+        <v>2520959.03699201</v>
       </c>
       <c r="H82" t="n">
-        <v>5.194166666666661</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,40 +3288,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.21</v>
+        <v>5.02</v>
       </c>
       <c r="C83" t="n">
-        <v>5.21</v>
+        <v>5.02</v>
       </c>
       <c r="D83" t="n">
-        <v>5.21</v>
+        <v>5.02</v>
       </c>
       <c r="E83" t="n">
-        <v>5.21</v>
+        <v>5.02</v>
       </c>
       <c r="F83" t="n">
-        <v>128</v>
+        <v>1886.7924</v>
       </c>
       <c r="G83" t="n">
-        <v>5.181333333333328</v>
+        <v>2519072.24459201</v>
       </c>
       <c r="H83" t="n">
-        <v>5.193166666666661</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,40 +3323,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
       <c r="C84" t="n">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
       <c r="D84" t="n">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
       <c r="E84" t="n">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
       <c r="F84" t="n">
-        <v>95730.5086</v>
+        <v>20000</v>
       </c>
       <c r="G84" t="n">
-        <v>5.183333333333327</v>
+        <v>2539072.24459201</v>
       </c>
       <c r="H84" t="n">
-        <v>5.192333333333328</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3734,40 +3358,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="C85" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="D85" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="E85" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="F85" t="n">
-        <v>767.5472</v>
+        <v>66680</v>
       </c>
       <c r="G85" t="n">
-        <v>5.177999999999994</v>
+        <v>2539072.24459201</v>
       </c>
       <c r="H85" t="n">
-        <v>5.189499999999995</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,40 +3393,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="C86" t="n">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="D86" t="n">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="E86" t="n">
-        <v>5.06</v>
+        <v>5.12</v>
       </c>
       <c r="F86" t="n">
-        <v>689286.2756000001</v>
+        <v>83350</v>
       </c>
       <c r="G86" t="n">
-        <v>5.177333333333327</v>
+        <v>2539072.24459201</v>
       </c>
       <c r="H86" t="n">
-        <v>5.187833333333329</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3818,40 +3428,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.16</v>
+        <v>5.2</v>
       </c>
       <c r="C87" t="n">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="D87" t="n">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="E87" t="n">
-        <v>5.16</v>
+        <v>5.2</v>
       </c>
       <c r="F87" t="n">
-        <v>20100</v>
+        <v>16670</v>
       </c>
       <c r="G87" t="n">
-        <v>5.175333333333327</v>
+        <v>2555742.24459201</v>
       </c>
       <c r="H87" t="n">
-        <v>5.185999999999996</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,40 +3463,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.17</v>
+        <v>5.1</v>
       </c>
       <c r="C88" t="n">
-        <v>5.17</v>
+        <v>5.1</v>
       </c>
       <c r="D88" t="n">
-        <v>5.17</v>
+        <v>5.1</v>
       </c>
       <c r="E88" t="n">
-        <v>5.17</v>
+        <v>5.1</v>
       </c>
       <c r="F88" t="n">
-        <v>97</v>
+        <v>13789.7425</v>
       </c>
       <c r="G88" t="n">
-        <v>5.173333333333328</v>
+        <v>2541952.502092009</v>
       </c>
       <c r="H88" t="n">
-        <v>5.184499999999997</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3902,40 +3498,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="C89" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="D89" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="E89" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="F89" t="n">
-        <v>9341.051600000001</v>
+        <v>97</v>
       </c>
       <c r="G89" t="n">
-        <v>5.171999999999994</v>
+        <v>2542049.502092009</v>
       </c>
       <c r="H89" t="n">
-        <v>5.183333333333331</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3944,42 +3533,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.08</v>
+        <v>5.18</v>
       </c>
       <c r="C90" t="n">
-        <v>5.08</v>
+        <v>5.18</v>
       </c>
       <c r="D90" t="n">
-        <v>5.08</v>
+        <v>5.18</v>
       </c>
       <c r="E90" t="n">
-        <v>5.08</v>
+        <v>5.18</v>
       </c>
       <c r="F90" t="n">
-        <v>175</v>
+        <v>51000</v>
       </c>
       <c r="G90" t="n">
-        <v>5.164666666666661</v>
+        <v>2491049.502092009</v>
       </c>
       <c r="H90" t="n">
-        <v>5.180666666666664</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>5.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,40 +3568,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.16</v>
+        <v>5.2</v>
       </c>
       <c r="C91" t="n">
-        <v>5.16</v>
+        <v>5.18</v>
       </c>
       <c r="D91" t="n">
-        <v>5.16</v>
+        <v>5.26</v>
       </c>
       <c r="E91" t="n">
-        <v>5.16</v>
+        <v>5.18</v>
       </c>
       <c r="F91" t="n">
-        <v>8732.55813953</v>
+        <v>1028058.7649</v>
       </c>
       <c r="G91" t="n">
-        <v>5.161333333333328</v>
+        <v>2491049.502092009</v>
       </c>
       <c r="H91" t="n">
-        <v>5.177666666666664</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,40 +3603,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.16</v>
+        <v>5.26</v>
       </c>
       <c r="C92" t="n">
-        <v>5.16</v>
+        <v>5.26</v>
       </c>
       <c r="D92" t="n">
-        <v>5.16</v>
+        <v>5.26</v>
       </c>
       <c r="E92" t="n">
-        <v>5.16</v>
+        <v>5.26</v>
       </c>
       <c r="F92" t="n">
-        <v>6169.0753</v>
+        <v>100</v>
       </c>
       <c r="G92" t="n">
-        <v>5.165999999999994</v>
+        <v>2491149.502092009</v>
       </c>
       <c r="H92" t="n">
-        <v>5.173666666666665</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4072,40 +3638,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.16</v>
+        <v>5.12</v>
       </c>
       <c r="C93" t="n">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
       <c r="D93" t="n">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
       <c r="E93" t="n">
-        <v>5.16</v>
+        <v>5.12</v>
       </c>
       <c r="F93" t="n">
-        <v>1110014.08456047</v>
+        <v>206956.7537</v>
       </c>
       <c r="G93" t="n">
-        <v>5.165999999999994</v>
+        <v>2284192.748392009</v>
       </c>
       <c r="H93" t="n">
-        <v>5.170499999999999</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4114,40 +3673,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.21</v>
+        <v>5.26</v>
       </c>
       <c r="C94" t="n">
-        <v>5.21</v>
+        <v>5.26</v>
       </c>
       <c r="D94" t="n">
-        <v>5.21</v>
+        <v>5.26</v>
       </c>
       <c r="E94" t="n">
-        <v>5.05</v>
+        <v>5.26</v>
       </c>
       <c r="F94" t="n">
-        <v>116326.45343953</v>
+        <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>5.171333333333327</v>
+        <v>2284292.748392009</v>
       </c>
       <c r="H94" t="n">
-        <v>5.169499999999998</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4156,40 +3708,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.21</v>
+        <v>5.14</v>
       </c>
       <c r="C95" t="n">
-        <v>5.2</v>
+        <v>5.23</v>
       </c>
       <c r="D95" t="n">
-        <v>5.21</v>
+        <v>5.23</v>
       </c>
       <c r="E95" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="F95" t="n">
-        <v>312671.62</v>
+        <v>1600</v>
       </c>
       <c r="G95" t="n">
-        <v>5.170666666666661</v>
+        <v>2282692.748392009</v>
       </c>
       <c r="H95" t="n">
-        <v>5.166166666666665</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,40 +3743,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.21</v>
+        <v>5.14</v>
       </c>
       <c r="C96" t="n">
-        <v>5.2</v>
+        <v>5.08</v>
       </c>
       <c r="D96" t="n">
-        <v>5.21</v>
+        <v>5.14</v>
       </c>
       <c r="E96" t="n">
-        <v>5.2</v>
+        <v>5.08</v>
       </c>
       <c r="F96" t="n">
-        <v>421565.3659</v>
+        <v>537020.7574999999</v>
       </c>
       <c r="G96" t="n">
-        <v>5.167999999999995</v>
+        <v>1745671.990892009</v>
       </c>
       <c r="H96" t="n">
-        <v>5.164999999999998</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4240,40 +3778,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="C97" t="n">
-        <v>5.22</v>
+        <v>5.06</v>
       </c>
       <c r="D97" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="E97" t="n">
-        <v>5.22</v>
+        <v>5.06</v>
       </c>
       <c r="F97" t="n">
-        <v>95.7855</v>
+        <v>1040531.2258</v>
       </c>
       <c r="G97" t="n">
-        <v>5.175999999999996</v>
+        <v>705140.7650920093</v>
       </c>
       <c r="H97" t="n">
-        <v>5.164166666666666</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4282,40 +3813,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.22</v>
+        <v>5.18</v>
       </c>
       <c r="C98" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="D98" t="n">
-        <v>5.24</v>
+        <v>5.18</v>
       </c>
       <c r="E98" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="F98" t="n">
-        <v>65645.2574</v>
+        <v>441.5057915</v>
       </c>
       <c r="G98" t="n">
-        <v>5.175999999999996</v>
+        <v>705582.2708835093</v>
       </c>
       <c r="H98" t="n">
-        <v>5.163166666666666</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,40 +3848,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="C99" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="D99" t="n">
-        <v>5.24</v>
+        <v>5.18</v>
       </c>
       <c r="E99" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="F99" t="n">
-        <v>260914</v>
+        <v>85388.3819085</v>
       </c>
       <c r="G99" t="n">
-        <v>5.175999999999996</v>
+        <v>705582.2708835093</v>
       </c>
       <c r="H99" t="n">
-        <v>5.163166666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,40 +3883,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.24</v>
+        <v>5.18</v>
       </c>
       <c r="C100" t="n">
-        <v>5.25</v>
+        <v>5.18</v>
       </c>
       <c r="D100" t="n">
-        <v>5.25</v>
+        <v>5.18</v>
       </c>
       <c r="E100" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="F100" t="n">
-        <v>89084.3315</v>
+        <v>15074.9999</v>
       </c>
       <c r="G100" t="n">
-        <v>5.185999999999996</v>
+        <v>705582.2708835093</v>
       </c>
       <c r="H100" t="n">
-        <v>5.163833333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,40 +3918,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.25</v>
+        <v>5.21</v>
       </c>
       <c r="C101" t="n">
-        <v>5.33</v>
+        <v>5.2</v>
       </c>
       <c r="D101" t="n">
-        <v>5.33</v>
+        <v>5.21</v>
       </c>
       <c r="E101" t="n">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="F101" t="n">
-        <v>147940.8397</v>
+        <v>166510.5198</v>
       </c>
       <c r="G101" t="n">
-        <v>5.196666666666662</v>
+        <v>872092.7906835093</v>
       </c>
       <c r="H101" t="n">
-        <v>5.167333333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4450,40 +3953,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.33</v>
+        <v>5.2</v>
       </c>
       <c r="C102" t="n">
-        <v>5.39</v>
+        <v>5.2</v>
       </c>
       <c r="D102" t="n">
-        <v>5.39</v>
+        <v>5.2</v>
       </c>
       <c r="E102" t="n">
-        <v>5.33</v>
+        <v>5.2</v>
       </c>
       <c r="F102" t="n">
-        <v>372120.9099</v>
+        <v>122966.6384</v>
       </c>
       <c r="G102" t="n">
-        <v>5.211333333333329</v>
+        <v>872092.7906835093</v>
       </c>
       <c r="H102" t="n">
-        <v>5.168499999999999</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,40 +3988,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.13</v>
+        <v>5.19</v>
       </c>
       <c r="C103" t="n">
-        <v>5.13</v>
+        <v>5.19</v>
       </c>
       <c r="D103" t="n">
-        <v>5.39</v>
+        <v>5.19</v>
       </c>
       <c r="E103" t="n">
-        <v>5.12</v>
+        <v>5.19</v>
       </c>
       <c r="F103" t="n">
-        <v>470173.696</v>
+        <v>879</v>
       </c>
       <c r="G103" t="n">
-        <v>5.208666666666661</v>
+        <v>871213.7906835093</v>
       </c>
       <c r="H103" t="n">
-        <v>5.170666666666666</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4534,40 +4023,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.38</v>
+        <v>5.19</v>
       </c>
       <c r="C104" t="n">
-        <v>5.38</v>
+        <v>5.19</v>
       </c>
       <c r="D104" t="n">
-        <v>5.38</v>
+        <v>5.19</v>
       </c>
       <c r="E104" t="n">
-        <v>5.38</v>
+        <v>5.19</v>
       </c>
       <c r="F104" t="n">
-        <v>99</v>
+        <v>15406</v>
       </c>
       <c r="G104" t="n">
-        <v>5.222666666666661</v>
+        <v>871213.7906835093</v>
       </c>
       <c r="H104" t="n">
-        <v>5.176833333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,40 +4058,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.12</v>
+        <v>5.19</v>
       </c>
       <c r="C105" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="D105" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="E105" t="n">
-        <v>5.12</v>
+        <v>5.19</v>
       </c>
       <c r="F105" t="n">
-        <v>95829.5086</v>
+        <v>23195</v>
       </c>
       <c r="G105" t="n">
-        <v>5.242666666666661</v>
+        <v>894408.7906835093</v>
       </c>
       <c r="H105" t="n">
-        <v>5.177833333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,40 +4093,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.37</v>
+        <v>5.09</v>
       </c>
       <c r="C106" t="n">
-        <v>5.38</v>
+        <v>5.09</v>
       </c>
       <c r="D106" t="n">
-        <v>5.38</v>
+        <v>5.09</v>
       </c>
       <c r="E106" t="n">
-        <v>5.11</v>
+        <v>5.09</v>
       </c>
       <c r="F106" t="n">
-        <v>103721.1613</v>
+        <v>9000</v>
       </c>
       <c r="G106" t="n">
-        <v>5.257333333333327</v>
+        <v>885408.7906835093</v>
       </c>
       <c r="H106" t="n">
-        <v>5.180666666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,40 +4128,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.38</v>
+        <v>5.15</v>
       </c>
       <c r="C107" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="D107" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="E107" t="n">
-        <v>5.38</v>
+        <v>5.15</v>
       </c>
       <c r="F107" t="n">
-        <v>444</v>
+        <v>83393.7254</v>
       </c>
       <c r="G107" t="n">
-        <v>5.271999999999994</v>
+        <v>968802.5160835093</v>
       </c>
       <c r="H107" t="n">
-        <v>5.182999999999999</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4702,40 +4163,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.37</v>
+        <v>5.13</v>
       </c>
       <c r="C108" t="n">
-        <v>5.38</v>
+        <v>5.13</v>
       </c>
       <c r="D108" t="n">
-        <v>5.38</v>
+        <v>5.13</v>
       </c>
       <c r="E108" t="n">
-        <v>5.37</v>
+        <v>5.13</v>
       </c>
       <c r="F108" t="n">
-        <v>477951.9218</v>
+        <v>10000</v>
       </c>
       <c r="G108" t="n">
-        <v>5.283333333333328</v>
+        <v>958802.5160835093</v>
       </c>
       <c r="H108" t="n">
-        <v>5.186333333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,40 +4198,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.37</v>
+        <v>5.21</v>
       </c>
       <c r="C109" t="n">
-        <v>5.37</v>
+        <v>5.21</v>
       </c>
       <c r="D109" t="n">
-        <v>5.37</v>
+        <v>5.21</v>
       </c>
       <c r="E109" t="n">
-        <v>5.37</v>
+        <v>5.21</v>
       </c>
       <c r="F109" t="n">
-        <v>19.2291</v>
+        <v>97</v>
       </c>
       <c r="G109" t="n">
-        <v>5.293999999999995</v>
+        <v>958899.5160835093</v>
       </c>
       <c r="H109" t="n">
-        <v>5.191166666666666</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,40 +4233,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.34</v>
+        <v>5.21</v>
       </c>
       <c r="C110" t="n">
-        <v>5.34</v>
+        <v>5.24</v>
       </c>
       <c r="D110" t="n">
-        <v>5.34</v>
+        <v>5.24</v>
       </c>
       <c r="E110" t="n">
-        <v>5.34</v>
+        <v>5.13</v>
       </c>
       <c r="F110" t="n">
-        <v>99</v>
+        <v>695382.2756000001</v>
       </c>
       <c r="G110" t="n">
-        <v>5.303333333333328</v>
+        <v>1654281.791683509</v>
       </c>
       <c r="H110" t="n">
-        <v>5.195499999999999</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4828,40 +4268,1048 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.29</v>
+        <v>5.17</v>
       </c>
       <c r="C111" t="n">
-        <v>5.29</v>
+        <v>5.1</v>
       </c>
       <c r="D111" t="n">
-        <v>5.29</v>
+        <v>5.17</v>
       </c>
       <c r="E111" t="n">
-        <v>5.29</v>
+        <v>5.1</v>
       </c>
       <c r="F111" t="n">
-        <v>99</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="n">
-        <v>5.309333333333329</v>
+        <v>1649281.791683509</v>
       </c>
       <c r="H111" t="n">
-        <v>5.199</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E112" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F112" t="n">
+        <v>128</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1649409.791683509</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D113" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E113" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F113" t="n">
+        <v>95730.5086</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1649409.791683509</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>767.5472</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1648642.24448351</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F115" t="n">
+        <v>689286.2756000001</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2337928.520083509</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20100</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2337928.520083509</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F117" t="n">
+        <v>97</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2337928.520083509</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E118" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9341.051600000001</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2337928.520083509</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E119" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F119" t="n">
+        <v>175</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2337753.520083509</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E120" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F120" t="n">
+        <v>8732.55813953</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2346486.078223039</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E121" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6169.0753</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2346486.078223039</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E122" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1110014.08456047</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3456500.162783509</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E123" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F123" t="n">
+        <v>116326.45343953</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3456500.162783509</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E124" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>312671.62</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3143828.542783509</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E125" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>421565.3659</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3143828.542783509</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="D126" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="F126" t="n">
+        <v>95.7855</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3143924.328283509</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F127" t="n">
+        <v>65645.2574</v>
+      </c>
+      <c r="G127" t="n">
+        <v>3078279.070883509</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D128" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F128" t="n">
+        <v>260914</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3078279.070883509</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="D129" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F129" t="n">
+        <v>89084.3315</v>
+      </c>
+      <c r="G129" t="n">
+        <v>3167363.402383509</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F130" t="n">
+        <v>147940.8397</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3315304.242083509</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="F131" t="n">
+        <v>372120.9099</v>
+      </c>
+      <c r="G131" t="n">
+        <v>3687425.151983509</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F132" t="n">
+        <v>470173.696</v>
+      </c>
+      <c r="G132" t="n">
+        <v>3217251.455983509</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F133" t="n">
+        <v>99</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3217350.455983509</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F134" t="n">
+        <v>95829.5086</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3217350.455983509</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F135" t="n">
+        <v>103721.1613</v>
+      </c>
+      <c r="G135" t="n">
+        <v>3217350.455983509</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D136" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E136" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F136" t="n">
+        <v>444</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3217350.455983509</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F137" t="n">
+        <v>477951.9218</v>
+      </c>
+      <c r="G137" t="n">
+        <v>3217350.455983509</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F138" t="n">
+        <v>19.2291</v>
+      </c>
+      <c r="G138" t="n">
+        <v>3217331.226883509</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="E139" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F139" t="n">
+        <v>99</v>
+      </c>
+      <c r="G139" t="n">
+        <v>3217232.226883509</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="D140" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="E140" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="F140" t="n">
+        <v>99</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3217133.226883509</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-20 BackTest XVG.xlsx
+++ b/BackTest/2019-11-20 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,10 +453,10 @@
         <v>51398.1306</v>
       </c>
       <c r="G2" t="n">
-        <v>369810.7569771999</v>
+        <v>5.139999999999992</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>25000</v>
       </c>
       <c r="G3" t="n">
-        <v>394810.7569771999</v>
+        <v>5.159999999999991</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,24 +525,21 @@
         <v>10000</v>
       </c>
       <c r="G4" t="n">
-        <v>384810.7569771999</v>
+        <v>5.149999999999991</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.18</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,28 +561,21 @@
         <v>102</v>
       </c>
       <c r="G5" t="n">
-        <v>384912.7569771999</v>
+        <v>5.164999999999992</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,28 +597,21 @@
         <v>369200.4767</v>
       </c>
       <c r="G6" t="n">
-        <v>384912.7569771999</v>
+        <v>5.209999999999992</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -643,7 +633,7 @@
         <v>95988.3841</v>
       </c>
       <c r="G7" t="n">
-        <v>384912.7569771999</v>
+        <v>5.209999999999992</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -657,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,7 +669,7 @@
         <v>40000</v>
       </c>
       <c r="G8" t="n">
-        <v>384912.7569771999</v>
+        <v>5.209999999999992</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -692,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -713,7 +705,7 @@
         <v>80000</v>
       </c>
       <c r="G9" t="n">
-        <v>464912.7569771999</v>
+        <v>5.229999999999992</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -727,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -748,7 +741,7 @@
         <v>17618</v>
       </c>
       <c r="G10" t="n">
-        <v>464912.7569771999</v>
+        <v>5.249999999999991</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,7 +777,7 @@
         <v>58590.9838</v>
       </c>
       <c r="G11" t="n">
-        <v>406321.7731771999</v>
+        <v>5.184999999999992</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -797,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,7 +813,7 @@
         <v>284328.3541</v>
       </c>
       <c r="G12" t="n">
-        <v>690650.1272771999</v>
+        <v>5.129999999999992</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -832,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -853,7 +849,7 @@
         <v>1072196.9738</v>
       </c>
       <c r="G13" t="n">
-        <v>1762847.1010772</v>
+        <v>5.244999999999992</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -867,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,7 +885,7 @@
         <v>77080.1744</v>
       </c>
       <c r="G14" t="n">
-        <v>1839927.2754772</v>
+        <v>5.369999999999992</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -902,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -923,7 +921,7 @@
         <v>9546</v>
       </c>
       <c r="G15" t="n">
-        <v>1839927.2754772</v>
+        <v>5.389999999999993</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -937,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -958,7 +957,7 @@
         <v>726116.0763</v>
       </c>
       <c r="G16" t="n">
-        <v>2566043.3517772</v>
+        <v>5.414999999999992</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -972,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -993,7 +993,7 @@
         <v>59714</v>
       </c>
       <c r="G17" t="n">
-        <v>2506329.3517772</v>
+        <v>5.374999999999991</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1007,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1028,7 +1029,7 @@
         <v>374.976</v>
       </c>
       <c r="G18" t="n">
-        <v>2506704.327777199</v>
+        <v>5.32499999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1042,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1063,7 +1065,7 @@
         <v>150</v>
       </c>
       <c r="G19" t="n">
-        <v>2506854.327777199</v>
+        <v>5.34499999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1077,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1098,7 +1101,7 @@
         <v>106111.0321</v>
       </c>
       <c r="G20" t="n">
-        <v>2612965.359877199</v>
+        <v>5.36499999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1112,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1133,7 +1137,7 @@
         <v>30167.6505</v>
       </c>
       <c r="G21" t="n">
-        <v>2643133.010377199</v>
+        <v>5.40999999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1147,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1168,7 +1173,7 @@
         <v>79304.28750000001</v>
       </c>
       <c r="G22" t="n">
-        <v>2643133.010377199</v>
+        <v>5.439999999999991</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1203,7 +1209,7 @@
         <v>4650.226</v>
       </c>
       <c r="G23" t="n">
-        <v>2643133.010377199</v>
+        <v>5.439999999999991</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1217,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1238,7 +1245,7 @@
         <v>55732.9893</v>
       </c>
       <c r="G24" t="n">
-        <v>2643133.010377199</v>
+        <v>5.439999999999991</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1252,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1273,7 +1281,7 @@
         <v>4197.3386</v>
       </c>
       <c r="G25" t="n">
-        <v>2638935.671777199</v>
+        <v>5.39999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1287,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1308,7 +1317,7 @@
         <v>3987.4717</v>
       </c>
       <c r="G26" t="n">
-        <v>2638935.671777199</v>
+        <v>5.359999999999989</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1322,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1343,7 +1353,7 @@
         <v>3788.0981</v>
       </c>
       <c r="G27" t="n">
-        <v>2642723.7698772</v>
+        <v>5.369999999999989</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1357,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1378,7 +1389,7 @@
         <v>7697.6931</v>
       </c>
       <c r="G28" t="n">
-        <v>2650421.462977199</v>
+        <v>5.419999999999989</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1392,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1413,13 +1425,13 @@
         <v>34486.2188</v>
       </c>
       <c r="G29" t="n">
-        <v>2615935.244177199</v>
+        <v>5.38999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1427,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1448,13 +1461,13 @@
         <v>34164.2188</v>
       </c>
       <c r="G30" t="n">
-        <v>2650099.462977199</v>
+        <v>5.329999999999989</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1462,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1483,7 +1497,7 @@
         <v>5819.5578</v>
       </c>
       <c r="G31" t="n">
-        <v>2655919.020777199</v>
+        <v>5.394999999999989</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1497,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1518,13 +1533,13 @@
         <v>20000</v>
       </c>
       <c r="G32" t="n">
-        <v>2655919.020777199</v>
+        <v>5.449999999999989</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1532,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1553,7 +1569,7 @@
         <v>2168.7585</v>
       </c>
       <c r="G33" t="n">
-        <v>2653750.262277199</v>
+        <v>5.424999999999988</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1567,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1588,13 +1605,13 @@
         <v>49971.2414</v>
       </c>
       <c r="G34" t="n">
-        <v>2653750.262277199</v>
+        <v>5.39999999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1602,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1623,13 +1641,13 @@
         <v>51342.035</v>
       </c>
       <c r="G35" t="n">
-        <v>2602408.227277199</v>
+        <v>5.389999999999989</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1637,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1658,13 +1677,13 @@
         <v>25935.9999</v>
       </c>
       <c r="G36" t="n">
-        <v>2602408.227277199</v>
+        <v>5.379999999999989</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1672,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1693,7 +1713,7 @@
         <v>259.3344</v>
       </c>
       <c r="G37" t="n">
-        <v>2602148.892877199</v>
+        <v>5.36999999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1707,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1728,7 +1749,7 @@
         <v>1361.5056</v>
       </c>
       <c r="G38" t="n">
-        <v>2602148.892877199</v>
+        <v>5.359999999999991</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1742,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1763,7 +1785,7 @@
         <v>19573.0463</v>
       </c>
       <c r="G39" t="n">
-        <v>2602148.892877199</v>
+        <v>5.359999999999991</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1777,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1798,7 +1821,7 @@
         <v>19573.0462</v>
       </c>
       <c r="G40" t="n">
-        <v>2602148.892877199</v>
+        <v>5.359999999999991</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1812,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1833,7 +1857,7 @@
         <v>8080</v>
       </c>
       <c r="G41" t="n">
-        <v>2602148.892877199</v>
+        <v>5.359999999999991</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1847,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1868,13 +1893,13 @@
         <v>90667.5987</v>
       </c>
       <c r="G42" t="n">
-        <v>2602148.892877199</v>
+        <v>5.359999999999991</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1882,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1903,13 +1929,13 @@
         <v>154699.5713</v>
       </c>
       <c r="G43" t="n">
-        <v>2602148.892877199</v>
+        <v>5.359999999999991</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1917,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1938,13 +1965,13 @@
         <v>103069.26</v>
       </c>
       <c r="G44" t="n">
-        <v>2499079.632877199</v>
+        <v>5.35499999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1952,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1973,13 +2001,13 @@
         <v>14994.46</v>
       </c>
       <c r="G45" t="n">
-        <v>2514074.092877199</v>
+        <v>5.35499999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1987,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2008,13 +2037,13 @@
         <v>11219.44</v>
       </c>
       <c r="G46" t="n">
-        <v>2514074.092877199</v>
+        <v>5.35999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2022,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2043,13 +2073,13 @@
         <v>3463.2302</v>
       </c>
       <c r="G47" t="n">
-        <v>2510610.862677199</v>
+        <v>5.35499999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2057,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2078,13 +2109,13 @@
         <v>470136.1464</v>
       </c>
       <c r="G48" t="n">
-        <v>2980747.009077199</v>
+        <v>5.384999999999991</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2092,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2113,13 +2145,13 @@
         <v>261.3</v>
       </c>
       <c r="G49" t="n">
-        <v>2980485.709077199</v>
+        <v>5.349999999999992</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2127,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2148,13 +2181,13 @@
         <v>609.4275</v>
       </c>
       <c r="G50" t="n">
-        <v>2980485.709077199</v>
+        <v>5.279999999999991</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2162,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2183,13 +2217,13 @@
         <v>129.2725</v>
       </c>
       <c r="G51" t="n">
-        <v>2980485.709077199</v>
+        <v>5.27999999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2197,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2218,7 +2253,7 @@
         <v>86192.2654</v>
       </c>
       <c r="G52" t="n">
-        <v>2894293.4436772</v>
+        <v>5.27499999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2232,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2253,7 +2289,7 @@
         <v>378</v>
       </c>
       <c r="G53" t="n">
-        <v>2893915.4436772</v>
+        <v>5.26499999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2267,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2288,7 +2325,7 @@
         <v>104786.1841</v>
       </c>
       <c r="G54" t="n">
-        <v>2998701.6277772</v>
+        <v>5.26499999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2302,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2323,7 +2361,7 @@
         <v>25038.3995</v>
       </c>
       <c r="G55" t="n">
-        <v>2998701.6277772</v>
+        <v>5.26999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2337,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2358,13 +2397,13 @@
         <v>255605</v>
       </c>
       <c r="G56" t="n">
-        <v>3254306.6277772</v>
+        <v>5.27499999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2372,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2393,7 +2433,7 @@
         <v>11899.3195</v>
       </c>
       <c r="G57" t="n">
-        <v>3242407.3082772</v>
+        <v>5.26999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2407,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2428,7 +2469,7 @@
         <v>190.1141</v>
       </c>
       <c r="G58" t="n">
-        <v>3242217.1941772</v>
+        <v>5.249999999999989</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2442,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2463,7 +2505,7 @@
         <v>4174.5308</v>
       </c>
       <c r="G59" t="n">
-        <v>3242217.1941772</v>
+        <v>5.23999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2477,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2498,7 +2541,7 @@
         <v>5000</v>
       </c>
       <c r="G60" t="n">
-        <v>3247217.1941772</v>
+        <v>5.289999999999989</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2512,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2533,7 +2577,7 @@
         <v>15000</v>
       </c>
       <c r="G61" t="n">
-        <v>3262217.1941772</v>
+        <v>5.369999999999989</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2547,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2568,13 +2613,13 @@
         <v>1330</v>
       </c>
       <c r="G62" t="n">
-        <v>3262217.1941772</v>
+        <v>5.39999999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2582,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2603,7 +2649,7 @@
         <v>190</v>
       </c>
       <c r="G63" t="n">
-        <v>3262027.1941772</v>
+        <v>5.334999999999989</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2617,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2638,13 +2685,13 @@
         <v>18164.81481481</v>
       </c>
       <c r="G64" t="n">
-        <v>3280192.00899201</v>
+        <v>5.334999999999989</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2652,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2673,7 +2721,7 @@
         <v>253.62</v>
       </c>
       <c r="G65" t="n">
-        <v>3279938.38899201</v>
+        <v>5.334999999999989</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2687,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2708,7 +2757,7 @@
         <v>15765.38</v>
       </c>
       <c r="G66" t="n">
-        <v>3279938.38899201</v>
+        <v>5.269999999999989</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2722,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2743,7 +2793,7 @@
         <v>8553.9233</v>
       </c>
       <c r="G67" t="n">
-        <v>3279938.38899201</v>
+        <v>5.269999999999989</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2757,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2778,7 +2829,7 @@
         <v>3728</v>
       </c>
       <c r="G68" t="n">
-        <v>3276210.38899201</v>
+        <v>5.23999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2792,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2813,7 +2865,7 @@
         <v>0.7366</v>
       </c>
       <c r="G69" t="n">
-        <v>3276210.38899201</v>
+        <v>5.20999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2827,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2848,7 +2901,7 @@
         <v>39062.5</v>
       </c>
       <c r="G70" t="n">
-        <v>3237147.88899201</v>
+        <v>5.16499999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2862,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2883,7 +2937,7 @@
         <v>95</v>
       </c>
       <c r="G71" t="n">
-        <v>3237242.88899201</v>
+        <v>5.21999999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2897,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2918,13 +2973,13 @@
         <v>376384.04</v>
       </c>
       <c r="G72" t="n">
-        <v>2860858.84899201</v>
+        <v>5.159999999999989</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2932,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2953,13 +3009,13 @@
         <v>10585.65</v>
       </c>
       <c r="G73" t="n">
-        <v>2871444.49899201</v>
+        <v>5.004999999999989</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2967,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2988,7 +3045,7 @@
         <v>95</v>
       </c>
       <c r="G74" t="n">
-        <v>2871539.49899201</v>
+        <v>5.164999999999989</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3002,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3023,7 +3081,7 @@
         <v>13789.7425</v>
       </c>
       <c r="G75" t="n">
-        <v>2857749.756492009</v>
+        <v>5.264999999999989</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3037,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3058,7 +3117,7 @@
         <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>2857849.756492009</v>
+        <v>5.224999999999989</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3072,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3093,7 +3153,7 @@
         <v>63236.9635</v>
       </c>
       <c r="G77" t="n">
-        <v>2794612.792992009</v>
+        <v>5.209999999999988</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3107,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3128,7 +3189,7 @@
         <v>128214.8918</v>
       </c>
       <c r="G78" t="n">
-        <v>2666397.901192009</v>
+        <v>5.129999999999988</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3142,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3163,7 +3225,7 @@
         <v>66991</v>
       </c>
       <c r="G79" t="n">
-        <v>2666397.901192009</v>
+        <v>5.079999999999989</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3177,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3198,7 +3261,7 @@
         <v>207988.4386</v>
       </c>
       <c r="G80" t="n">
-        <v>2666397.901192009</v>
+        <v>5.079999999999989</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3212,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3233,7 +3297,7 @@
         <v>152481.8641</v>
       </c>
       <c r="G81" t="n">
-        <v>2513916.03709201</v>
+        <v>5.044999999999988</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3247,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3268,7 +3333,7 @@
         <v>7042.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>2520959.03699201</v>
+        <v>5.064999999999988</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3282,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3303,7 +3369,7 @@
         <v>1886.7924</v>
       </c>
       <c r="G83" t="n">
-        <v>2519072.24459201</v>
+        <v>5.069999999999988</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3317,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3338,7 +3405,7 @@
         <v>20000</v>
       </c>
       <c r="G84" t="n">
-        <v>2539072.24459201</v>
+        <v>5.069999999999988</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3352,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3373,20 +3441,25 @@
         <v>66680</v>
       </c>
       <c r="G85" t="n">
-        <v>2539072.24459201</v>
+        <v>5.119999999999989</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="K85" t="n">
+        <v>5.12</v>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3408,20 +3481,29 @@
         <v>83350</v>
       </c>
       <c r="G86" t="n">
-        <v>2539072.24459201</v>
+        <v>5.119999999999989</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="K86" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3443,7 +3525,7 @@
         <v>16670</v>
       </c>
       <c r="G87" t="n">
-        <v>2555742.24459201</v>
+        <v>5.159999999999988</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3452,11 +3534,18 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3478,20 +3567,25 @@
         <v>13789.7425</v>
       </c>
       <c r="G88" t="n">
-        <v>2541952.502092009</v>
+        <v>5.149999999999988</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K88" t="n">
+        <v>5.2</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3513,20 +3607,29 @@
         <v>97</v>
       </c>
       <c r="G89" t="n">
-        <v>2542049.502092009</v>
+        <v>5.144999999999989</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3548,7 +3651,7 @@
         <v>51000</v>
       </c>
       <c r="G90" t="n">
-        <v>2491049.502092009</v>
+        <v>5.184999999999989</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3557,11 +3660,18 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3583,7 +3693,7 @@
         <v>1028058.7649</v>
       </c>
       <c r="G91" t="n">
-        <v>2491049.502092009</v>
+        <v>5.179999999999989</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3597,6 +3707,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3618,7 +3729,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="n">
-        <v>2491149.502092009</v>
+        <v>5.219999999999989</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3632,6 +3743,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3653,7 +3765,7 @@
         <v>206956.7537</v>
       </c>
       <c r="G93" t="n">
-        <v>2284192.748392009</v>
+        <v>5.189999999999989</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3667,6 +3779,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3688,7 +3801,7 @@
         <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>2284292.748392009</v>
+        <v>5.189999999999989</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3702,6 +3815,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3723,7 +3837,7 @@
         <v>1600</v>
       </c>
       <c r="G95" t="n">
-        <v>2282692.748392009</v>
+        <v>5.244999999999989</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3737,6 +3851,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3758,7 +3873,7 @@
         <v>537020.7574999999</v>
       </c>
       <c r="G96" t="n">
-        <v>1745671.990892009</v>
+        <v>5.154999999999989</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3772,6 +3887,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3793,7 +3909,7 @@
         <v>1040531.2258</v>
       </c>
       <c r="G97" t="n">
-        <v>705140.7650920093</v>
+        <v>5.069999999999988</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3807,6 +3923,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3828,7 +3945,7 @@
         <v>441.5057915</v>
       </c>
       <c r="G98" t="n">
-        <v>705582.2708835093</v>
+        <v>5.119999999999988</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3842,6 +3959,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3863,7 +3981,7 @@
         <v>85388.3819085</v>
       </c>
       <c r="G99" t="n">
-        <v>705582.2708835093</v>
+        <v>5.179999999999987</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3877,6 +3995,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3898,7 +4017,7 @@
         <v>15074.9999</v>
       </c>
       <c r="G100" t="n">
-        <v>705582.2708835093</v>
+        <v>5.179999999999987</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3912,6 +4031,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3933,7 +4053,7 @@
         <v>166510.5198</v>
       </c>
       <c r="G101" t="n">
-        <v>872092.7906835093</v>
+        <v>5.189999999999987</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3947,6 +4067,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3968,7 +4089,7 @@
         <v>122966.6384</v>
       </c>
       <c r="G102" t="n">
-        <v>872092.7906835093</v>
+        <v>5.199999999999987</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3982,6 +4103,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4003,7 +4125,7 @@
         <v>879</v>
       </c>
       <c r="G103" t="n">
-        <v>871213.7906835093</v>
+        <v>5.194999999999988</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4017,6 +4139,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4038,7 +4161,7 @@
         <v>15406</v>
       </c>
       <c r="G104" t="n">
-        <v>871213.7906835093</v>
+        <v>5.189999999999989</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4052,6 +4175,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4073,7 +4197,7 @@
         <v>23195</v>
       </c>
       <c r="G105" t="n">
-        <v>894408.7906835093</v>
+        <v>5.199999999999989</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4087,6 +4211,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4108,7 +4233,7 @@
         <v>9000</v>
       </c>
       <c r="G106" t="n">
-        <v>885408.7906835093</v>
+        <v>5.149999999999988</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4122,6 +4247,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4143,7 +4269,7 @@
         <v>83393.7254</v>
       </c>
       <c r="G107" t="n">
-        <v>968802.5160835093</v>
+        <v>5.149999999999988</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4157,6 +4283,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4178,7 +4305,7 @@
         <v>10000</v>
       </c>
       <c r="G108" t="n">
-        <v>958802.5160835093</v>
+        <v>5.169999999999987</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4192,6 +4319,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4213,7 +4341,7 @@
         <v>97</v>
       </c>
       <c r="G109" t="n">
-        <v>958899.5160835093</v>
+        <v>5.169999999999987</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4227,6 +4355,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4248,7 +4377,7 @@
         <v>695382.2756000001</v>
       </c>
       <c r="G110" t="n">
-        <v>1654281.791683509</v>
+        <v>5.224999999999987</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4262,6 +4391,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4283,7 +4413,7 @@
         <v>5000</v>
       </c>
       <c r="G111" t="n">
-        <v>1649281.791683509</v>
+        <v>5.169999999999987</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4297,6 +4427,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4318,7 +4449,7 @@
         <v>128</v>
       </c>
       <c r="G112" t="n">
-        <v>1649409.791683509</v>
+        <v>5.154999999999988</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4332,6 +4463,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4353,7 +4485,7 @@
         <v>95730.5086</v>
       </c>
       <c r="G113" t="n">
-        <v>1649409.791683509</v>
+        <v>5.209999999999988</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4367,6 +4499,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4388,7 +4521,7 @@
         <v>767.5472</v>
       </c>
       <c r="G114" t="n">
-        <v>1648642.24448351</v>
+        <v>5.154999999999987</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4402,6 +4535,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4423,7 +4557,7 @@
         <v>689286.2756000001</v>
       </c>
       <c r="G115" t="n">
-        <v>2337928.520083509</v>
+        <v>5.134999999999987</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4437,6 +4571,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4458,7 +4593,7 @@
         <v>20100</v>
       </c>
       <c r="G116" t="n">
-        <v>2337928.520083509</v>
+        <v>5.169999999999987</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4472,6 +4607,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4493,7 +4629,7 @@
         <v>97</v>
       </c>
       <c r="G117" t="n">
-        <v>2337928.520083509</v>
+        <v>5.169999999999987</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4507,6 +4643,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4528,7 +4665,7 @@
         <v>9341.051600000001</v>
       </c>
       <c r="G118" t="n">
-        <v>2337928.520083509</v>
+        <v>5.169999999999987</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4542,6 +4679,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4563,7 +4701,7 @@
         <v>175</v>
       </c>
       <c r="G119" t="n">
-        <v>2337753.520083509</v>
+        <v>5.124999999999988</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4577,6 +4715,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4598,7 +4737,7 @@
         <v>8732.55813953</v>
       </c>
       <c r="G120" t="n">
-        <v>2346486.078223039</v>
+        <v>5.119999999999988</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4612,6 +4751,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4633,7 +4773,7 @@
         <v>6169.0753</v>
       </c>
       <c r="G121" t="n">
-        <v>2346486.078223039</v>
+        <v>5.159999999999988</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4647,6 +4787,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4668,7 +4809,7 @@
         <v>1110014.08456047</v>
       </c>
       <c r="G122" t="n">
-        <v>3456500.162783509</v>
+        <v>5.184999999999988</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4682,6 +4823,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4703,7 +4845,7 @@
         <v>116326.45343953</v>
       </c>
       <c r="G123" t="n">
-        <v>3456500.162783509</v>
+        <v>5.209999999999988</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4717,6 +4859,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4738,7 +4881,7 @@
         <v>312671.62</v>
       </c>
       <c r="G124" t="n">
-        <v>3143828.542783509</v>
+        <v>5.204999999999988</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4752,6 +4895,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4773,7 +4917,7 @@
         <v>421565.3659</v>
       </c>
       <c r="G125" t="n">
-        <v>3143828.542783509</v>
+        <v>5.199999999999987</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4787,6 +4931,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4808,7 +4953,7 @@
         <v>95.7855</v>
       </c>
       <c r="G126" t="n">
-        <v>3143924.328283509</v>
+        <v>5.209999999999987</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4822,6 +4967,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4843,7 +4989,7 @@
         <v>65645.2574</v>
       </c>
       <c r="G127" t="n">
-        <v>3078279.070883509</v>
+        <v>5.214999999999987</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4857,6 +5003,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4878,7 +5025,7 @@
         <v>260914</v>
       </c>
       <c r="G128" t="n">
-        <v>3078279.070883509</v>
+        <v>5.209999999999988</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4892,6 +5039,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4913,7 +5061,7 @@
         <v>89084.3315</v>
       </c>
       <c r="G129" t="n">
-        <v>3167363.402383509</v>
+        <v>5.229999999999988</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4927,6 +5075,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4948,7 +5097,7 @@
         <v>147940.8397</v>
       </c>
       <c r="G130" t="n">
-        <v>3315304.242083509</v>
+        <v>5.289999999999988</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4962,6 +5111,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4983,7 +5133,7 @@
         <v>372120.9099</v>
       </c>
       <c r="G131" t="n">
-        <v>3687425.151983509</v>
+        <v>5.359999999999989</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4997,6 +5147,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5018,7 +5169,7 @@
         <v>470173.696</v>
       </c>
       <c r="G132" t="n">
-        <v>3217251.455983509</v>
+        <v>5.259999999999988</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5032,6 +5183,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5053,7 +5205,7 @@
         <v>99</v>
       </c>
       <c r="G133" t="n">
-        <v>3217350.455983509</v>
+        <v>5.254999999999988</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5067,6 +5219,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5088,7 +5241,7 @@
         <v>95829.5086</v>
       </c>
       <c r="G134" t="n">
-        <v>3217350.455983509</v>
+        <v>5.379999999999988</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5102,6 +5255,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5123,7 +5277,7 @@
         <v>103721.1613</v>
       </c>
       <c r="G135" t="n">
-        <v>3217350.455983509</v>
+        <v>5.379999999999988</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5137,6 +5291,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5158,7 +5313,7 @@
         <v>444</v>
       </c>
       <c r="G136" t="n">
-        <v>3217350.455983509</v>
+        <v>5.379999999999988</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5172,6 +5327,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5193,7 +5349,7 @@
         <v>477951.9218</v>
       </c>
       <c r="G137" t="n">
-        <v>3217350.455983509</v>
+        <v>5.379999999999988</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5207,6 +5363,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5228,7 +5385,7 @@
         <v>19.2291</v>
       </c>
       <c r="G138" t="n">
-        <v>3217331.226883509</v>
+        <v>5.374999999999989</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5242,6 +5399,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5263,7 +5421,7 @@
         <v>99</v>
       </c>
       <c r="G139" t="n">
-        <v>3217232.226883509</v>
+        <v>5.35499999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5277,6 +5435,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5298,7 +5457,7 @@
         <v>99</v>
       </c>
       <c r="G140" t="n">
-        <v>3217133.226883509</v>
+        <v>5.314999999999989</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5312,6 +5471,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-20 BackTest XVG.xlsx
+++ b/BackTest/2019-11-20 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.14</v>
+        <v>5.11</v>
       </c>
       <c r="C2" t="n">
-        <v>5.14</v>
+        <v>5.11</v>
       </c>
       <c r="D2" t="n">
-        <v>5.14</v>
+        <v>5.11</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14</v>
+        <v>5.11</v>
       </c>
       <c r="F2" t="n">
-        <v>51398.1306</v>
+        <v>31453.6301</v>
       </c>
       <c r="G2" t="n">
-        <v>5.139999999999992</v>
+        <v>646703.0100771999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.14</v>
+        <v>5.11</v>
       </c>
       <c r="C3" t="n">
-        <v>5.18</v>
+        <v>5.11</v>
       </c>
       <c r="D3" t="n">
-        <v>5.18</v>
+        <v>5.11</v>
       </c>
       <c r="E3" t="n">
-        <v>5.14</v>
+        <v>5.11</v>
       </c>
       <c r="F3" t="n">
-        <v>25000</v>
+        <v>2079.72</v>
       </c>
       <c r="G3" t="n">
-        <v>5.159999999999991</v>
+        <v>646703.0100771999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.11</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.12</v>
+        <v>5.11</v>
       </c>
       <c r="C4" t="n">
-        <v>5.12</v>
+        <v>5.11</v>
       </c>
       <c r="D4" t="n">
-        <v>5.12</v>
+        <v>5.11</v>
       </c>
       <c r="E4" t="n">
-        <v>5.12</v>
+        <v>5.11</v>
       </c>
       <c r="F4" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="n">
-        <v>5.149999999999991</v>
+        <v>646703.0100771999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="C5" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="D5" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="E5" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="F5" t="n">
-        <v>102</v>
+        <v>156673.1737</v>
       </c>
       <c r="G5" t="n">
-        <v>5.164999999999992</v>
+        <v>646703.0100771999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,31 +602,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="C6" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="D6" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="E6" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="F6" t="n">
-        <v>369200.4767</v>
+        <v>30487</v>
       </c>
       <c r="G6" t="n">
-        <v>5.209999999999992</v>
+        <v>646703.0100771999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.11</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -618,32 +642,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="C7" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="D7" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="E7" t="n">
-        <v>5.21</v>
+        <v>5.11</v>
       </c>
       <c r="F7" t="n">
-        <v>95988.3841</v>
+        <v>187047.4361</v>
       </c>
       <c r="G7" t="n">
-        <v>5.209999999999992</v>
+        <v>646703.0100771999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +686,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.21</v>
+        <v>5.02</v>
       </c>
       <c r="C8" t="n">
-        <v>5.21</v>
+        <v>5.02</v>
       </c>
       <c r="D8" t="n">
-        <v>5.21</v>
+        <v>5.02</v>
       </c>
       <c r="E8" t="n">
-        <v>5.21</v>
+        <v>5.02</v>
       </c>
       <c r="F8" t="n">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G8" t="n">
-        <v>5.209999999999992</v>
+        <v>566703.0100771999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,31 +730,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.21</v>
+        <v>5.1</v>
       </c>
       <c r="C9" t="n">
-        <v>5.25</v>
+        <v>5.1</v>
       </c>
       <c r="D9" t="n">
-        <v>5.25</v>
+        <v>5.1</v>
       </c>
       <c r="E9" t="n">
-        <v>5.21</v>
+        <v>5.1</v>
       </c>
       <c r="F9" t="n">
-        <v>80000</v>
+        <v>15765</v>
       </c>
       <c r="G9" t="n">
-        <v>5.229999999999992</v>
+        <v>582468.0100771999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.02</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -726,32 +770,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.25</v>
+        <v>5.1</v>
       </c>
       <c r="C10" t="n">
-        <v>5.25</v>
+        <v>5.1</v>
       </c>
       <c r="D10" t="n">
-        <v>5.25</v>
+        <v>5.1</v>
       </c>
       <c r="E10" t="n">
-        <v>5.25</v>
+        <v>5.1</v>
       </c>
       <c r="F10" t="n">
-        <v>17618</v>
+        <v>58827.3453</v>
       </c>
       <c r="G10" t="n">
-        <v>5.249999999999991</v>
+        <v>582468.0100771999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +814,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.12</v>
+        <v>5.07</v>
       </c>
       <c r="C11" t="n">
-        <v>5.12</v>
+        <v>5.07</v>
       </c>
       <c r="D11" t="n">
-        <v>5.12</v>
+        <v>5.07</v>
       </c>
       <c r="E11" t="n">
-        <v>5.12</v>
+        <v>5.07</v>
       </c>
       <c r="F11" t="n">
-        <v>58590.9838</v>
+        <v>5000</v>
       </c>
       <c r="G11" t="n">
-        <v>5.184999999999992</v>
+        <v>577468.0100771999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,31 +858,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.14</v>
+        <v>5.07</v>
       </c>
       <c r="C12" t="n">
-        <v>5.14</v>
+        <v>5.07</v>
       </c>
       <c r="D12" t="n">
-        <v>5.14</v>
+        <v>5.07</v>
       </c>
       <c r="E12" t="n">
-        <v>5.14</v>
+        <v>5.07</v>
       </c>
       <c r="F12" t="n">
-        <v>284328.3541</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>5.129999999999992</v>
+        <v>577468.0100771999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.07</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -834,32 +898,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.25</v>
+        <v>5.07</v>
       </c>
       <c r="C13" t="n">
-        <v>5.35</v>
+        <v>5.1</v>
       </c>
       <c r="D13" t="n">
-        <v>5.35</v>
+        <v>5.1</v>
       </c>
       <c r="E13" t="n">
-        <v>5.25</v>
+        <v>5.07</v>
       </c>
       <c r="F13" t="n">
-        <v>1072196.9738</v>
+        <v>92267</v>
       </c>
       <c r="G13" t="n">
-        <v>5.244999999999992</v>
+        <v>669735.0100771999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +942,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.35</v>
+        <v>5.1</v>
       </c>
       <c r="C14" t="n">
-        <v>5.39</v>
+        <v>5.1</v>
       </c>
       <c r="D14" t="n">
-        <v>5.39</v>
+        <v>5.1</v>
       </c>
       <c r="E14" t="n">
-        <v>5.26</v>
+        <v>5.1</v>
       </c>
       <c r="F14" t="n">
-        <v>77080.1744</v>
+        <v>56710.2205</v>
       </c>
       <c r="G14" t="n">
-        <v>5.369999999999992</v>
+        <v>669735.0100771999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +986,40 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.39</v>
+        <v>5.09</v>
       </c>
       <c r="C15" t="n">
-        <v>5.39</v>
+        <v>5.09</v>
       </c>
       <c r="D15" t="n">
-        <v>5.39</v>
+        <v>5.09</v>
       </c>
       <c r="E15" t="n">
-        <v>5.39</v>
+        <v>5.09</v>
       </c>
       <c r="F15" t="n">
-        <v>9546</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>5.389999999999993</v>
+        <v>669635.0100771999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1030,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.4</v>
+        <v>5.01</v>
       </c>
       <c r="C16" t="n">
-        <v>5.44</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>5.44</v>
+        <v>5.01</v>
       </c>
       <c r="E16" t="n">
-        <v>5.27</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>726116.0763</v>
+        <v>234172</v>
       </c>
       <c r="G16" t="n">
-        <v>5.414999999999992</v>
+        <v>435463.0100771999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1074,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.44</v>
+        <v>4.97</v>
       </c>
       <c r="C17" t="n">
-        <v>5.31</v>
+        <v>5.07</v>
       </c>
       <c r="D17" t="n">
-        <v>5.44</v>
+        <v>5.07</v>
       </c>
       <c r="E17" t="n">
-        <v>5.31</v>
+        <v>4.97</v>
       </c>
       <c r="F17" t="n">
-        <v>59714</v>
+        <v>98360.94620000001</v>
       </c>
       <c r="G17" t="n">
-        <v>5.374999999999991</v>
+        <v>533823.9562771999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,32 +1118,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.32</v>
+        <v>4.99</v>
       </c>
       <c r="C18" t="n">
-        <v>5.34</v>
+        <v>4.99</v>
       </c>
       <c r="D18" t="n">
-        <v>5.34</v>
+        <v>4.99</v>
       </c>
       <c r="E18" t="n">
-        <v>5.32</v>
+        <v>4.99</v>
       </c>
       <c r="F18" t="n">
-        <v>374.976</v>
+        <v>8999.999900000001</v>
       </c>
       <c r="G18" t="n">
-        <v>5.32499999999999</v>
+        <v>524823.9563771999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1162,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.35</v>
+        <v>4.97</v>
       </c>
       <c r="C19" t="n">
-        <v>5.35</v>
+        <v>4.97</v>
       </c>
       <c r="D19" t="n">
-        <v>5.35</v>
+        <v>4.97</v>
       </c>
       <c r="E19" t="n">
-        <v>5.35</v>
+        <v>4.97</v>
       </c>
       <c r="F19" t="n">
-        <v>150</v>
+        <v>56710.2205</v>
       </c>
       <c r="G19" t="n">
-        <v>5.34499999999999</v>
+        <v>468113.7358771999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,32 +1206,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.32</v>
+        <v>4.97</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>4.97</v>
       </c>
       <c r="D20" t="n">
-        <v>5.38</v>
+        <v>4.97</v>
       </c>
       <c r="E20" t="n">
-        <v>5.32</v>
+        <v>4.97</v>
       </c>
       <c r="F20" t="n">
-        <v>106111.0321</v>
+        <v>32756.2728</v>
       </c>
       <c r="G20" t="n">
-        <v>5.36499999999999</v>
+        <v>468113.7358771999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1250,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.38</v>
+        <v>4.99</v>
       </c>
       <c r="C21" t="n">
-        <v>5.44</v>
+        <v>5.07</v>
       </c>
       <c r="D21" t="n">
-        <v>5.44</v>
+        <v>5.07</v>
       </c>
       <c r="E21" t="n">
-        <v>5.32</v>
+        <v>4.99</v>
       </c>
       <c r="F21" t="n">
-        <v>30167.6505</v>
+        <v>12048.0211</v>
       </c>
       <c r="G21" t="n">
-        <v>5.40999999999999</v>
+        <v>480161.7569771999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1294,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.44</v>
+        <v>5.07</v>
       </c>
       <c r="C22" t="n">
-        <v>5.44</v>
+        <v>5.07</v>
       </c>
       <c r="D22" t="n">
-        <v>5.44</v>
+        <v>5.07</v>
       </c>
       <c r="E22" t="n">
-        <v>5.44</v>
+        <v>5.07</v>
       </c>
       <c r="F22" t="n">
-        <v>79304.28750000001</v>
+        <v>46852.496</v>
       </c>
       <c r="G22" t="n">
-        <v>5.439999999999991</v>
+        <v>480161.7569771999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1338,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.44</v>
+        <v>5.07</v>
       </c>
       <c r="C23" t="n">
-        <v>5.44</v>
+        <v>5.08</v>
       </c>
       <c r="D23" t="n">
-        <v>5.44</v>
+        <v>5.08</v>
       </c>
       <c r="E23" t="n">
-        <v>5.44</v>
+        <v>5.07</v>
       </c>
       <c r="F23" t="n">
-        <v>4650.226</v>
+        <v>2728</v>
       </c>
       <c r="G23" t="n">
-        <v>5.439999999999991</v>
+        <v>482889.7569771999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1382,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.45</v>
+        <v>5.08</v>
       </c>
       <c r="C24" t="n">
-        <v>5.44</v>
+        <v>5.08</v>
       </c>
       <c r="D24" t="n">
-        <v>5.46</v>
+        <v>5.08</v>
       </c>
       <c r="E24" t="n">
-        <v>5.44</v>
+        <v>5.08</v>
       </c>
       <c r="F24" t="n">
-        <v>55732.9893</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="n">
-        <v>5.439999999999991</v>
+        <v>482889.7569771999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1426,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.36</v>
+        <v>5.08</v>
       </c>
       <c r="C25" t="n">
-        <v>5.36</v>
+        <v>5.08</v>
       </c>
       <c r="D25" t="n">
-        <v>5.36</v>
+        <v>5.08</v>
       </c>
       <c r="E25" t="n">
-        <v>5.36</v>
+        <v>5.08</v>
       </c>
       <c r="F25" t="n">
-        <v>4197.3386</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="n">
-        <v>5.39999999999999</v>
+        <v>482889.7569771999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1470,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.36</v>
+        <v>5.08</v>
       </c>
       <c r="C26" t="n">
-        <v>5.36</v>
+        <v>5.08</v>
       </c>
       <c r="D26" t="n">
-        <v>5.36</v>
+        <v>5.08</v>
       </c>
       <c r="E26" t="n">
-        <v>5.36</v>
+        <v>5.08</v>
       </c>
       <c r="F26" t="n">
-        <v>3987.4717</v>
+        <v>2906</v>
       </c>
       <c r="G26" t="n">
-        <v>5.359999999999989</v>
+        <v>482889.7569771999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1514,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.38</v>
+        <v>5.08</v>
       </c>
       <c r="C27" t="n">
-        <v>5.38</v>
+        <v>5.08</v>
       </c>
       <c r="D27" t="n">
-        <v>5.38</v>
+        <v>5.08</v>
       </c>
       <c r="E27" t="n">
-        <v>5.38</v>
+        <v>5.08</v>
       </c>
       <c r="F27" t="n">
-        <v>3788.0981</v>
+        <v>63340</v>
       </c>
       <c r="G27" t="n">
-        <v>5.369999999999989</v>
+        <v>482889.7569771999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1558,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.36</v>
+        <v>5.08</v>
       </c>
       <c r="C28" t="n">
-        <v>5.46</v>
+        <v>5.15</v>
       </c>
       <c r="D28" t="n">
-        <v>5.46</v>
+        <v>5.15</v>
       </c>
       <c r="E28" t="n">
-        <v>5.36</v>
+        <v>5.08</v>
       </c>
       <c r="F28" t="n">
-        <v>7697.6931</v>
+        <v>37999</v>
       </c>
       <c r="G28" t="n">
-        <v>5.419999999999989</v>
+        <v>520888.7569771999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1602,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.45</v>
+        <v>5.14</v>
       </c>
       <c r="C29" t="n">
-        <v>5.32</v>
+        <v>5.14</v>
       </c>
       <c r="D29" t="n">
-        <v>5.45</v>
+        <v>5.14</v>
       </c>
       <c r="E29" t="n">
-        <v>5.32</v>
+        <v>5.14</v>
       </c>
       <c r="F29" t="n">
-        <v>34486.2188</v>
+        <v>151078</v>
       </c>
       <c r="G29" t="n">
-        <v>5.38999999999999</v>
+        <v>369810.7569771999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1646,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.34</v>
+        <v>5.14</v>
       </c>
       <c r="C30" t="n">
-        <v>5.34</v>
+        <v>5.14</v>
       </c>
       <c r="D30" t="n">
-        <v>5.34</v>
+        <v>5.14</v>
       </c>
       <c r="E30" t="n">
-        <v>5.34</v>
+        <v>5.14</v>
       </c>
       <c r="F30" t="n">
-        <v>34164.2188</v>
+        <v>255398.3233</v>
       </c>
       <c r="G30" t="n">
-        <v>5.329999999999989</v>
+        <v>369810.7569771999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1688,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.38</v>
+        <v>5.14</v>
       </c>
       <c r="C31" t="n">
-        <v>5.45</v>
+        <v>5.14</v>
       </c>
       <c r="D31" t="n">
-        <v>5.45</v>
+        <v>5.14</v>
       </c>
       <c r="E31" t="n">
-        <v>5.38</v>
+        <v>5.14</v>
       </c>
       <c r="F31" t="n">
-        <v>5819.5578</v>
+        <v>51398.1306</v>
       </c>
       <c r="G31" t="n">
-        <v>5.394999999999989</v>
+        <v>369810.7569771999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1712,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1730,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.45</v>
+        <v>5.14</v>
       </c>
       <c r="C32" t="n">
-        <v>5.45</v>
+        <v>5.18</v>
       </c>
       <c r="D32" t="n">
-        <v>5.45</v>
+        <v>5.18</v>
       </c>
       <c r="E32" t="n">
-        <v>5.45</v>
+        <v>5.14</v>
       </c>
       <c r="F32" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G32" t="n">
-        <v>5.449999999999989</v>
+        <v>394810.7569771999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1772,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.4</v>
+        <v>5.12</v>
       </c>
       <c r="C33" t="n">
-        <v>5.4</v>
+        <v>5.12</v>
       </c>
       <c r="D33" t="n">
-        <v>5.4</v>
+        <v>5.12</v>
       </c>
       <c r="E33" t="n">
-        <v>5.4</v>
+        <v>5.12</v>
       </c>
       <c r="F33" t="n">
-        <v>2168.7585</v>
+        <v>10000</v>
       </c>
       <c r="G33" t="n">
-        <v>5.424999999999988</v>
+        <v>384810.7569771999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1814,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
       <c r="C34" t="n">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
       <c r="D34" t="n">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
       <c r="E34" t="n">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
       <c r="F34" t="n">
-        <v>49971.2414</v>
+        <v>102</v>
       </c>
       <c r="G34" t="n">
-        <v>5.39999999999999</v>
+        <v>384912.7569771999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1856,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
       <c r="C35" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="D35" t="n">
-        <v>5.4</v>
+        <v>5.21</v>
       </c>
       <c r="E35" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="F35" t="n">
-        <v>51342.035</v>
+        <v>369200.4767</v>
       </c>
       <c r="G35" t="n">
-        <v>5.389999999999989</v>
+        <v>384912.7569771999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1898,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="C36" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="D36" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="E36" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="F36" t="n">
-        <v>25935.9999</v>
+        <v>95988.3841</v>
       </c>
       <c r="G36" t="n">
-        <v>5.379999999999989</v>
+        <v>384912.7569771999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1940,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="C37" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="D37" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="E37" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="F37" t="n">
-        <v>259.3344</v>
+        <v>40000</v>
       </c>
       <c r="G37" t="n">
-        <v>5.36999999999999</v>
+        <v>384912.7569771999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1964,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1982,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="C38" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="D38" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="E38" t="n">
-        <v>5.36</v>
+        <v>5.21</v>
       </c>
       <c r="F38" t="n">
-        <v>1361.5056</v>
+        <v>80000</v>
       </c>
       <c r="G38" t="n">
-        <v>5.359999999999991</v>
+        <v>464912.7569771999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +2006,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +2024,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="C39" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="D39" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="E39" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="F39" t="n">
-        <v>19573.0463</v>
+        <v>17618</v>
       </c>
       <c r="G39" t="n">
-        <v>5.359999999999991</v>
+        <v>464912.7569771999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2048,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2066,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.36</v>
+        <v>5.12</v>
       </c>
       <c r="C40" t="n">
-        <v>5.36</v>
+        <v>5.12</v>
       </c>
       <c r="D40" t="n">
-        <v>5.36</v>
+        <v>5.12</v>
       </c>
       <c r="E40" t="n">
-        <v>5.36</v>
+        <v>5.12</v>
       </c>
       <c r="F40" t="n">
-        <v>19573.0462</v>
+        <v>58590.9838</v>
       </c>
       <c r="G40" t="n">
-        <v>5.359999999999991</v>
+        <v>406321.7731771999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2090,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2108,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.36</v>
+        <v>5.14</v>
       </c>
       <c r="C41" t="n">
-        <v>5.36</v>
+        <v>5.14</v>
       </c>
       <c r="D41" t="n">
-        <v>5.36</v>
+        <v>5.14</v>
       </c>
       <c r="E41" t="n">
-        <v>5.36</v>
+        <v>5.14</v>
       </c>
       <c r="F41" t="n">
-        <v>8080</v>
+        <v>284328.3541</v>
       </c>
       <c r="G41" t="n">
-        <v>5.359999999999991</v>
+        <v>690650.1272771999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2132,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2150,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="C42" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="D42" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="E42" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
       <c r="F42" t="n">
-        <v>90667.5987</v>
+        <v>1072196.9738</v>
       </c>
       <c r="G42" t="n">
-        <v>5.359999999999991</v>
+        <v>1762847.1010772</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1917,29 +2195,35 @@
         <v>5.35</v>
       </c>
       <c r="C43" t="n">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="D43" t="n">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="E43" t="n">
-        <v>5.35</v>
+        <v>5.26</v>
       </c>
       <c r="F43" t="n">
-        <v>154699.5713</v>
+        <v>77080.1744</v>
       </c>
       <c r="G43" t="n">
-        <v>5.359999999999991</v>
+        <v>1839927.2754772</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,32 +2234,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="C44" t="n">
-        <v>5.35</v>
+        <v>5.39</v>
       </c>
       <c r="D44" t="n">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="E44" t="n">
-        <v>5.35</v>
+        <v>5.39</v>
       </c>
       <c r="F44" t="n">
-        <v>103069.26</v>
+        <v>9546</v>
       </c>
       <c r="G44" t="n">
-        <v>5.35499999999999</v>
+        <v>1839927.2754772</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +2276,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.36</v>
+        <v>5.4</v>
       </c>
       <c r="C45" t="n">
-        <v>5.36</v>
+        <v>5.44</v>
       </c>
       <c r="D45" t="n">
-        <v>5.36</v>
+        <v>5.44</v>
       </c>
       <c r="E45" t="n">
-        <v>5.36</v>
+        <v>5.27</v>
       </c>
       <c r="F45" t="n">
-        <v>14994.46</v>
+        <v>726116.0763</v>
       </c>
       <c r="G45" t="n">
-        <v>5.35499999999999</v>
+        <v>2566043.3517772</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +2318,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.36</v>
+        <v>5.44</v>
       </c>
       <c r="C46" t="n">
-        <v>5.36</v>
+        <v>5.31</v>
       </c>
       <c r="D46" t="n">
-        <v>5.36</v>
+        <v>5.44</v>
       </c>
       <c r="E46" t="n">
-        <v>5.36</v>
+        <v>5.31</v>
       </c>
       <c r="F46" t="n">
-        <v>11219.44</v>
+        <v>59714</v>
       </c>
       <c r="G46" t="n">
-        <v>5.35999999999999</v>
+        <v>2506329.3517772</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,32 +2360,38 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5.35</v>
+        <v>5.32</v>
       </c>
       <c r="C47" t="n">
-        <v>5.35</v>
+        <v>5.34</v>
       </c>
       <c r="D47" t="n">
-        <v>5.35</v>
+        <v>5.34</v>
       </c>
       <c r="E47" t="n">
-        <v>5.35</v>
+        <v>5.32</v>
       </c>
       <c r="F47" t="n">
-        <v>3463.2302</v>
+        <v>374.976</v>
       </c>
       <c r="G47" t="n">
-        <v>5.35499999999999</v>
+        <v>2506704.327777199</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2097,29 +2405,35 @@
         <v>5.35</v>
       </c>
       <c r="C48" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="D48" t="n">
-        <v>5.42</v>
+        <v>5.35</v>
       </c>
       <c r="E48" t="n">
-        <v>5.3</v>
+        <v>5.35</v>
       </c>
       <c r="F48" t="n">
-        <v>470136.1464</v>
+        <v>150</v>
       </c>
       <c r="G48" t="n">
-        <v>5.384999999999991</v>
+        <v>2506854.327777199</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2444,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5.28</v>
+        <v>5.32</v>
       </c>
       <c r="C49" t="n">
-        <v>5.28</v>
+        <v>5.38</v>
       </c>
       <c r="D49" t="n">
-        <v>5.28</v>
+        <v>5.38</v>
       </c>
       <c r="E49" t="n">
-        <v>5.28</v>
+        <v>5.32</v>
       </c>
       <c r="F49" t="n">
-        <v>261.3</v>
+        <v>106111.0321</v>
       </c>
       <c r="G49" t="n">
-        <v>5.349999999999992</v>
+        <v>2612965.359877199</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,32 +2486,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5.29</v>
+        <v>5.38</v>
       </c>
       <c r="C50" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="D50" t="n">
-        <v>5.29</v>
+        <v>5.44</v>
       </c>
       <c r="E50" t="n">
-        <v>5.28</v>
+        <v>5.32</v>
       </c>
       <c r="F50" t="n">
-        <v>609.4275</v>
+        <v>30167.6505</v>
       </c>
       <c r="G50" t="n">
-        <v>5.279999999999991</v>
+        <v>2643133.010377199</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2528,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="C51" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="D51" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="E51" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="F51" t="n">
-        <v>129.2725</v>
+        <v>79304.28750000001</v>
       </c>
       <c r="G51" t="n">
-        <v>5.27999999999999</v>
+        <v>2643133.010377199</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2570,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="C52" t="n">
-        <v>5.27</v>
+        <v>5.44</v>
       </c>
       <c r="D52" t="n">
-        <v>5.28</v>
+        <v>5.44</v>
       </c>
       <c r="E52" t="n">
-        <v>5.27</v>
+        <v>5.44</v>
       </c>
       <c r="F52" t="n">
-        <v>86192.2654</v>
+        <v>4650.226</v>
       </c>
       <c r="G52" t="n">
-        <v>5.27499999999999</v>
+        <v>2643133.010377199</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2262,8 +2594,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,64 +2612,72 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.26</v>
+        <v>5.45</v>
       </c>
       <c r="C53" t="n">
-        <v>5.26</v>
+        <v>5.44</v>
       </c>
       <c r="D53" t="n">
-        <v>5.26</v>
+        <v>5.46</v>
       </c>
       <c r="E53" t="n">
-        <v>5.26</v>
+        <v>5.44</v>
       </c>
       <c r="F53" t="n">
-        <v>378</v>
+        <v>55732.9893</v>
       </c>
       <c r="G53" t="n">
-        <v>5.26499999999999</v>
+        <v>2643133.010377199</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>1.067978303747535</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.01792828685259</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="C54" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="D54" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="E54" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="F54" t="n">
-        <v>104786.1841</v>
+        <v>4197.3386</v>
       </c>
       <c r="G54" t="n">
-        <v>5.26499999999999</v>
+        <v>2638935.671777199</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2692,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="C55" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="D55" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="E55" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="F55" t="n">
-        <v>25038.3995</v>
+        <v>3987.4717</v>
       </c>
       <c r="G55" t="n">
-        <v>5.26999999999999</v>
+        <v>2638935.671777199</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2728,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="C56" t="n">
-        <v>5.28</v>
+        <v>5.38</v>
       </c>
       <c r="D56" t="n">
-        <v>5.28</v>
+        <v>5.38</v>
       </c>
       <c r="E56" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="F56" t="n">
-        <v>255605</v>
+        <v>3788.0981</v>
       </c>
       <c r="G56" t="n">
-        <v>5.27499999999999</v>
+        <v>2642723.7698772</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,22 +2764,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.26</v>
+        <v>5.36</v>
       </c>
       <c r="C57" t="n">
-        <v>5.26</v>
+        <v>5.46</v>
       </c>
       <c r="D57" t="n">
-        <v>5.26</v>
+        <v>5.46</v>
       </c>
       <c r="E57" t="n">
-        <v>5.26</v>
+        <v>5.36</v>
       </c>
       <c r="F57" t="n">
-        <v>11899.3195</v>
+        <v>7697.6931</v>
       </c>
       <c r="G57" t="n">
-        <v>5.26999999999999</v>
+        <v>2650421.462977199</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2800,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.24</v>
+        <v>5.45</v>
       </c>
       <c r="C58" t="n">
-        <v>5.24</v>
+        <v>5.32</v>
       </c>
       <c r="D58" t="n">
-        <v>5.24</v>
+        <v>5.45</v>
       </c>
       <c r="E58" t="n">
-        <v>5.24</v>
+        <v>5.32</v>
       </c>
       <c r="F58" t="n">
-        <v>190.1141</v>
+        <v>34486.2188</v>
       </c>
       <c r="G58" t="n">
-        <v>5.249999999999989</v>
+        <v>2615935.244177199</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2836,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.24</v>
+        <v>5.34</v>
       </c>
       <c r="C59" t="n">
-        <v>5.24</v>
+        <v>5.34</v>
       </c>
       <c r="D59" t="n">
-        <v>5.24</v>
+        <v>5.34</v>
       </c>
       <c r="E59" t="n">
-        <v>5.24</v>
+        <v>5.34</v>
       </c>
       <c r="F59" t="n">
-        <v>4174.5308</v>
+        <v>34164.2188</v>
       </c>
       <c r="G59" t="n">
-        <v>5.23999999999999</v>
+        <v>2650099.462977199</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2872,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.34</v>
+        <v>5.38</v>
       </c>
       <c r="C60" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="D60" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="E60" t="n">
-        <v>5.34</v>
+        <v>5.38</v>
       </c>
       <c r="F60" t="n">
-        <v>5000</v>
+        <v>5819.5578</v>
       </c>
       <c r="G60" t="n">
-        <v>5.289999999999989</v>
+        <v>2655919.020777199</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,28 +2908,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="C61" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="D61" t="n">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
       <c r="E61" t="n">
-        <v>5.34</v>
+        <v>5.45</v>
       </c>
       <c r="F61" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G61" t="n">
-        <v>5.369999999999989</v>
+        <v>2655919.020777199</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2607,13 +2953,13 @@
         <v>5.4</v>
       </c>
       <c r="E62" t="n">
-        <v>5.28</v>
+        <v>5.4</v>
       </c>
       <c r="F62" t="n">
-        <v>1330</v>
+        <v>2168.7585</v>
       </c>
       <c r="G62" t="n">
-        <v>5.39999999999999</v>
+        <v>2653750.262277199</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2980,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.27</v>
+        <v>5.4</v>
       </c>
       <c r="C63" t="n">
-        <v>5.27</v>
+        <v>5.4</v>
       </c>
       <c r="D63" t="n">
-        <v>5.27</v>
+        <v>5.4</v>
       </c>
       <c r="E63" t="n">
-        <v>5.27</v>
+        <v>5.4</v>
       </c>
       <c r="F63" t="n">
-        <v>190</v>
+        <v>49971.2414</v>
       </c>
       <c r="G63" t="n">
-        <v>5.334999999999989</v>
+        <v>2653750.262277199</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2673,19 +3019,19 @@
         <v>5.4</v>
       </c>
       <c r="C64" t="n">
-        <v>5.4</v>
+        <v>5.38</v>
       </c>
       <c r="D64" t="n">
         <v>5.4</v>
       </c>
       <c r="E64" t="n">
-        <v>5.4</v>
+        <v>5.36</v>
       </c>
       <c r="F64" t="n">
-        <v>18164.81481481</v>
+        <v>51342.035</v>
       </c>
       <c r="G64" t="n">
-        <v>5.334999999999989</v>
+        <v>2602408.227277199</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +3052,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="C65" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="D65" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="E65" t="n">
-        <v>5.27</v>
+        <v>5.38</v>
       </c>
       <c r="F65" t="n">
-        <v>253.62</v>
+        <v>25935.9999</v>
       </c>
       <c r="G65" t="n">
-        <v>5.334999999999989</v>
+        <v>2602408.227277199</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +3088,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="C66" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="D66" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="E66" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="F66" t="n">
-        <v>15765.38</v>
+        <v>259.3344</v>
       </c>
       <c r="G66" t="n">
-        <v>5.269999999999989</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +3124,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="C67" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="D67" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="E67" t="n">
-        <v>5.27</v>
+        <v>5.36</v>
       </c>
       <c r="F67" t="n">
-        <v>8553.9233</v>
+        <v>1361.5056</v>
       </c>
       <c r="G67" t="n">
-        <v>5.269999999999989</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,28 +3160,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.24</v>
+        <v>5.36</v>
       </c>
       <c r="C68" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="D68" t="n">
-        <v>5.24</v>
+        <v>5.36</v>
       </c>
       <c r="E68" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="F68" t="n">
-        <v>3728</v>
+        <v>19573.0463</v>
       </c>
       <c r="G68" t="n">
-        <v>5.23999999999999</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2850,28 +3196,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="C69" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="D69" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="E69" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7366</v>
+        <v>19573.0462</v>
       </c>
       <c r="G69" t="n">
-        <v>5.20999999999999</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2886,28 +3232,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.12</v>
+        <v>5.36</v>
       </c>
       <c r="C70" t="n">
-        <v>5.12</v>
+        <v>5.36</v>
       </c>
       <c r="D70" t="n">
-        <v>5.12</v>
+        <v>5.36</v>
       </c>
       <c r="E70" t="n">
-        <v>5.12</v>
+        <v>5.36</v>
       </c>
       <c r="F70" t="n">
-        <v>39062.5</v>
+        <v>8080</v>
       </c>
       <c r="G70" t="n">
-        <v>5.16499999999999</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2922,28 +3268,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="C71" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="D71" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="E71" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="F71" t="n">
-        <v>95</v>
+        <v>90667.5987</v>
       </c>
       <c r="G71" t="n">
-        <v>5.21999999999999</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2958,22 +3304,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.32</v>
+        <v>5.35</v>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>5.36</v>
       </c>
       <c r="D72" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="E72" t="n">
-        <v>4.99</v>
+        <v>5.35</v>
       </c>
       <c r="F72" t="n">
-        <v>376384.04</v>
+        <v>154699.5713</v>
       </c>
       <c r="G72" t="n">
-        <v>5.159999999999989</v>
+        <v>2602148.892877199</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +3340,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.01</v>
+        <v>5.36</v>
       </c>
       <c r="C73" t="n">
-        <v>5.01</v>
+        <v>5.35</v>
       </c>
       <c r="D73" t="n">
-        <v>5.01</v>
+        <v>5.36</v>
       </c>
       <c r="E73" t="n">
-        <v>5.01</v>
+        <v>5.35</v>
       </c>
       <c r="F73" t="n">
-        <v>10585.65</v>
+        <v>103069.26</v>
       </c>
       <c r="G73" t="n">
-        <v>5.004999999999989</v>
+        <v>2499079.632877199</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,28 +3376,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="C74" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="D74" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="E74" t="n">
-        <v>5.32</v>
+        <v>5.36</v>
       </c>
       <c r="F74" t="n">
-        <v>95</v>
+        <v>14994.46</v>
       </c>
       <c r="G74" t="n">
-        <v>5.164999999999989</v>
+        <v>2514074.092877199</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3066,28 +3412,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="C75" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="D75" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="E75" t="n">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="F75" t="n">
-        <v>13789.7425</v>
+        <v>11219.44</v>
       </c>
       <c r="G75" t="n">
-        <v>5.264999999999989</v>
+        <v>2514074.092877199</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3102,22 +3448,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.24</v>
+        <v>5.35</v>
       </c>
       <c r="C76" t="n">
-        <v>5.24</v>
+        <v>5.35</v>
       </c>
       <c r="D76" t="n">
-        <v>5.24</v>
+        <v>5.35</v>
       </c>
       <c r="E76" t="n">
-        <v>5.24</v>
+        <v>5.35</v>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>3463.2302</v>
       </c>
       <c r="G76" t="n">
-        <v>5.224999999999989</v>
+        <v>2510610.862677199</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,28 +3484,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.18</v>
+        <v>5.35</v>
       </c>
       <c r="C77" t="n">
-        <v>5.18</v>
+        <v>5.42</v>
       </c>
       <c r="D77" t="n">
-        <v>5.18</v>
+        <v>5.42</v>
       </c>
       <c r="E77" t="n">
-        <v>5.18</v>
+        <v>5.3</v>
       </c>
       <c r="F77" t="n">
-        <v>63236.9635</v>
+        <v>470136.1464</v>
       </c>
       <c r="G77" t="n">
-        <v>5.209999999999988</v>
+        <v>2980747.009077199</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,22 +3520,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="C78" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="D78" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="E78" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="F78" t="n">
-        <v>128214.8918</v>
+        <v>261.3</v>
       </c>
       <c r="G78" t="n">
-        <v>5.129999999999988</v>
+        <v>2980485.709077199</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,28 +3556,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.08</v>
+        <v>5.29</v>
       </c>
       <c r="C79" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="D79" t="n">
-        <v>5.08</v>
+        <v>5.29</v>
       </c>
       <c r="E79" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="F79" t="n">
-        <v>66991</v>
+        <v>609.4275</v>
       </c>
       <c r="G79" t="n">
-        <v>5.079999999999989</v>
+        <v>2980485.709077199</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,22 +3592,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.09</v>
+        <v>5.28</v>
       </c>
       <c r="C80" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="D80" t="n">
-        <v>5.09</v>
+        <v>5.28</v>
       </c>
       <c r="E80" t="n">
-        <v>5.08</v>
+        <v>5.28</v>
       </c>
       <c r="F80" t="n">
-        <v>207988.4386</v>
+        <v>129.2725</v>
       </c>
       <c r="G80" t="n">
-        <v>5.079999999999989</v>
+        <v>2980485.709077199</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,28 +3628,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.06</v>
+        <v>5.28</v>
       </c>
       <c r="C81" t="n">
-        <v>5.01</v>
+        <v>5.27</v>
       </c>
       <c r="D81" t="n">
-        <v>5.06</v>
+        <v>5.28</v>
       </c>
       <c r="E81" t="n">
-        <v>5.01</v>
+        <v>5.27</v>
       </c>
       <c r="F81" t="n">
-        <v>152481.8641</v>
+        <v>86192.2654</v>
       </c>
       <c r="G81" t="n">
-        <v>5.044999999999988</v>
+        <v>2894293.4436772</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3664,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="D82" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="E82" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="F82" t="n">
-        <v>7042.9999</v>
+        <v>378</v>
       </c>
       <c r="G82" t="n">
-        <v>5.064999999999988</v>
+        <v>2893915.4436772</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,28 +3700,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.02</v>
+        <v>5.27</v>
       </c>
       <c r="C83" t="n">
-        <v>5.02</v>
+        <v>5.27</v>
       </c>
       <c r="D83" t="n">
-        <v>5.02</v>
+        <v>5.27</v>
       </c>
       <c r="E83" t="n">
-        <v>5.02</v>
+        <v>5.27</v>
       </c>
       <c r="F83" t="n">
-        <v>1886.7924</v>
+        <v>104786.1841</v>
       </c>
       <c r="G83" t="n">
-        <v>5.069999999999988</v>
+        <v>2998701.6277772</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3390,28 +3736,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.12</v>
+        <v>5.27</v>
       </c>
       <c r="C84" t="n">
-        <v>5.12</v>
+        <v>5.27</v>
       </c>
       <c r="D84" t="n">
-        <v>5.12</v>
+        <v>5.27</v>
       </c>
       <c r="E84" t="n">
-        <v>5.12</v>
+        <v>5.27</v>
       </c>
       <c r="F84" t="n">
-        <v>20000</v>
+        <v>25038.3995</v>
       </c>
       <c r="G84" t="n">
-        <v>5.069999999999988</v>
+        <v>2998701.6277772</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,35 +3772,31 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.12</v>
+        <v>5.27</v>
       </c>
       <c r="C85" t="n">
-        <v>5.12</v>
+        <v>5.28</v>
       </c>
       <c r="D85" t="n">
-        <v>5.12</v>
+        <v>5.28</v>
       </c>
       <c r="E85" t="n">
-        <v>5.12</v>
+        <v>5.27</v>
       </c>
       <c r="F85" t="n">
-        <v>66680</v>
+        <v>255605</v>
       </c>
       <c r="G85" t="n">
-        <v>5.119999999999989</v>
+        <v>3254306.6277772</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="K85" t="n">
-        <v>5.12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
@@ -3466,40 +3808,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="C86" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="D86" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="E86" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="F86" t="n">
-        <v>83350</v>
+        <v>11899.3195</v>
       </c>
       <c r="G86" t="n">
-        <v>5.119999999999989</v>
+        <v>3242407.3082772</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="K86" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3510,38 +3844,32 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.2</v>
+        <v>5.24</v>
       </c>
       <c r="C87" t="n">
-        <v>5.2</v>
+        <v>5.24</v>
       </c>
       <c r="D87" t="n">
-        <v>5.2</v>
+        <v>5.24</v>
       </c>
       <c r="E87" t="n">
-        <v>5.2</v>
+        <v>5.24</v>
       </c>
       <c r="F87" t="n">
-        <v>16670</v>
+        <v>190.1141</v>
       </c>
       <c r="G87" t="n">
-        <v>5.159999999999988</v>
+        <v>3242217.1941772</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3552,35 +3880,31 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.1</v>
+        <v>5.24</v>
       </c>
       <c r="C88" t="n">
-        <v>5.1</v>
+        <v>5.24</v>
       </c>
       <c r="D88" t="n">
-        <v>5.1</v>
+        <v>5.24</v>
       </c>
       <c r="E88" t="n">
-        <v>5.1</v>
+        <v>5.24</v>
       </c>
       <c r="F88" t="n">
-        <v>13789.7425</v>
+        <v>4174.5308</v>
       </c>
       <c r="G88" t="n">
-        <v>5.149999999999988</v>
+        <v>3242217.1941772</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K88" t="n">
-        <v>5.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
@@ -3592,40 +3916,32 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.19</v>
+        <v>5.34</v>
       </c>
       <c r="C89" t="n">
-        <v>5.19</v>
+        <v>5.34</v>
       </c>
       <c r="D89" t="n">
-        <v>5.19</v>
+        <v>5.34</v>
       </c>
       <c r="E89" t="n">
-        <v>5.19</v>
+        <v>5.34</v>
       </c>
       <c r="F89" t="n">
-        <v>97</v>
+        <v>5000</v>
       </c>
       <c r="G89" t="n">
-        <v>5.144999999999989</v>
+        <v>3247217.1941772</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K89" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3636,38 +3952,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>5.18</v>
+        <v>5.34</v>
       </c>
       <c r="C90" t="n">
-        <v>5.18</v>
+        <v>5.4</v>
       </c>
       <c r="D90" t="n">
-        <v>5.18</v>
+        <v>5.4</v>
       </c>
       <c r="E90" t="n">
-        <v>5.18</v>
+        <v>5.34</v>
       </c>
       <c r="F90" t="n">
-        <v>51000</v>
+        <v>15000</v>
       </c>
       <c r="G90" t="n">
-        <v>5.184999999999989</v>
+        <v>3262217.1941772</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3678,28 +3988,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="C91" t="n">
-        <v>5.18</v>
+        <v>5.4</v>
       </c>
       <c r="D91" t="n">
-        <v>5.26</v>
+        <v>5.4</v>
       </c>
       <c r="E91" t="n">
-        <v>5.18</v>
+        <v>5.28</v>
       </c>
       <c r="F91" t="n">
-        <v>1028058.7649</v>
+        <v>1330</v>
       </c>
       <c r="G91" t="n">
-        <v>5.179999999999989</v>
+        <v>3262217.1941772</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3714,28 +4024,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="C92" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="D92" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="E92" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="F92" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="G92" t="n">
-        <v>5.219999999999989</v>
+        <v>3262027.1941772</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3750,28 +4060,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.12</v>
+        <v>5.4</v>
       </c>
       <c r="C93" t="n">
-        <v>5.12</v>
+        <v>5.4</v>
       </c>
       <c r="D93" t="n">
-        <v>5.12</v>
+        <v>5.4</v>
       </c>
       <c r="E93" t="n">
-        <v>5.12</v>
+        <v>5.4</v>
       </c>
       <c r="F93" t="n">
-        <v>206956.7537</v>
+        <v>18164.81481481</v>
       </c>
       <c r="G93" t="n">
-        <v>5.189999999999989</v>
+        <v>3280192.00899201</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3786,28 +4096,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="C94" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="D94" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="E94" t="n">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="F94" t="n">
-        <v>100</v>
+        <v>253.62</v>
       </c>
       <c r="G94" t="n">
-        <v>5.189999999999989</v>
+        <v>3279938.38899201</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3822,28 +4132,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.14</v>
+        <v>5.27</v>
       </c>
       <c r="C95" t="n">
-        <v>5.23</v>
+        <v>5.27</v>
       </c>
       <c r="D95" t="n">
-        <v>5.23</v>
+        <v>5.27</v>
       </c>
       <c r="E95" t="n">
-        <v>5.14</v>
+        <v>5.27</v>
       </c>
       <c r="F95" t="n">
-        <v>1600</v>
+        <v>15765.38</v>
       </c>
       <c r="G95" t="n">
-        <v>5.244999999999989</v>
+        <v>3279938.38899201</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3858,28 +4168,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.14</v>
+        <v>5.27</v>
       </c>
       <c r="C96" t="n">
-        <v>5.08</v>
+        <v>5.27</v>
       </c>
       <c r="D96" t="n">
-        <v>5.14</v>
+        <v>5.27</v>
       </c>
       <c r="E96" t="n">
-        <v>5.08</v>
+        <v>5.27</v>
       </c>
       <c r="F96" t="n">
-        <v>537020.7574999999</v>
+        <v>8553.9233</v>
       </c>
       <c r="G96" t="n">
-        <v>5.154999999999989</v>
+        <v>3279938.38899201</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3894,28 +4204,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="C97" t="n">
-        <v>5.06</v>
+        <v>5.21</v>
       </c>
       <c r="D97" t="n">
-        <v>5.09</v>
+        <v>5.24</v>
       </c>
       <c r="E97" t="n">
-        <v>5.06</v>
+        <v>5.21</v>
       </c>
       <c r="F97" t="n">
-        <v>1040531.2258</v>
+        <v>3728</v>
       </c>
       <c r="G97" t="n">
-        <v>5.069999999999988</v>
+        <v>3276210.38899201</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3930,22 +4240,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="C98" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="D98" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="E98" t="n">
-        <v>5.18</v>
+        <v>5.21</v>
       </c>
       <c r="F98" t="n">
-        <v>441.5057915</v>
+        <v>0.7366</v>
       </c>
       <c r="G98" t="n">
-        <v>5.119999999999988</v>
+        <v>3276210.38899201</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3966,28 +4276,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.18</v>
+        <v>5.12</v>
       </c>
       <c r="C99" t="n">
-        <v>5.18</v>
+        <v>5.12</v>
       </c>
       <c r="D99" t="n">
-        <v>5.18</v>
+        <v>5.12</v>
       </c>
       <c r="E99" t="n">
-        <v>5.18</v>
+        <v>5.12</v>
       </c>
       <c r="F99" t="n">
-        <v>85388.3819085</v>
+        <v>39062.5</v>
       </c>
       <c r="G99" t="n">
-        <v>5.179999999999987</v>
+        <v>3237147.88899201</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4002,22 +4312,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.18</v>
+        <v>5.32</v>
       </c>
       <c r="C100" t="n">
-        <v>5.18</v>
+        <v>5.32</v>
       </c>
       <c r="D100" t="n">
-        <v>5.18</v>
+        <v>5.32</v>
       </c>
       <c r="E100" t="n">
-        <v>5.18</v>
+        <v>5.32</v>
       </c>
       <c r="F100" t="n">
-        <v>15074.9999</v>
+        <v>95</v>
       </c>
       <c r="G100" t="n">
-        <v>5.179999999999987</v>
+        <v>3237242.88899201</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4038,28 +4348,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.21</v>
+        <v>5.32</v>
       </c>
       <c r="C101" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>5.21</v>
+        <v>5.32</v>
       </c>
       <c r="E101" t="n">
-        <v>5.2</v>
+        <v>4.99</v>
       </c>
       <c r="F101" t="n">
-        <v>166510.5198</v>
+        <v>376384.04</v>
       </c>
       <c r="G101" t="n">
-        <v>5.189999999999987</v>
+        <v>2860858.84899201</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4074,28 +4384,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.2</v>
+        <v>5.01</v>
       </c>
       <c r="C102" t="n">
-        <v>5.2</v>
+        <v>5.01</v>
       </c>
       <c r="D102" t="n">
-        <v>5.2</v>
+        <v>5.01</v>
       </c>
       <c r="E102" t="n">
-        <v>5.2</v>
+        <v>5.01</v>
       </c>
       <c r="F102" t="n">
-        <v>122966.6384</v>
+        <v>10585.65</v>
       </c>
       <c r="G102" t="n">
-        <v>5.199999999999987</v>
+        <v>2871444.49899201</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4110,22 +4420,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.19</v>
+        <v>5.32</v>
       </c>
       <c r="C103" t="n">
-        <v>5.19</v>
+        <v>5.32</v>
       </c>
       <c r="D103" t="n">
-        <v>5.19</v>
+        <v>5.32</v>
       </c>
       <c r="E103" t="n">
-        <v>5.19</v>
+        <v>5.32</v>
       </c>
       <c r="F103" t="n">
-        <v>879</v>
+        <v>95</v>
       </c>
       <c r="G103" t="n">
-        <v>5.194999999999988</v>
+        <v>2871539.49899201</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4146,22 +4456,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="C104" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="D104" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="E104" t="n">
-        <v>5.19</v>
+        <v>5.21</v>
       </c>
       <c r="F104" t="n">
-        <v>15406</v>
+        <v>13789.7425</v>
       </c>
       <c r="G104" t="n">
-        <v>5.189999999999989</v>
+        <v>2857749.756492009</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4182,22 +4492,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.19</v>
+        <v>5.24</v>
       </c>
       <c r="C105" t="n">
-        <v>5.21</v>
+        <v>5.24</v>
       </c>
       <c r="D105" t="n">
-        <v>5.21</v>
+        <v>5.24</v>
       </c>
       <c r="E105" t="n">
-        <v>5.19</v>
+        <v>5.24</v>
       </c>
       <c r="F105" t="n">
-        <v>23195</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>5.199999999999989</v>
+        <v>2857849.756492009</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4218,22 +4528,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.09</v>
+        <v>5.18</v>
       </c>
       <c r="C106" t="n">
-        <v>5.09</v>
+        <v>5.18</v>
       </c>
       <c r="D106" t="n">
-        <v>5.09</v>
+        <v>5.18</v>
       </c>
       <c r="E106" t="n">
-        <v>5.09</v>
+        <v>5.18</v>
       </c>
       <c r="F106" t="n">
-        <v>9000</v>
+        <v>63236.9635</v>
       </c>
       <c r="G106" t="n">
-        <v>5.149999999999988</v>
+        <v>2794612.792992009</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4254,22 +4564,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.15</v>
+        <v>5.08</v>
       </c>
       <c r="C107" t="n">
-        <v>5.21</v>
+        <v>5.08</v>
       </c>
       <c r="D107" t="n">
-        <v>5.21</v>
+        <v>5.08</v>
       </c>
       <c r="E107" t="n">
-        <v>5.15</v>
+        <v>5.08</v>
       </c>
       <c r="F107" t="n">
-        <v>83393.7254</v>
+        <v>128214.8918</v>
       </c>
       <c r="G107" t="n">
-        <v>5.149999999999988</v>
+        <v>2666397.901192009</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4290,22 +4600,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.13</v>
+        <v>5.08</v>
       </c>
       <c r="C108" t="n">
-        <v>5.13</v>
+        <v>5.08</v>
       </c>
       <c r="D108" t="n">
-        <v>5.13</v>
+        <v>5.08</v>
       </c>
       <c r="E108" t="n">
-        <v>5.13</v>
+        <v>5.08</v>
       </c>
       <c r="F108" t="n">
-        <v>10000</v>
+        <v>66991</v>
       </c>
       <c r="G108" t="n">
-        <v>5.169999999999987</v>
+        <v>2666397.901192009</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4326,22 +4636,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.21</v>
+        <v>5.09</v>
       </c>
       <c r="C109" t="n">
-        <v>5.21</v>
+        <v>5.08</v>
       </c>
       <c r="D109" t="n">
-        <v>5.21</v>
+        <v>5.09</v>
       </c>
       <c r="E109" t="n">
-        <v>5.21</v>
+        <v>5.08</v>
       </c>
       <c r="F109" t="n">
-        <v>97</v>
+        <v>207988.4386</v>
       </c>
       <c r="G109" t="n">
-        <v>5.169999999999987</v>
+        <v>2666397.901192009</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4362,22 +4672,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.21</v>
+        <v>5.06</v>
       </c>
       <c r="C110" t="n">
-        <v>5.24</v>
+        <v>5.01</v>
       </c>
       <c r="D110" t="n">
-        <v>5.24</v>
+        <v>5.06</v>
       </c>
       <c r="E110" t="n">
-        <v>5.13</v>
+        <v>5.01</v>
       </c>
       <c r="F110" t="n">
-        <v>695382.2756000001</v>
+        <v>152481.8641</v>
       </c>
       <c r="G110" t="n">
-        <v>5.224999999999987</v>
+        <v>2513916.03709201</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4398,22 +4708,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="C111" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="D111" t="n">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="E111" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="F111" t="n">
-        <v>5000</v>
+        <v>7042.9999</v>
       </c>
       <c r="G111" t="n">
-        <v>5.169999999999987</v>
+        <v>2520959.03699201</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4434,22 +4744,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.21</v>
+        <v>5.02</v>
       </c>
       <c r="C112" t="n">
-        <v>5.21</v>
+        <v>5.02</v>
       </c>
       <c r="D112" t="n">
-        <v>5.21</v>
+        <v>5.02</v>
       </c>
       <c r="E112" t="n">
-        <v>5.21</v>
+        <v>5.02</v>
       </c>
       <c r="F112" t="n">
-        <v>128</v>
+        <v>1886.7924</v>
       </c>
       <c r="G112" t="n">
-        <v>5.154999999999988</v>
+        <v>2519072.24459201</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4470,22 +4780,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
       <c r="C113" t="n">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
       <c r="D113" t="n">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
       <c r="E113" t="n">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
       <c r="F113" t="n">
-        <v>95730.5086</v>
+        <v>20000</v>
       </c>
       <c r="G113" t="n">
-        <v>5.209999999999988</v>
+        <v>2539072.24459201</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4506,22 +4816,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="C114" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="D114" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="E114" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="F114" t="n">
-        <v>767.5472</v>
+        <v>66680</v>
       </c>
       <c r="G114" t="n">
-        <v>5.154999999999987</v>
+        <v>2539072.24459201</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4542,22 +4852,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="C115" t="n">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="D115" t="n">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="E115" t="n">
-        <v>5.06</v>
+        <v>5.12</v>
       </c>
       <c r="F115" t="n">
-        <v>689286.2756000001</v>
+        <v>83350</v>
       </c>
       <c r="G115" t="n">
-        <v>5.134999999999987</v>
+        <v>2539072.24459201</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4578,22 +4888,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5.16</v>
+        <v>5.2</v>
       </c>
       <c r="C116" t="n">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="D116" t="n">
-        <v>5.17</v>
+        <v>5.2</v>
       </c>
       <c r="E116" t="n">
-        <v>5.16</v>
+        <v>5.2</v>
       </c>
       <c r="F116" t="n">
-        <v>20100</v>
+        <v>16670</v>
       </c>
       <c r="G116" t="n">
-        <v>5.169999999999987</v>
+        <v>2555742.24459201</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4614,22 +4924,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.17</v>
+        <v>5.1</v>
       </c>
       <c r="C117" t="n">
-        <v>5.17</v>
+        <v>5.1</v>
       </c>
       <c r="D117" t="n">
-        <v>5.17</v>
+        <v>5.1</v>
       </c>
       <c r="E117" t="n">
-        <v>5.17</v>
+        <v>5.1</v>
       </c>
       <c r="F117" t="n">
-        <v>97</v>
+        <v>13789.7425</v>
       </c>
       <c r="G117" t="n">
-        <v>5.169999999999987</v>
+        <v>2541952.502092009</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4650,22 +4960,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="C118" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="D118" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="E118" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="F118" t="n">
-        <v>9341.051600000001</v>
+        <v>97</v>
       </c>
       <c r="G118" t="n">
-        <v>5.169999999999987</v>
+        <v>2542049.502092009</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4686,22 +4996,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.08</v>
+        <v>5.18</v>
       </c>
       <c r="C119" t="n">
-        <v>5.08</v>
+        <v>5.18</v>
       </c>
       <c r="D119" t="n">
-        <v>5.08</v>
+        <v>5.18</v>
       </c>
       <c r="E119" t="n">
-        <v>5.08</v>
+        <v>5.18</v>
       </c>
       <c r="F119" t="n">
-        <v>175</v>
+        <v>51000</v>
       </c>
       <c r="G119" t="n">
-        <v>5.124999999999988</v>
+        <v>2491049.502092009</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4722,22 +5032,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.16</v>
+        <v>5.2</v>
       </c>
       <c r="C120" t="n">
-        <v>5.16</v>
+        <v>5.18</v>
       </c>
       <c r="D120" t="n">
-        <v>5.16</v>
+        <v>5.26</v>
       </c>
       <c r="E120" t="n">
-        <v>5.16</v>
+        <v>5.18</v>
       </c>
       <c r="F120" t="n">
-        <v>8732.55813953</v>
+        <v>1028058.7649</v>
       </c>
       <c r="G120" t="n">
-        <v>5.119999999999988</v>
+        <v>2491049.502092009</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4758,22 +5068,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>5.16</v>
+        <v>5.26</v>
       </c>
       <c r="C121" t="n">
-        <v>5.16</v>
+        <v>5.26</v>
       </c>
       <c r="D121" t="n">
-        <v>5.16</v>
+        <v>5.26</v>
       </c>
       <c r="E121" t="n">
-        <v>5.16</v>
+        <v>5.26</v>
       </c>
       <c r="F121" t="n">
-        <v>6169.0753</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>5.159999999999988</v>
+        <v>2491149.502092009</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4794,22 +5104,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5.16</v>
+        <v>5.12</v>
       </c>
       <c r="C122" t="n">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
       <c r="D122" t="n">
-        <v>5.21</v>
+        <v>5.12</v>
       </c>
       <c r="E122" t="n">
-        <v>5.16</v>
+        <v>5.12</v>
       </c>
       <c r="F122" t="n">
-        <v>1110014.08456047</v>
+        <v>206956.7537</v>
       </c>
       <c r="G122" t="n">
-        <v>5.184999999999988</v>
+        <v>2284192.748392009</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4830,22 +5140,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.21</v>
+        <v>5.26</v>
       </c>
       <c r="C123" t="n">
-        <v>5.21</v>
+        <v>5.26</v>
       </c>
       <c r="D123" t="n">
-        <v>5.21</v>
+        <v>5.26</v>
       </c>
       <c r="E123" t="n">
-        <v>5.05</v>
+        <v>5.26</v>
       </c>
       <c r="F123" t="n">
-        <v>116326.45343953</v>
+        <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>5.209999999999988</v>
+        <v>2284292.748392009</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4866,22 +5176,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.21</v>
+        <v>5.14</v>
       </c>
       <c r="C124" t="n">
-        <v>5.2</v>
+        <v>5.23</v>
       </c>
       <c r="D124" t="n">
-        <v>5.21</v>
+        <v>5.23</v>
       </c>
       <c r="E124" t="n">
-        <v>5.2</v>
+        <v>5.14</v>
       </c>
       <c r="F124" t="n">
-        <v>312671.62</v>
+        <v>1600</v>
       </c>
       <c r="G124" t="n">
-        <v>5.204999999999988</v>
+        <v>2282692.748392009</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4902,22 +5212,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.21</v>
+        <v>5.14</v>
       </c>
       <c r="C125" t="n">
-        <v>5.2</v>
+        <v>5.08</v>
       </c>
       <c r="D125" t="n">
-        <v>5.21</v>
+        <v>5.14</v>
       </c>
       <c r="E125" t="n">
-        <v>5.2</v>
+        <v>5.08</v>
       </c>
       <c r="F125" t="n">
-        <v>421565.3659</v>
+        <v>537020.7574999999</v>
       </c>
       <c r="G125" t="n">
-        <v>5.199999999999987</v>
+        <v>1745671.990892009</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4938,22 +5248,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="C126" t="n">
-        <v>5.22</v>
+        <v>5.06</v>
       </c>
       <c r="D126" t="n">
-        <v>5.22</v>
+        <v>5.09</v>
       </c>
       <c r="E126" t="n">
-        <v>5.22</v>
+        <v>5.06</v>
       </c>
       <c r="F126" t="n">
-        <v>95.7855</v>
+        <v>1040531.2258</v>
       </c>
       <c r="G126" t="n">
-        <v>5.209999999999987</v>
+        <v>705140.7650920093</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4974,22 +5284,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.22</v>
+        <v>5.18</v>
       </c>
       <c r="C127" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="D127" t="n">
-        <v>5.24</v>
+        <v>5.18</v>
       </c>
       <c r="E127" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="F127" t="n">
-        <v>65645.2574</v>
+        <v>441.5057915</v>
       </c>
       <c r="G127" t="n">
-        <v>5.214999999999987</v>
+        <v>705582.2708835093</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5010,22 +5320,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="C128" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="D128" t="n">
-        <v>5.24</v>
+        <v>5.18</v>
       </c>
       <c r="E128" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="F128" t="n">
-        <v>260914</v>
+        <v>85388.3819085</v>
       </c>
       <c r="G128" t="n">
-        <v>5.209999999999988</v>
+        <v>705582.2708835093</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5046,22 +5356,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.24</v>
+        <v>5.18</v>
       </c>
       <c r="C129" t="n">
-        <v>5.25</v>
+        <v>5.18</v>
       </c>
       <c r="D129" t="n">
-        <v>5.25</v>
+        <v>5.18</v>
       </c>
       <c r="E129" t="n">
-        <v>5.21</v>
+        <v>5.18</v>
       </c>
       <c r="F129" t="n">
-        <v>89084.3315</v>
+        <v>15074.9999</v>
       </c>
       <c r="G129" t="n">
-        <v>5.229999999999988</v>
+        <v>705582.2708835093</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5082,22 +5392,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.25</v>
+        <v>5.21</v>
       </c>
       <c r="C130" t="n">
-        <v>5.33</v>
+        <v>5.2</v>
       </c>
       <c r="D130" t="n">
-        <v>5.33</v>
+        <v>5.21</v>
       </c>
       <c r="E130" t="n">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="F130" t="n">
-        <v>147940.8397</v>
+        <v>166510.5198</v>
       </c>
       <c r="G130" t="n">
-        <v>5.289999999999988</v>
+        <v>872092.7906835093</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5118,22 +5428,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.33</v>
+        <v>5.2</v>
       </c>
       <c r="C131" t="n">
-        <v>5.39</v>
+        <v>5.2</v>
       </c>
       <c r="D131" t="n">
-        <v>5.39</v>
+        <v>5.2</v>
       </c>
       <c r="E131" t="n">
-        <v>5.33</v>
+        <v>5.2</v>
       </c>
       <c r="F131" t="n">
-        <v>372120.9099</v>
+        <v>122966.6384</v>
       </c>
       <c r="G131" t="n">
-        <v>5.359999999999989</v>
+        <v>872092.7906835093</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5154,22 +5464,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.13</v>
+        <v>5.19</v>
       </c>
       <c r="C132" t="n">
-        <v>5.13</v>
+        <v>5.19</v>
       </c>
       <c r="D132" t="n">
-        <v>5.39</v>
+        <v>5.19</v>
       </c>
       <c r="E132" t="n">
-        <v>5.12</v>
+        <v>5.19</v>
       </c>
       <c r="F132" t="n">
-        <v>470173.696</v>
+        <v>879</v>
       </c>
       <c r="G132" t="n">
-        <v>5.259999999999988</v>
+        <v>871213.7906835093</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5190,22 +5500,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.38</v>
+        <v>5.19</v>
       </c>
       <c r="C133" t="n">
-        <v>5.38</v>
+        <v>5.19</v>
       </c>
       <c r="D133" t="n">
-        <v>5.38</v>
+        <v>5.19</v>
       </c>
       <c r="E133" t="n">
-        <v>5.38</v>
+        <v>5.19</v>
       </c>
       <c r="F133" t="n">
-        <v>99</v>
+        <v>15406</v>
       </c>
       <c r="G133" t="n">
-        <v>5.254999999999988</v>
+        <v>871213.7906835093</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5226,22 +5536,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.12</v>
+        <v>5.19</v>
       </c>
       <c r="C134" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="D134" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="E134" t="n">
-        <v>5.12</v>
+        <v>5.19</v>
       </c>
       <c r="F134" t="n">
-        <v>95829.5086</v>
+        <v>23195</v>
       </c>
       <c r="G134" t="n">
-        <v>5.379999999999988</v>
+        <v>894408.7906835093</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5262,22 +5572,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.37</v>
+        <v>5.09</v>
       </c>
       <c r="C135" t="n">
-        <v>5.38</v>
+        <v>5.09</v>
       </c>
       <c r="D135" t="n">
-        <v>5.38</v>
+        <v>5.09</v>
       </c>
       <c r="E135" t="n">
-        <v>5.11</v>
+        <v>5.09</v>
       </c>
       <c r="F135" t="n">
-        <v>103721.1613</v>
+        <v>9000</v>
       </c>
       <c r="G135" t="n">
-        <v>5.379999999999988</v>
+        <v>885408.7906835093</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5298,22 +5608,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.38</v>
+        <v>5.15</v>
       </c>
       <c r="C136" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="D136" t="n">
-        <v>5.38</v>
+        <v>5.21</v>
       </c>
       <c r="E136" t="n">
-        <v>5.38</v>
+        <v>5.15</v>
       </c>
       <c r="F136" t="n">
-        <v>444</v>
+        <v>83393.7254</v>
       </c>
       <c r="G136" t="n">
-        <v>5.379999999999988</v>
+        <v>968802.5160835093</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5334,22 +5644,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.37</v>
+        <v>5.13</v>
       </c>
       <c r="C137" t="n">
-        <v>5.38</v>
+        <v>5.13</v>
       </c>
       <c r="D137" t="n">
-        <v>5.38</v>
+        <v>5.13</v>
       </c>
       <c r="E137" t="n">
-        <v>5.37</v>
+        <v>5.13</v>
       </c>
       <c r="F137" t="n">
-        <v>477951.9218</v>
+        <v>10000</v>
       </c>
       <c r="G137" t="n">
-        <v>5.379999999999988</v>
+        <v>958802.5160835093</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5370,22 +5680,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.37</v>
+        <v>5.21</v>
       </c>
       <c r="C138" t="n">
-        <v>5.37</v>
+        <v>5.21</v>
       </c>
       <c r="D138" t="n">
-        <v>5.37</v>
+        <v>5.21</v>
       </c>
       <c r="E138" t="n">
-        <v>5.37</v>
+        <v>5.21</v>
       </c>
       <c r="F138" t="n">
-        <v>19.2291</v>
+        <v>97</v>
       </c>
       <c r="G138" t="n">
-        <v>5.374999999999989</v>
+        <v>958899.5160835093</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5406,22 +5716,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.34</v>
+        <v>5.21</v>
       </c>
       <c r="C139" t="n">
-        <v>5.34</v>
+        <v>5.24</v>
       </c>
       <c r="D139" t="n">
-        <v>5.34</v>
+        <v>5.24</v>
       </c>
       <c r="E139" t="n">
-        <v>5.34</v>
+        <v>5.13</v>
       </c>
       <c r="F139" t="n">
-        <v>99</v>
+        <v>695382.2756000001</v>
       </c>
       <c r="G139" t="n">
-        <v>5.35499999999999</v>
+        <v>1654281.791683509</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5442,22 +5752,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.29</v>
+        <v>5.17</v>
       </c>
       <c r="C140" t="n">
-        <v>5.29</v>
+        <v>5.1</v>
       </c>
       <c r="D140" t="n">
-        <v>5.29</v>
+        <v>5.17</v>
       </c>
       <c r="E140" t="n">
-        <v>5.29</v>
+        <v>5.1</v>
       </c>
       <c r="F140" t="n">
-        <v>99</v>
+        <v>5000</v>
       </c>
       <c r="G140" t="n">
-        <v>5.314999999999989</v>
+        <v>1649281.791683509</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5473,6 +5783,1050 @@
       </c>
       <c r="N140" t="inlineStr"/>
     </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F141" t="n">
+        <v>128</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1649409.791683509</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D142" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F142" t="n">
+        <v>95730.5086</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1649409.791683509</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>767.5472</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1648642.24448351</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F144" t="n">
+        <v>689286.2756000001</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2337928.520083509</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E145" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F145" t="n">
+        <v>20100</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2337928.520083509</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E146" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F146" t="n">
+        <v>97</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2337928.520083509</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="F147" t="n">
+        <v>9341.051600000001</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2337928.520083509</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E148" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="F148" t="n">
+        <v>175</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2337753.520083509</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E149" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F149" t="n">
+        <v>8732.55813953</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2346486.078223039</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="E150" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6169.0753</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2346486.078223039</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1110014.08456047</v>
+      </c>
+      <c r="G151" t="n">
+        <v>3456500.162783509</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F152" t="n">
+        <v>116326.45343953</v>
+      </c>
+      <c r="G152" t="n">
+        <v>3456500.162783509</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>312671.62</v>
+      </c>
+      <c r="G153" t="n">
+        <v>3143828.542783509</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>421565.3659</v>
+      </c>
+      <c r="G154" t="n">
+        <v>3143828.542783509</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C155" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="E155" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="F155" t="n">
+        <v>95.7855</v>
+      </c>
+      <c r="G155" t="n">
+        <v>3143924.328283509</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F156" t="n">
+        <v>65645.2574</v>
+      </c>
+      <c r="G156" t="n">
+        <v>3078279.070883509</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="E157" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F157" t="n">
+        <v>260914</v>
+      </c>
+      <c r="G157" t="n">
+        <v>3078279.070883509</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="C158" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E158" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="F158" t="n">
+        <v>89084.3315</v>
+      </c>
+      <c r="G158" t="n">
+        <v>3167363.402383509</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="D159" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="E159" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F159" t="n">
+        <v>147940.8397</v>
+      </c>
+      <c r="G159" t="n">
+        <v>3315304.242083509</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="C160" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="D160" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E160" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="F160" t="n">
+        <v>372120.9099</v>
+      </c>
+      <c r="G160" t="n">
+        <v>3687425.151983509</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F161" t="n">
+        <v>470173.696</v>
+      </c>
+      <c r="G161" t="n">
+        <v>3217251.455983509</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F162" t="n">
+        <v>99</v>
+      </c>
+      <c r="G162" t="n">
+        <v>3217350.455983509</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F163" t="n">
+        <v>95829.5086</v>
+      </c>
+      <c r="G163" t="n">
+        <v>3217350.455983509</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F164" t="n">
+        <v>103721.1613</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3217350.455983509</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="F165" t="n">
+        <v>444</v>
+      </c>
+      <c r="G165" t="n">
+        <v>3217350.455983509</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F166" t="n">
+        <v>477951.9218</v>
+      </c>
+      <c r="G166" t="n">
+        <v>3217350.455983509</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="D167" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19.2291</v>
+      </c>
+      <c r="G167" t="n">
+        <v>3217331.226883509</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="E168" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F168" t="n">
+        <v>99</v>
+      </c>
+      <c r="G168" t="n">
+        <v>3217232.226883509</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="D169" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="F169" t="n">
+        <v>99</v>
+      </c>
+      <c r="G169" t="n">
+        <v>3217133.226883509</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-20 BackTest XVG.xlsx
+++ b/BackTest/2019-11-20 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:M169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.11</v>
       </c>
       <c r="J3" t="n">
         <v>5.11</v>
       </c>
-      <c r="K3" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,21 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>5.11</v>
       </c>
-      <c r="K4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +560,21 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>5.11</v>
       </c>
-      <c r="K5" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +599,15 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,238 +632,210 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F8" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>566703.0100771999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
         <v>5.11</v>
       </c>
-      <c r="K7" t="n">
+      <c r="J8" t="n">
         <v>5.11</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15765</v>
+      </c>
+      <c r="G9" t="n">
+        <v>582468.0100771999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="F8" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>566703.0100771999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>58827.3453</v>
+      </c>
+      <c r="G10" t="n">
+        <v>582468.0100771999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J10" t="n">
         <v>5.11</v>
       </c>
-      <c r="K8" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15765</v>
-      </c>
-      <c r="G9" t="n">
-        <v>582468.0100771999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>58827.3453</v>
-      </c>
-      <c r="G10" t="n">
-        <v>582468.0100771999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>577468.0100771999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>577468.0100771999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>577468.0100771999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>577468.0100771999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,26 +860,23 @@
         <v>669735.0100771999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.07</v>
       </c>
       <c r="J13" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -960,26 +901,21 @@
         <v>669735.0100771999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>5.1</v>
       </c>
-      <c r="K14" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1004,26 +940,21 @@
         <v>669635.0100771999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>5.1</v>
       </c>
-      <c r="K15" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1048,26 +979,23 @@
         <v>435463.0100771999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.09</v>
       </c>
       <c r="J16" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1092,26 +1020,21 @@
         <v>533823.9562771999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1136,26 +1059,23 @@
         <v>524823.9563771999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5.07</v>
       </c>
       <c r="J18" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1180,26 +1100,23 @@
         <v>468113.7358771999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4.99</v>
       </c>
       <c r="J19" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1224,26 +1141,23 @@
         <v>468113.7358771999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="J20" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1268,26 +1182,23 @@
         <v>480161.7569771999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4.97</v>
       </c>
       <c r="J21" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1312,26 +1223,21 @@
         <v>480161.7569771999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1356,26 +1262,23 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5.07</v>
       </c>
       <c r="J23" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1400,26 +1303,23 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="J24" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1444,26 +1344,23 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="J25" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1488,26 +1385,21 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1532,26 +1424,21 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1576,26 +1463,23 @@
         <v>520888.7569771999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>5.08</v>
       </c>
       <c r="J28" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1620,26 +1504,21 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>5.1</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1666,22 +1545,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1708,22 +1584,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1750,22 +1623,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1792,22 +1662,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1834,22 +1701,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1876,22 +1740,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1918,22 +1779,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1960,22 +1818,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2002,22 +1857,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2044,22 +1896,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2086,22 +1935,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2128,22 +1974,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2170,22 +2013,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2212,22 +2052,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2254,22 +2091,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2296,22 +2130,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2338,22 +2169,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2378,24 +2206,21 @@
         <v>2506704.327777199</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L47" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1.042058823529412</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2420,24 +2245,15 @@
         <v>2506854.327777199</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2462,24 +2278,15 @@
         <v>2612965.359877199</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2506,22 +2313,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2548,22 +2346,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2590,22 +2379,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2632,24 +2412,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1.067978303747535</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1.01792828685259</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2674,18 +2443,15 @@
         <v>2638935.671777199</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2710,18 +2476,15 @@
         <v>2638935.671777199</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2746,18 +2509,15 @@
         <v>2642723.7698772</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2784,16 +2544,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2820,16 +2577,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2856,16 +2610,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2892,16 +2643,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2926,18 +2674,15 @@
         <v>2655919.020777199</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2964,16 +2709,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2998,18 +2740,15 @@
         <v>2653750.262277199</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3036,16 +2775,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3070,18 +2806,15 @@
         <v>2602408.227277199</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3108,16 +2841,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3144,16 +2874,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3180,16 +2907,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3216,16 +2940,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3252,16 +2973,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3288,16 +3006,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3324,16 +3039,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3360,16 +3072,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3396,16 +3105,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3432,16 +3138,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3468,16 +3171,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3504,16 +3204,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3540,16 +3237,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3576,16 +3270,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3612,16 +3303,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3648,16 +3336,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3684,16 +3369,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3720,16 +3402,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3756,16 +3435,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3792,16 +3468,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3828,16 +3501,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3864,16 +3534,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3900,16 +3567,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3936,16 +3600,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3972,16 +3633,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4008,16 +3666,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4044,16 +3699,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4080,16 +3732,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4116,16 +3765,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4152,16 +3798,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4186,18 +3829,15 @@
         <v>3279938.38899201</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4222,18 +3862,15 @@
         <v>3276210.38899201</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4258,18 +3895,15 @@
         <v>3276210.38899201</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4294,18 +3928,15 @@
         <v>3237147.88899201</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4332,16 +3963,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4366,18 +3994,15 @@
         <v>2860858.84899201</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4404,16 +4029,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4440,16 +4062,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4476,16 +4095,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4512,16 +4128,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4548,16 +4161,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4584,16 +4194,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4620,16 +4227,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4656,16 +4260,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4692,16 +4293,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4728,16 +4326,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4764,16 +4359,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4798,18 +4390,15 @@
         <v>2539072.24459201</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4836,16 +4425,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4872,16 +4458,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4908,16 +4491,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4944,16 +4524,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4980,16 +4557,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5016,16 +4590,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5052,16 +4623,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5088,16 +4656,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5124,16 +4689,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5160,16 +4722,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5196,16 +4755,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5232,16 +4788,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5268,16 +4821,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5304,16 +4854,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5340,16 +4887,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5376,16 +4920,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5412,16 +4953,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5448,16 +4986,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5484,16 +5019,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5520,16 +5052,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5556,16 +5085,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5592,16 +5118,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5628,16 +5151,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5664,16 +5184,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5700,16 +5217,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5736,16 +5250,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5772,16 +5283,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5808,16 +5316,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5844,16 +5349,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5880,16 +5382,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5916,16 +5415,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5952,16 +5448,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5988,16 +5481,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6024,16 +5514,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6060,16 +5547,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6096,16 +5580,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6132,16 +5613,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6168,16 +5646,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6204,16 +5679,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6240,16 +5712,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6276,16 +5745,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6312,16 +5778,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6348,16 +5811,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6384,16 +5844,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6420,16 +5877,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6456,16 +5910,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6492,16 +5943,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6528,16 +5976,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6564,16 +6009,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6600,16 +6042,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6636,16 +6075,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6672,16 +6108,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6708,16 +6141,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6744,16 +6174,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6780,16 +6207,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6816,18 +6240,15 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest XVG.xlsx
+++ b/BackTest/2019-11-20 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,17 +517,15 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J4" t="n">
         <v>5.11</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -560,9 +554,11 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.11</v>
+      </c>
       <c r="J5" t="n">
         <v>5.11</v>
       </c>
@@ -599,11 +595,19 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -632,10 +636,14 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.11</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -665,7 +673,7 @@
         <v>566703.0100771999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>5.11</v>
@@ -673,7 +681,11 @@
       <c r="J8" t="n">
         <v>5.11</v>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -702,9 +714,11 @@
         <v>582468.0100771999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.02</v>
+      </c>
       <c r="J9" t="n">
         <v>5.11</v>
       </c>
@@ -741,19 +755,15 @@
         <v>582468.0100771999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>5.1</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -782,7 +792,7 @@
         <v>577468.0100771999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>5.1</v>
@@ -790,7 +800,11 @@
       <c r="J11" t="n">
         <v>5.1</v>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -819,7 +833,7 @@
         <v>577468.0100771999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>5.07</v>
@@ -860,7 +874,7 @@
         <v>669735.0100771999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>5.07</v>
@@ -901,9 +915,11 @@
         <v>669735.0100771999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J14" t="n">
         <v>5.1</v>
       </c>
@@ -940,9 +956,11 @@
         <v>669635.0100771999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J15" t="n">
         <v>5.1</v>
       </c>
@@ -979,7 +997,7 @@
         <v>435463.0100771999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>5.09</v>
@@ -1020,9 +1038,11 @@
         <v>533823.9562771999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
       <c r="J17" t="n">
         <v>5.1</v>
       </c>
@@ -1059,7 +1079,7 @@
         <v>524823.9563771999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>5.07</v>
@@ -1100,7 +1120,7 @@
         <v>468113.7358771999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>4.99</v>
@@ -1141,7 +1161,7 @@
         <v>468113.7358771999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>4.97</v>
@@ -1182,7 +1202,7 @@
         <v>480161.7569771999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>4.97</v>
@@ -1223,9 +1243,11 @@
         <v>480161.7569771999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.07</v>
+      </c>
       <c r="J22" t="n">
         <v>5.1</v>
       </c>
@@ -1262,7 +1284,7 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>5.07</v>
@@ -1303,7 +1325,7 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>5.08</v>
@@ -1344,7 +1366,7 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>5.08</v>
@@ -1385,9 +1407,11 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.08</v>
+      </c>
       <c r="J26" t="n">
         <v>5.1</v>
       </c>
@@ -1424,9 +1448,11 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.08</v>
+      </c>
       <c r="J27" t="n">
         <v>5.1</v>
       </c>
@@ -1463,7 +1489,7 @@
         <v>520888.7569771999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>5.08</v>
@@ -2206,7 +2232,7 @@
         <v>2506704.327777199</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
@@ -2214,11 +2240,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.042058823529412</v>
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr"/>
     </row>
@@ -2245,11 +2271,17 @@
         <v>2506854.327777199</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2278,11 +2310,17 @@
         <v>2612965.359877199</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2314,8 +2352,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2347,8 +2391,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2380,8 +2430,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2413,8 +2469,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2443,11 +2505,17 @@
         <v>2638935.671777199</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2476,11 +2544,17 @@
         <v>2638935.671777199</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2509,11 +2583,17 @@
         <v>2642723.7698772</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2545,8 +2625,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2578,8 +2664,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2611,8 +2703,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2644,8 +2742,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2674,11 +2778,17 @@
         <v>2655919.020777199</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2710,8 +2820,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2740,11 +2856,17 @@
         <v>2653750.262277199</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2776,8 +2898,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2806,11 +2934,17 @@
         <v>2602408.227277199</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2842,8 +2976,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2875,8 +3015,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2908,8 +3054,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2938,13 +3090,19 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>1.045980392156863</v>
       </c>
       <c r="M69" t="inlineStr"/>
     </row>
@@ -2971,7 +3129,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3004,7 +3162,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3037,7 +3195,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3070,7 +3228,7 @@
         <v>2499079.632877199</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3103,7 +3261,7 @@
         <v>2514074.092877199</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3136,7 +3294,7 @@
         <v>2514074.092877199</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3169,7 +3327,7 @@
         <v>2510610.862677199</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3202,7 +3360,7 @@
         <v>2980747.009077199</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3235,7 +3393,7 @@
         <v>2980485.709077199</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3268,7 +3426,7 @@
         <v>2980485.709077199</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3301,7 +3459,7 @@
         <v>2980485.709077199</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3400,7 +3558,7 @@
         <v>2998701.6277772</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3433,7 +3591,7 @@
         <v>2998701.6277772</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3466,7 +3624,7 @@
         <v>3254306.6277772</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3499,7 +3657,7 @@
         <v>3242407.3082772</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3532,7 +3690,7 @@
         <v>3242217.1941772</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3598,7 +3756,7 @@
         <v>3247217.1941772</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3631,7 +3789,7 @@
         <v>3262217.1941772</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3664,7 +3822,7 @@
         <v>3262217.1941772</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3730,7 +3888,7 @@
         <v>3280192.00899201</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3829,7 +3987,7 @@
         <v>3279938.38899201</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3862,7 +4020,7 @@
         <v>3276210.38899201</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3895,7 +4053,7 @@
         <v>3276210.38899201</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3928,7 +4086,7 @@
         <v>3237147.88899201</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3961,7 +4119,7 @@
         <v>3237242.88899201</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3994,7 +4152,7 @@
         <v>2860858.84899201</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4027,7 +4185,7 @@
         <v>2871444.49899201</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4060,7 +4218,7 @@
         <v>2871539.49899201</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4093,7 +4251,7 @@
         <v>2857749.756492009</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4291,7 +4449,7 @@
         <v>2513916.03709201</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4324,7 +4482,7 @@
         <v>2520959.03699201</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4357,7 +4515,7 @@
         <v>2519072.24459201</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4390,7 +4548,7 @@
         <v>2539072.24459201</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -6249,6 +6407,6 @@
       <c r="M169" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest XVG.xlsx
+++ b/BackTest/2019-11-20 BackTest XVG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,14 +517,10 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,749 +550,621 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>5.11</v>
       </c>
-      <c r="J5" t="n">
+      <c r="C6" t="n">
         <v>5.11</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="D6" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30487</v>
+      </c>
+      <c r="G6" t="n">
+        <v>646703.0100771999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>187047.4361</v>
+      </c>
+      <c r="G7" t="n">
+        <v>646703.0100771999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F8" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>566703.0100771999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15765</v>
+      </c>
+      <c r="G9" t="n">
+        <v>582468.0100771999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>58827.3453</v>
+      </c>
+      <c r="G10" t="n">
+        <v>582468.0100771999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>577468.0100771999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>577468.0100771999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F13" t="n">
+        <v>92267</v>
+      </c>
+      <c r="G13" t="n">
+        <v>669735.0100771999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>56710.2205</v>
+      </c>
+      <c r="G14" t="n">
+        <v>669735.0100771999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>669635.0100771999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>234172</v>
+      </c>
+      <c r="G16" t="n">
+        <v>435463.0100771999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F17" t="n">
+        <v>98360.94620000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>533823.9562771999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8999.999900000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>524823.9563771999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F19" t="n">
+        <v>56710.2205</v>
+      </c>
+      <c r="G19" t="n">
+        <v>468113.7358771999</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D20" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F20" t="n">
+        <v>32756.2728</v>
+      </c>
+      <c r="G20" t="n">
+        <v>468113.7358771999</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12048.0211</v>
+      </c>
+      <c r="G21" t="n">
+        <v>480161.7569771999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F22" t="n">
+        <v>46852.496</v>
+      </c>
+      <c r="G22" t="n">
+        <v>480161.7569771999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30487</v>
-      </c>
-      <c r="G6" t="n">
-        <v>646703.0100771999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2728</v>
+      </c>
+      <c r="G23" t="n">
+        <v>482889.7569771999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="F7" t="n">
-        <v>187047.4361</v>
-      </c>
-      <c r="G7" t="n">
-        <v>646703.0100771999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="F8" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>566703.0100771999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15765</v>
-      </c>
-      <c r="G9" t="n">
-        <v>582468.0100771999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>58827.3453</v>
-      </c>
-      <c r="G10" t="n">
-        <v>582468.0100771999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>577468.0100771999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>577468.0100771999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F13" t="n">
-        <v>92267</v>
-      </c>
-      <c r="G13" t="n">
-        <v>669735.0100771999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>56710.2205</v>
-      </c>
-      <c r="G14" t="n">
-        <v>669735.0100771999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>669635.0100771999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>234172</v>
-      </c>
-      <c r="G16" t="n">
-        <v>435463.0100771999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5.09</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D17" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F17" t="n">
-        <v>98360.94620000001</v>
-      </c>
-      <c r="G17" t="n">
-        <v>533823.9562771999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8999.999900000001</v>
-      </c>
-      <c r="G18" t="n">
-        <v>524823.9563771999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F19" t="n">
-        <v>56710.2205</v>
-      </c>
-      <c r="G19" t="n">
-        <v>468113.7358771999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="F20" t="n">
-        <v>32756.2728</v>
-      </c>
-      <c r="G20" t="n">
-        <v>468113.7358771999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="F21" t="n">
-        <v>12048.0211</v>
-      </c>
-      <c r="G21" t="n">
-        <v>480161.7569771999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F22" t="n">
-        <v>46852.496</v>
-      </c>
-      <c r="G22" t="n">
-        <v>480161.7569771999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="J22" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="D23" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="E23" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2728</v>
-      </c>
-      <c r="G23" t="n">
-        <v>482889.7569771999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1325,19 +1193,11 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="J24" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1366,19 +1226,11 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1407,19 +1259,11 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1448,19 +1292,11 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1489,19 +1325,11 @@
         <v>520888.7569771999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1530,17 +1358,11 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1569,17 +1391,11 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1608,17 +1424,11 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1650,14 +1460,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1689,14 +1493,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1725,17 +1523,11 @@
         <v>384912.7569771999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1764,17 +1556,11 @@
         <v>384912.7569771999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1803,17 +1589,11 @@
         <v>384912.7569771999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1845,14 +1625,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1881,17 +1655,11 @@
         <v>464912.7569771999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1920,17 +1688,11 @@
         <v>464912.7569771999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1962,14 +1724,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2001,14 +1757,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2040,14 +1790,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2079,14 +1823,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2118,14 +1856,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2157,14 +1889,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2196,14 +1922,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2235,14 +1955,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2274,14 +1988,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2313,14 +2021,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2352,14 +2054,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2391,14 +2087,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2430,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2469,14 +2153,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2508,14 +2186,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2547,14 +2219,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2586,14 +2252,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2625,14 +2285,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2664,14 +2318,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2703,14 +2351,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2742,14 +2384,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2781,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2820,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2859,14 +2483,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2898,14 +2516,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2937,14 +2549,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2976,14 +2582,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3015,14 +2615,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3054,14 +2648,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3090,19 +2678,13 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>1.045980392156863</v>
+        <v>1</v>
       </c>
       <c r="M69" t="inlineStr"/>
     </row>
@@ -3129,7 +2711,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3162,7 +2744,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3195,7 +2777,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3228,7 +2810,7 @@
         <v>2499079.632877199</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3261,7 +2843,7 @@
         <v>2514074.092877199</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3294,7 +2876,7 @@
         <v>2514074.092877199</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3327,7 +2909,7 @@
         <v>2510610.862677199</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3360,7 +2942,7 @@
         <v>2980747.009077199</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3393,7 +2975,7 @@
         <v>2980485.709077199</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3426,7 +3008,7 @@
         <v>2980485.709077199</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3459,7 +3041,7 @@
         <v>2980485.709077199</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3558,7 +3140,7 @@
         <v>2998701.6277772</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3591,7 +3173,7 @@
         <v>2998701.6277772</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3624,7 +3206,7 @@
         <v>3254306.6277772</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3657,7 +3239,7 @@
         <v>3242407.3082772</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3690,7 +3272,7 @@
         <v>3242217.1941772</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3756,7 +3338,7 @@
         <v>3247217.1941772</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3789,7 +3371,7 @@
         <v>3262217.1941772</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3822,7 +3404,7 @@
         <v>3262217.1941772</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3888,7 +3470,7 @@
         <v>3280192.00899201</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4020,7 +3602,7 @@
         <v>3276210.38899201</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4053,7 +3635,7 @@
         <v>3276210.38899201</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4086,7 +3668,7 @@
         <v>3237147.88899201</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4119,7 +3701,7 @@
         <v>3237242.88899201</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4152,7 +3734,7 @@
         <v>2860858.84899201</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4185,7 +3767,7 @@
         <v>2871444.49899201</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4218,7 +3800,7 @@
         <v>2871539.49899201</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4251,7 +3833,7 @@
         <v>2857749.756492009</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4449,7 +4031,7 @@
         <v>2513916.03709201</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4482,7 +4064,7 @@
         <v>2520959.03699201</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4515,7 +4097,7 @@
         <v>2519072.24459201</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4548,7 +4130,7 @@
         <v>2539072.24459201</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -6407,6 +5989,6 @@
       <c r="M169" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-20 BackTest XVG.xlsx
+++ b/BackTest/2019-11-20 BackTest XVG.xlsx
@@ -451,7 +451,7 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5.11</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.11</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>646703.0100771999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>566703.0100771999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>582468.0100771999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.02</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>582468.0100771999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>577468.0100771999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +841,14 @@
         <v>577468.0100771999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.07</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +878,19 @@
         <v>669735.0100771999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,19 @@
         <v>669735.0100771999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +960,17 @@
         <v>669635.0100771999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +999,17 @@
         <v>435463.0100771999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1038,17 @@
         <v>533823.9562771999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1077,17 @@
         <v>524823.9563771999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1116,17 @@
         <v>468113.7358771999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,15 +1194,17 @@
         <v>480161.7569771999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>5.07</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1119,11 +1237,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>4.97</v>
+        <v>5.07</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1158,11 +1276,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>4.97</v>
+        <v>5.07</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1196,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1229,8 +1353,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1259,11 +1389,17 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1292,11 +1428,17 @@
         <v>482889.7569771999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1325,11 +1467,17 @@
         <v>520888.7569771999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1358,11 +1506,17 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1391,11 +1545,17 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1424,11 +1584,17 @@
         <v>369810.7569771999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1460,8 +1626,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1493,8 +1665,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1523,11 +1701,17 @@
         <v>384912.7569771999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1556,11 +1740,17 @@
         <v>384912.7569771999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1589,11 +1779,17 @@
         <v>384912.7569771999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1625,8 +1821,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1857,17 @@
         <v>464912.7569771999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1688,11 +1896,17 @@
         <v>464912.7569771999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1724,8 +1938,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1757,8 +1977,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1790,8 +2016,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1823,8 +2055,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1856,8 +2094,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1889,8 +2133,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1922,8 +2172,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1955,8 +2211,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1988,8 +2250,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2021,8 +2289,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2054,8 +2328,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2087,8 +2367,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2120,8 +2406,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2150,15 +2442,23 @@
         <v>2643133.010377199</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>1.067978303747535</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.01792828685259</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2183,7 +2483,7 @@
         <v>2638935.671777199</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2315,7 +2615,7 @@
         <v>2615935.244177199</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2414,7 +2714,7 @@
         <v>2655919.020777199</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2447,7 +2747,7 @@
         <v>2653750.262277199</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2480,7 +2780,7 @@
         <v>2653750.262277199</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2513,7 +2813,7 @@
         <v>2602408.227277199</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2546,7 +2846,7 @@
         <v>2602408.227277199</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2579,7 +2879,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2612,7 +2912,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2645,7 +2945,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2678,7 +2978,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2711,7 +3011,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2744,7 +3044,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2777,7 +3077,7 @@
         <v>2602148.892877199</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2810,7 +3110,7 @@
         <v>2499079.632877199</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2843,7 +3143,7 @@
         <v>2514074.092877199</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2876,7 +3176,7 @@
         <v>2514074.092877199</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2909,7 +3209,7 @@
         <v>2510610.862677199</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2942,7 +3242,7 @@
         <v>2980747.009077199</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2975,7 +3275,7 @@
         <v>2980485.709077199</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3107,7 +3407,7 @@
         <v>2893915.4436772</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3371,7 +3671,7 @@
         <v>3262217.1941772</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3404,7 +3704,7 @@
         <v>3262217.1941772</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3437,7 +3737,7 @@
         <v>3262027.1941772</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3503,7 +3803,7 @@
         <v>3279938.38899201</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3536,7 +3836,7 @@
         <v>3279938.38899201</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3569,7 +3869,7 @@
         <v>3279938.38899201</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3635,7 +3935,7 @@
         <v>3276210.38899201</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3734,7 +4034,7 @@
         <v>2860858.84899201</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3767,7 +4067,7 @@
         <v>2871444.49899201</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>

--- a/BackTest/2019-11-20 BackTest XVG.xlsx
+++ b/BackTest/2019-11-20 BackTest XVG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M169"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>31453.6301</v>
       </c>
       <c r="G2" t="n">
-        <v>646703.0100771999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>2079.72</v>
       </c>
       <c r="G3" t="n">
-        <v>646703.0100771999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,15 @@
         <v>5000</v>
       </c>
       <c r="G4" t="n">
-        <v>646703.0100771999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +533,15 @@
         <v>156673.1737</v>
       </c>
       <c r="G5" t="n">
-        <v>646703.0100771999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +563,19 @@
         <v>30487</v>
       </c>
       <c r="G6" t="n">
-        <v>646703.0100771999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5.11</v>
       </c>
       <c r="I6" t="n">
         <v>5.11</v>
       </c>
-      <c r="J6" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +597,23 @@
         <v>187047.4361</v>
       </c>
       <c r="G7" t="n">
-        <v>646703.0100771999</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5.11</v>
       </c>
       <c r="I7" t="n">
         <v>5.11</v>
       </c>
-      <c r="J7" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +635,23 @@
         <v>80000</v>
       </c>
       <c r="G8" t="n">
-        <v>566703.0100771999</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5.11</v>
       </c>
       <c r="I8" t="n">
         <v>5.11</v>
       </c>
-      <c r="J8" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,22 +673,19 @@
         <v>15765</v>
       </c>
       <c r="G9" t="n">
-        <v>582468.0100771999</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5.02</v>
       </c>
       <c r="I9" t="n">
         <v>5.02</v>
       </c>
-      <c r="J9" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,26 +707,23 @@
         <v>58827.3453</v>
       </c>
       <c r="G10" t="n">
-        <v>582468.0100771999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J10" t="n">
         <v>5.02</v>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -797,26 +745,23 @@
         <v>5000</v>
       </c>
       <c r="G11" t="n">
-        <v>577468.0100771999</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J11" t="n">
         <v>5.02</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,22 +783,19 @@
         <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>577468.0100771999</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>5.07</v>
       </c>
       <c r="I12" t="n">
         <v>5.07</v>
       </c>
-      <c r="J12" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,26 +817,23 @@
         <v>92267</v>
       </c>
       <c r="G13" t="n">
-        <v>669735.0100771999</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>5.07</v>
       </c>
       <c r="I13" t="n">
         <v>5.07</v>
       </c>
-      <c r="J13" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -916,26 +855,21 @@
         <v>56710.2205</v>
       </c>
       <c r="G14" t="n">
-        <v>669735.0100771999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K14" t="inlineStr">
+        <v>5.07</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -957,24 +891,21 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>669635.0100771999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -996,24 +927,21 @@
         <v>234172</v>
       </c>
       <c r="G16" t="n">
-        <v>435463.0100771999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1035,24 +963,21 @@
         <v>98360.94620000001</v>
       </c>
       <c r="G17" t="n">
-        <v>533823.9562771999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1074,24 +999,23 @@
         <v>8999.999900000001</v>
       </c>
       <c r="G18" t="n">
-        <v>524823.9563771999</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>5.07</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1113,24 +1037,23 @@
         <v>56710.2205</v>
       </c>
       <c r="G19" t="n">
-        <v>468113.7358771999</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>4.99</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1152,24 +1075,23 @@
         <v>32756.2728</v>
       </c>
       <c r="G20" t="n">
-        <v>468113.7358771999</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>4.97</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1191,24 +1113,23 @@
         <v>12048.0211</v>
       </c>
       <c r="G21" t="n">
-        <v>480161.7569771999</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>4.97</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1230,24 +1151,23 @@
         <v>46852.496</v>
       </c>
       <c r="G22" t="n">
-        <v>480161.7569771999</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>5.07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1269,24 +1189,21 @@
         <v>2728</v>
       </c>
       <c r="G23" t="n">
-        <v>482889.7569771999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1308,24 +1225,21 @@
         <v>5000</v>
       </c>
       <c r="G24" t="n">
-        <v>482889.7569771999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1347,24 +1261,21 @@
         <v>5000</v>
       </c>
       <c r="G25" t="n">
-        <v>482889.7569771999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1386,24 +1297,23 @@
         <v>2906</v>
       </c>
       <c r="G26" t="n">
-        <v>482889.7569771999</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>5.08</v>
+      </c>
+      <c r="I26" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1425,24 +1335,23 @@
         <v>63340</v>
       </c>
       <c r="G27" t="n">
-        <v>482889.7569771999</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>5.08</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1464,24 +1373,23 @@
         <v>37999</v>
       </c>
       <c r="G28" t="n">
-        <v>520888.7569771999</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>5.08</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1503,24 +1411,23 @@
         <v>151078</v>
       </c>
       <c r="G29" t="n">
-        <v>369810.7569771999</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>5.15</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1542,24 +1449,23 @@
         <v>255398.3233</v>
       </c>
       <c r="G30" t="n">
-        <v>369810.7569771999</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>5.14</v>
+      </c>
+      <c r="I30" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1581,24 +1487,23 @@
         <v>51398.1306</v>
       </c>
       <c r="G31" t="n">
-        <v>369810.7569771999</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>5.14</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1620,24 +1525,23 @@
         <v>25000</v>
       </c>
       <c r="G32" t="n">
-        <v>394810.7569771999</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>5.14</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1659,24 +1563,21 @@
         <v>10000</v>
       </c>
       <c r="G33" t="n">
-        <v>384810.7569771999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1698,24 +1599,23 @@
         <v>102</v>
       </c>
       <c r="G34" t="n">
-        <v>384912.7569771999</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K34" t="inlineStr">
+        <v>5.12</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1737,24 +1637,21 @@
         <v>369200.4767</v>
       </c>
       <c r="G35" t="n">
-        <v>384912.7569771999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1776,24 +1673,21 @@
         <v>95988.3841</v>
       </c>
       <c r="G36" t="n">
-        <v>384912.7569771999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1815,24 +1709,23 @@
         <v>40000</v>
       </c>
       <c r="G37" t="n">
-        <v>384912.7569771999</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>5.21</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1854,24 +1747,21 @@
         <v>80000</v>
       </c>
       <c r="G38" t="n">
-        <v>464912.7569771999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1893,24 +1783,21 @@
         <v>17618</v>
       </c>
       <c r="G39" t="n">
-        <v>464912.7569771999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1932,24 +1819,21 @@
         <v>58590.9838</v>
       </c>
       <c r="G40" t="n">
-        <v>406321.7731771999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1971,24 +1855,21 @@
         <v>284328.3541</v>
       </c>
       <c r="G41" t="n">
-        <v>690650.1272771999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2010,24 +1891,21 @@
         <v>1072196.9738</v>
       </c>
       <c r="G42" t="n">
-        <v>1762847.1010772</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2049,24 +1927,21 @@
         <v>77080.1744</v>
       </c>
       <c r="G43" t="n">
-        <v>1839927.2754772</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2088,24 +1963,21 @@
         <v>9546</v>
       </c>
       <c r="G44" t="n">
-        <v>1839927.2754772</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2127,24 +1999,21 @@
         <v>726116.0763</v>
       </c>
       <c r="G45" t="n">
-        <v>2566043.3517772</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2166,24 +2035,21 @@
         <v>59714</v>
       </c>
       <c r="G46" t="n">
-        <v>2506329.3517772</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K46" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2205,24 +2071,21 @@
         <v>374.976</v>
       </c>
       <c r="G47" t="n">
-        <v>2506704.327777199</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2244,24 +2107,21 @@
         <v>150</v>
       </c>
       <c r="G48" t="n">
-        <v>2506854.327777199</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2283,24 +2143,21 @@
         <v>106111.0321</v>
       </c>
       <c r="G49" t="n">
-        <v>2612965.359877199</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2322,24 +2179,21 @@
         <v>30167.6505</v>
       </c>
       <c r="G50" t="n">
-        <v>2643133.010377199</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2361,24 +2215,21 @@
         <v>79304.28750000001</v>
       </c>
       <c r="G51" t="n">
-        <v>2643133.010377199</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2400,24 +2251,21 @@
         <v>4650.226</v>
       </c>
       <c r="G52" t="n">
-        <v>2643133.010377199</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2439,26 +2287,21 @@
         <v>55732.9893</v>
       </c>
       <c r="G53" t="n">
-        <v>2643133.010377199</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1.067978303747535</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.01792828685259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2480,18 +2323,21 @@
         <v>4197.3386</v>
       </c>
       <c r="G54" t="n">
-        <v>2638935.671777199</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2513,18 +2359,21 @@
         <v>3987.4717</v>
       </c>
       <c r="G55" t="n">
-        <v>2638935.671777199</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2546,18 +2395,21 @@
         <v>3788.0981</v>
       </c>
       <c r="G56" t="n">
-        <v>2642723.7698772</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2579,18 +2431,23 @@
         <v>7697.6931</v>
       </c>
       <c r="G57" t="n">
-        <v>2650421.462977199</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1.071923076923077</v>
+      </c>
       <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>1.01792828685259</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2612,18 +2469,15 @@
         <v>34486.2188</v>
       </c>
       <c r="G58" t="n">
-        <v>2615935.244177199</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2645,18 +2499,15 @@
         <v>34164.2188</v>
       </c>
       <c r="G59" t="n">
-        <v>2650099.462977199</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2678,18 +2529,15 @@
         <v>5819.5578</v>
       </c>
       <c r="G60" t="n">
-        <v>2655919.020777199</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2711,18 +2559,15 @@
         <v>20000</v>
       </c>
       <c r="G61" t="n">
-        <v>2655919.020777199</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2744,18 +2589,15 @@
         <v>2168.7585</v>
       </c>
       <c r="G62" t="n">
-        <v>2653750.262277199</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2777,18 +2619,15 @@
         <v>49971.2414</v>
       </c>
       <c r="G63" t="n">
-        <v>2653750.262277199</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2810,18 +2649,15 @@
         <v>51342.035</v>
       </c>
       <c r="G64" t="n">
-        <v>2602408.227277199</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2843,18 +2679,15 @@
         <v>25935.9999</v>
       </c>
       <c r="G65" t="n">
-        <v>2602408.227277199</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2876,18 +2709,15 @@
         <v>259.3344</v>
       </c>
       <c r="G66" t="n">
-        <v>2602148.892877199</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2909,18 +2739,15 @@
         <v>1361.5056</v>
       </c>
       <c r="G67" t="n">
-        <v>2602148.892877199</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2942,18 +2769,15 @@
         <v>19573.0463</v>
       </c>
       <c r="G68" t="n">
-        <v>2602148.892877199</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2975,18 +2799,15 @@
         <v>19573.0462</v>
       </c>
       <c r="G69" t="n">
-        <v>2602148.892877199</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3008,18 +2829,15 @@
         <v>8080</v>
       </c>
       <c r="G70" t="n">
-        <v>2602148.892877199</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3041,18 +2859,15 @@
         <v>90667.5987</v>
       </c>
       <c r="G71" t="n">
-        <v>2602148.892877199</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3074,18 +2889,15 @@
         <v>154699.5713</v>
       </c>
       <c r="G72" t="n">
-        <v>2602148.892877199</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3107,18 +2919,15 @@
         <v>103069.26</v>
       </c>
       <c r="G73" t="n">
-        <v>2499079.632877199</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3140,18 +2949,15 @@
         <v>14994.46</v>
       </c>
       <c r="G74" t="n">
-        <v>2514074.092877199</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3173,18 +2979,15 @@
         <v>11219.44</v>
       </c>
       <c r="G75" t="n">
-        <v>2514074.092877199</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3206,18 +3009,15 @@
         <v>3463.2302</v>
       </c>
       <c r="G76" t="n">
-        <v>2510610.862677199</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3239,18 +3039,15 @@
         <v>470136.1464</v>
       </c>
       <c r="G77" t="n">
-        <v>2980747.009077199</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3272,18 +3069,15 @@
         <v>261.3</v>
       </c>
       <c r="G78" t="n">
-        <v>2980485.709077199</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3305,18 +3099,15 @@
         <v>609.4275</v>
       </c>
       <c r="G79" t="n">
-        <v>2980485.709077199</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3338,18 +3129,15 @@
         <v>129.2725</v>
       </c>
       <c r="G80" t="n">
-        <v>2980485.709077199</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3371,18 +3159,15 @@
         <v>86192.2654</v>
       </c>
       <c r="G81" t="n">
-        <v>2894293.4436772</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3404,18 +3189,15 @@
         <v>378</v>
       </c>
       <c r="G82" t="n">
-        <v>2893915.4436772</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3437,18 +3219,15 @@
         <v>104786.1841</v>
       </c>
       <c r="G83" t="n">
-        <v>2998701.6277772</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3470,18 +3249,15 @@
         <v>25038.3995</v>
       </c>
       <c r="G84" t="n">
-        <v>2998701.6277772</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3503,18 +3279,15 @@
         <v>255605</v>
       </c>
       <c r="G85" t="n">
-        <v>3254306.6277772</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3536,18 +3309,15 @@
         <v>11899.3195</v>
       </c>
       <c r="G86" t="n">
-        <v>3242407.3082772</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3569,18 +3339,15 @@
         <v>190.1141</v>
       </c>
       <c r="G87" t="n">
-        <v>3242217.1941772</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3602,18 +3369,15 @@
         <v>4174.5308</v>
       </c>
       <c r="G88" t="n">
-        <v>3242217.1941772</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3635,18 +3399,15 @@
         <v>5000</v>
       </c>
       <c r="G89" t="n">
-        <v>3247217.1941772</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3668,18 +3429,15 @@
         <v>15000</v>
       </c>
       <c r="G90" t="n">
-        <v>3262217.1941772</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3701,18 +3459,15 @@
         <v>1330</v>
       </c>
       <c r="G91" t="n">
-        <v>3262217.1941772</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3734,18 +3489,15 @@
         <v>190</v>
       </c>
       <c r="G92" t="n">
-        <v>3262027.1941772</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3767,18 +3519,15 @@
         <v>18164.81481481</v>
       </c>
       <c r="G93" t="n">
-        <v>3280192.00899201</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3800,18 +3549,15 @@
         <v>253.62</v>
       </c>
       <c r="G94" t="n">
-        <v>3279938.38899201</v>
-      </c>
-      <c r="H94" t="n">
         <v>2</v>
       </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3833,18 +3579,15 @@
         <v>15765.38</v>
       </c>
       <c r="G95" t="n">
-        <v>3279938.38899201</v>
-      </c>
-      <c r="H95" t="n">
         <v>2</v>
       </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3866,18 +3609,15 @@
         <v>8553.9233</v>
       </c>
       <c r="G96" t="n">
-        <v>3279938.38899201</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3899,18 +3639,15 @@
         <v>3728</v>
       </c>
       <c r="G97" t="n">
-        <v>3276210.38899201</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3932,18 +3669,15 @@
         <v>0.7366</v>
       </c>
       <c r="G98" t="n">
-        <v>3276210.38899201</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3965,18 +3699,15 @@
         <v>39062.5</v>
       </c>
       <c r="G99" t="n">
-        <v>3237147.88899201</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3998,18 +3729,15 @@
         <v>95</v>
       </c>
       <c r="G100" t="n">
-        <v>3237242.88899201</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4031,18 +3759,15 @@
         <v>376384.04</v>
       </c>
       <c r="G101" t="n">
-        <v>2860858.84899201</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4064,18 +3789,15 @@
         <v>10585.65</v>
       </c>
       <c r="G102" t="n">
-        <v>2871444.49899201</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4097,18 +3819,15 @@
         <v>95</v>
       </c>
       <c r="G103" t="n">
-        <v>2871539.49899201</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,18 +3849,15 @@
         <v>13789.7425</v>
       </c>
       <c r="G104" t="n">
-        <v>2857749.756492009</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4163,18 +3879,15 @@
         <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>2857849.756492009</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4196,18 +3909,15 @@
         <v>63236.9635</v>
       </c>
       <c r="G106" t="n">
-        <v>2794612.792992009</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4229,18 +3939,15 @@
         <v>128214.8918</v>
       </c>
       <c r="G107" t="n">
-        <v>2666397.901192009</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4262,18 +3969,15 @@
         <v>66991</v>
       </c>
       <c r="G108" t="n">
-        <v>2666397.901192009</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4295,18 +3999,15 @@
         <v>207988.4386</v>
       </c>
       <c r="G109" t="n">
-        <v>2666397.901192009</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4328,18 +4029,15 @@
         <v>152481.8641</v>
       </c>
       <c r="G110" t="n">
-        <v>2513916.03709201</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4361,18 +4059,15 @@
         <v>7042.9999</v>
       </c>
       <c r="G111" t="n">
-        <v>2520959.03699201</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4394,18 +4089,15 @@
         <v>1886.7924</v>
       </c>
       <c r="G112" t="n">
-        <v>2519072.24459201</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4427,18 +4119,15 @@
         <v>20000</v>
       </c>
       <c r="G113" t="n">
-        <v>2539072.24459201</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4460,18 +4149,15 @@
         <v>66680</v>
       </c>
       <c r="G114" t="n">
-        <v>2539072.24459201</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4493,18 +4179,15 @@
         <v>83350</v>
       </c>
       <c r="G115" t="n">
-        <v>2539072.24459201</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4526,18 +4209,15 @@
         <v>16670</v>
       </c>
       <c r="G116" t="n">
-        <v>2555742.24459201</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4559,18 +4239,15 @@
         <v>13789.7425</v>
       </c>
       <c r="G117" t="n">
-        <v>2541952.502092009</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4592,18 +4269,15 @@
         <v>97</v>
       </c>
       <c r="G118" t="n">
-        <v>2542049.502092009</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4625,18 +4299,15 @@
         <v>51000</v>
       </c>
       <c r="G119" t="n">
-        <v>2491049.502092009</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4658,18 +4329,15 @@
         <v>1028058.7649</v>
       </c>
       <c r="G120" t="n">
-        <v>2491049.502092009</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4691,18 +4359,15 @@
         <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>2491149.502092009</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4724,18 +4389,15 @@
         <v>206956.7537</v>
       </c>
       <c r="G122" t="n">
-        <v>2284192.748392009</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4757,18 +4419,15 @@
         <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>2284292.748392009</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4790,18 +4449,15 @@
         <v>1600</v>
       </c>
       <c r="G124" t="n">
-        <v>2282692.748392009</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4823,18 +4479,15 @@
         <v>537020.7574999999</v>
       </c>
       <c r="G125" t="n">
-        <v>1745671.990892009</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4856,18 +4509,15 @@
         <v>1040531.2258</v>
       </c>
       <c r="G126" t="n">
-        <v>705140.7650920093</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4889,18 +4539,15 @@
         <v>441.5057915</v>
       </c>
       <c r="G127" t="n">
-        <v>705582.2708835093</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4922,18 +4569,15 @@
         <v>85388.3819085</v>
       </c>
       <c r="G128" t="n">
-        <v>705582.2708835093</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4955,18 +4599,15 @@
         <v>15074.9999</v>
       </c>
       <c r="G129" t="n">
-        <v>705582.2708835093</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4988,18 +4629,15 @@
         <v>166510.5198</v>
       </c>
       <c r="G130" t="n">
-        <v>872092.7906835093</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5021,18 +4659,15 @@
         <v>122966.6384</v>
       </c>
       <c r="G131" t="n">
-        <v>872092.7906835093</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5054,18 +4689,15 @@
         <v>879</v>
       </c>
       <c r="G132" t="n">
-        <v>871213.7906835093</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5087,18 +4719,15 @@
         <v>15406</v>
       </c>
       <c r="G133" t="n">
-        <v>871213.7906835093</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5120,18 +4749,15 @@
         <v>23195</v>
       </c>
       <c r="G134" t="n">
-        <v>894408.7906835093</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5153,18 +4779,15 @@
         <v>9000</v>
       </c>
       <c r="G135" t="n">
-        <v>885408.7906835093</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5186,18 +4809,15 @@
         <v>83393.7254</v>
       </c>
       <c r="G136" t="n">
-        <v>968802.5160835093</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5219,18 +4839,15 @@
         <v>10000</v>
       </c>
       <c r="G137" t="n">
-        <v>958802.5160835093</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5252,18 +4869,15 @@
         <v>97</v>
       </c>
       <c r="G138" t="n">
-        <v>958899.5160835093</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5285,18 +4899,15 @@
         <v>695382.2756000001</v>
       </c>
       <c r="G139" t="n">
-        <v>1654281.791683509</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5318,18 +4929,15 @@
         <v>5000</v>
       </c>
       <c r="G140" t="n">
-        <v>1649281.791683509</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5351,18 +4959,15 @@
         <v>128</v>
       </c>
       <c r="G141" t="n">
-        <v>1649409.791683509</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5384,18 +4989,15 @@
         <v>95730.5086</v>
       </c>
       <c r="G142" t="n">
-        <v>1649409.791683509</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5417,18 +5019,15 @@
         <v>767.5472</v>
       </c>
       <c r="G143" t="n">
-        <v>1648642.24448351</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5450,18 +5049,15 @@
         <v>689286.2756000001</v>
       </c>
       <c r="G144" t="n">
-        <v>2337928.520083509</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5483,18 +5079,15 @@
         <v>20100</v>
       </c>
       <c r="G145" t="n">
-        <v>2337928.520083509</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5516,18 +5109,15 @@
         <v>97</v>
       </c>
       <c r="G146" t="n">
-        <v>2337928.520083509</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5549,18 +5139,15 @@
         <v>9341.051600000001</v>
       </c>
       <c r="G147" t="n">
-        <v>2337928.520083509</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5582,18 +5169,15 @@
         <v>175</v>
       </c>
       <c r="G148" t="n">
-        <v>2337753.520083509</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5615,18 +5199,15 @@
         <v>8732.55813953</v>
       </c>
       <c r="G149" t="n">
-        <v>2346486.078223039</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5648,18 +5229,15 @@
         <v>6169.0753</v>
       </c>
       <c r="G150" t="n">
-        <v>2346486.078223039</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5681,18 +5259,15 @@
         <v>1110014.08456047</v>
       </c>
       <c r="G151" t="n">
-        <v>3456500.162783509</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5714,18 +5289,15 @@
         <v>116326.45343953</v>
       </c>
       <c r="G152" t="n">
-        <v>3456500.162783509</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5747,18 +5319,15 @@
         <v>312671.62</v>
       </c>
       <c r="G153" t="n">
-        <v>3143828.542783509</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5780,18 +5349,15 @@
         <v>421565.3659</v>
       </c>
       <c r="G154" t="n">
-        <v>3143828.542783509</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5813,18 +5379,15 @@
         <v>95.7855</v>
       </c>
       <c r="G155" t="n">
-        <v>3143924.328283509</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5846,18 +5409,15 @@
         <v>65645.2574</v>
       </c>
       <c r="G156" t="n">
-        <v>3078279.070883509</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5879,18 +5439,15 @@
         <v>260914</v>
       </c>
       <c r="G157" t="n">
-        <v>3078279.070883509</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5912,18 +5469,15 @@
         <v>89084.3315</v>
       </c>
       <c r="G158" t="n">
-        <v>3167363.402383509</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5945,18 +5499,15 @@
         <v>147940.8397</v>
       </c>
       <c r="G159" t="n">
-        <v>3315304.242083509</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5978,18 +5529,15 @@
         <v>372120.9099</v>
       </c>
       <c r="G160" t="n">
-        <v>3687425.151983509</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6011,18 +5559,15 @@
         <v>470173.696</v>
       </c>
       <c r="G161" t="n">
-        <v>3217251.455983509</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6044,18 +5589,15 @@
         <v>99</v>
       </c>
       <c r="G162" t="n">
-        <v>3217350.455983509</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6077,18 +5619,15 @@
         <v>95829.5086</v>
       </c>
       <c r="G163" t="n">
-        <v>3217350.455983509</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6110,18 +5649,15 @@
         <v>103721.1613</v>
       </c>
       <c r="G164" t="n">
-        <v>3217350.455983509</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6143,18 +5679,15 @@
         <v>444</v>
       </c>
       <c r="G165" t="n">
-        <v>3217350.455983509</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6176,18 +5709,15 @@
         <v>477951.9218</v>
       </c>
       <c r="G166" t="n">
-        <v>3217350.455983509</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6209,18 +5739,15 @@
         <v>19.2291</v>
       </c>
       <c r="G167" t="n">
-        <v>3217331.226883509</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6242,18 +5769,15 @@
         <v>99</v>
       </c>
       <c r="G168" t="n">
-        <v>3217232.226883509</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6275,18 +5799,15 @@
         <v>99</v>
       </c>
       <c r="G169" t="n">
-        <v>3217133.226883509</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
